--- a/data/preprocessed/video/S3_heave.xlsx
+++ b/data/preprocessed/video/S3_heave.xlsx
@@ -13438,7 +13438,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>0.06189391342916473</v>
+        <v>0.06187375254531158</v>
       </c>
       <c r="C71" t="n">
         <v>0.02070522771718312</v>
@@ -13582,7 +13582,7 @@
         <v>0</v>
       </c>
       <c r="AX71" t="n">
-        <v>0</v>
+        <v>2.016088385314812e-05</v>
       </c>
       <c r="AY71" t="n">
         <v>0</v>
@@ -13623,7 +13623,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>0.03810407048244995</v>
+        <v>0.03802342694703736</v>
       </c>
       <c r="C72" t="n">
         <v>0.01012076369428036</v>
@@ -13767,7 +13767,7 @@
         <v>0</v>
       </c>
       <c r="AX72" t="n">
-        <v>0</v>
+        <v>8.064353541259248e-05</v>
       </c>
       <c r="AY72" t="n">
         <v>0</v>
@@ -15473,7 +15473,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>0.04459587508316364</v>
+        <v>0.04451523154775106</v>
       </c>
       <c r="C82" t="n">
         <v>0.02770105441422552</v>
@@ -15617,7 +15617,7 @@
         <v>0</v>
       </c>
       <c r="AX82" t="n">
-        <v>0</v>
+        <v>8.064353541259248e-05</v>
       </c>
       <c r="AY82" t="n">
         <v>0</v>
@@ -17508,7 +17508,7 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>0.06308340557650047</v>
+        <v>0.06300276204108789</v>
       </c>
       <c r="C93" t="n">
         <v>0.119090340920546</v>
@@ -17652,7 +17652,7 @@
         <v>0</v>
       </c>
       <c r="AX93" t="n">
-        <v>0</v>
+        <v>8.064353541259248e-05</v>
       </c>
       <c r="AY93" t="n">
         <v>0</v>
@@ -21023,7 +21023,7 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>0.0482651559444366</v>
+        <v>0.04818451240902401</v>
       </c>
       <c r="C112" t="n">
         <v>0.01506018023830165</v>
@@ -21167,7 +21167,7 @@
         <v>0</v>
       </c>
       <c r="AX112" t="n">
-        <v>0</v>
+        <v>8.064353541259248e-05</v>
       </c>
       <c r="AY112" t="n">
         <v>0</v>
@@ -25648,7 +25648,7 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>0.09090542529384488</v>
+        <v>0.09086510352613858</v>
       </c>
       <c r="C137" t="n">
         <v>0.08872804983770488</v>
@@ -25657,7 +25657,7 @@
         <v>0.06782121328199028</v>
       </c>
       <c r="E137" t="n">
-        <v>0.253845688594988</v>
+        <v>0.2538053668272817</v>
       </c>
       <c r="F137" t="n">
         <v>0.1811455414205359</v>
@@ -25792,7 +25792,7 @@
         <v>0</v>
       </c>
       <c r="AX137" t="n">
-        <v>0</v>
+        <v>4.032176770629624e-05</v>
       </c>
       <c r="AY137" t="n">
         <v>0</v>
@@ -25801,7 +25801,7 @@
         <v>0</v>
       </c>
       <c r="BA137" t="n">
-        <v>0</v>
+        <v>4.032176770629624e-05</v>
       </c>
       <c r="BB137" t="n">
         <v>0</v>
@@ -31753,7 +31753,7 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>0.09753835608153061</v>
+        <v>0.09745771254611803</v>
       </c>
       <c r="C170" t="n">
         <v>0.06550271163887825</v>
@@ -31897,7 +31897,7 @@
         <v>0</v>
       </c>
       <c r="AX170" t="n">
-        <v>0</v>
+        <v>8.064353541259248e-05</v>
       </c>
       <c r="AY170" t="n">
         <v>0</v>
@@ -33973,7 +33973,7 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>0.2454789217959315</v>
+        <v>0.2453982782605189</v>
       </c>
       <c r="C182" t="n">
         <v>0.0735670651801375</v>
@@ -34117,7 +34117,7 @@
         <v>0</v>
       </c>
       <c r="AX182" t="n">
-        <v>0</v>
+        <v>8.064353541259248e-05</v>
       </c>
       <c r="AY182" t="n">
         <v>0</v>
@@ -40263,7 +40263,7 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>0.085341021350376</v>
+        <v>0.08526037781496341</v>
       </c>
       <c r="C216" t="n">
         <v>0.04461603596701679</v>
@@ -40407,7 +40407,7 @@
         <v>0</v>
       </c>
       <c r="AX216" t="n">
-        <v>0</v>
+        <v>8.064353541259248e-05</v>
       </c>
       <c r="AY216" t="n">
         <v>0</v>
@@ -40448,7 +40448,7 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>0.06526078103264048</v>
+        <v>0.06518013749722788</v>
       </c>
       <c r="C217" t="n">
         <v>0.01304409185298683</v>
@@ -40592,7 +40592,7 @@
         <v>0</v>
       </c>
       <c r="AX217" t="n">
-        <v>0</v>
+        <v>8.064353541259248e-05</v>
       </c>
       <c r="AY217" t="n">
         <v>0</v>
@@ -41003,7 +41003,7 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>0.06513981572952159</v>
+        <v>0.06505917219410899</v>
       </c>
       <c r="C220" t="n">
         <v>0.03151146146247052</v>
@@ -41147,7 +41147,7 @@
         <v>0</v>
       </c>
       <c r="AX220" t="n">
-        <v>0</v>
+        <v>8.064353541259248e-05</v>
       </c>
       <c r="AY220" t="n">
         <v>0</v>
@@ -41188,7 +41188,7 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>0.103304368863531</v>
+        <v>0.1032237253281184</v>
       </c>
       <c r="C221" t="n">
         <v>0.03467672022741477</v>
@@ -41332,7 +41332,7 @@
         <v>0</v>
       </c>
       <c r="AX221" t="n">
-        <v>0</v>
+        <v>8.064353541259248e-05</v>
       </c>
       <c r="AY221" t="n">
         <v>0</v>
@@ -43223,7 +43223,7 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>0.08388943771294934</v>
+        <v>0.08380879417753674</v>
       </c>
       <c r="C232" t="n">
         <v>0.04578536723049938</v>
@@ -43367,7 +43367,7 @@
         <v>0</v>
       </c>
       <c r="AX232" t="n">
-        <v>0</v>
+        <v>8.064353541259248e-05</v>
       </c>
       <c r="AY232" t="n">
         <v>0</v>
@@ -54138,7 +54138,7 @@
         <v>289</v>
       </c>
       <c r="B291" t="n">
-        <v>0.08707485736174674</v>
+        <v>0.08699421382633414</v>
       </c>
       <c r="C291" t="n">
         <v>0.0654825507550251</v>
@@ -54282,7 +54282,7 @@
         <v>0</v>
       </c>
       <c r="AX291" t="n">
-        <v>0</v>
+        <v>8.064353541259248e-05</v>
       </c>
       <c r="AY291" t="n">
         <v>0</v>
@@ -57468,7 +57468,7 @@
         <v>307</v>
       </c>
       <c r="B309" t="n">
-        <v>0.0391322755589605</v>
+        <v>0.03905163202354791</v>
       </c>
       <c r="C309" t="n">
         <v>0.02473740448781275</v>
@@ -57612,7 +57612,7 @@
         <v>0</v>
       </c>
       <c r="AX309" t="n">
-        <v>0</v>
+        <v>8.064353541259248e-05</v>
       </c>
       <c r="AY309" t="n">
         <v>0</v>
@@ -58208,7 +58208,7 @@
         <v>311</v>
       </c>
       <c r="B313" t="n">
-        <v>0.03840648374024717</v>
+        <v>0.03832584020483458</v>
       </c>
       <c r="C313" t="n">
         <v>0.0204028144593859</v>
@@ -58352,7 +58352,7 @@
         <v>0</v>
       </c>
       <c r="AX313" t="n">
-        <v>0</v>
+        <v>8.064353541259248e-05</v>
       </c>
       <c r="AY313" t="n">
         <v>0</v>
@@ -59697,7 +59697,7 @@
         <v>0.02479788713937219</v>
       </c>
       <c r="E321" t="n">
-        <v>0.03336626277696014</v>
+        <v>0.03328561924154755</v>
       </c>
       <c r="F321" t="n">
         <v>0.03743876131529606</v>
@@ -59841,7 +59841,7 @@
         <v>0</v>
       </c>
       <c r="BA321" t="n">
-        <v>0</v>
+        <v>8.064353541259248e-05</v>
       </c>
       <c r="BB321" t="n">
         <v>0</v>
@@ -60613,7 +60613,7 @@
         <v>324</v>
       </c>
       <c r="B326" t="n">
-        <v>0.06907118808088547</v>
+        <v>0.06899054454547288</v>
       </c>
       <c r="C326" t="n">
         <v>0.05300296364992641</v>
@@ -60757,7 +60757,7 @@
         <v>0</v>
       </c>
       <c r="AX326" t="n">
-        <v>0</v>
+        <v>8.064353541259248e-05</v>
       </c>
       <c r="AY326" t="n">
         <v>0</v>
@@ -65238,7 +65238,7 @@
         <v>349</v>
       </c>
       <c r="B351" t="n">
-        <v>0.08350638091973953</v>
+        <v>0.08342573738432693</v>
       </c>
       <c r="C351" t="n">
         <v>0.05435374286808733</v>
@@ -65382,7 +65382,7 @@
         <v>0</v>
       </c>
       <c r="AX351" t="n">
-        <v>0</v>
+        <v>8.064353541259248e-05</v>
       </c>
       <c r="AY351" t="n">
         <v>0</v>
@@ -65608,7 +65608,7 @@
         <v>351</v>
       </c>
       <c r="B353" t="n">
-        <v>0.07447430495352916</v>
+        <v>0.07439366141811657</v>
       </c>
       <c r="C353" t="n">
         <v>0.08074433983185823</v>
@@ -65752,7 +65752,7 @@
         <v>0</v>
       </c>
       <c r="AX353" t="n">
-        <v>0</v>
+        <v>8.064353541259248e-05</v>
       </c>
       <c r="AY353" t="n">
         <v>0</v>

--- a/data/preprocessed/video/S3_heave.xlsx
+++ b/data/preprocessed/video/S3_heave.xlsx
@@ -679,10 +679,10 @@
         <v>0.03677345214814218</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1115300094756154</v>
+        <v>0.1115501703594686</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3690651398157295</v>
+        <v>0.3690449789318764</v>
       </c>
       <c r="F2" t="n">
         <v>0.1096550472772726</v>
@@ -858,37 +858,37 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.03064454345678514</v>
+        <v>0.030624382572932</v>
       </c>
       <c r="C3" t="n">
-        <v>0.03293280377411745</v>
+        <v>0.0329529646579706</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1049172395717828</v>
+        <v>0.1049273200137094</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3945787383318884</v>
+        <v>0.3945585774480353</v>
       </c>
       <c r="F3" t="n">
-        <v>0.08742767282917684</v>
+        <v>0.08743775327110341</v>
       </c>
       <c r="G3" t="n">
-        <v>0.02908207495816617</v>
+        <v>0.02909215540009274</v>
       </c>
       <c r="H3" t="n">
-        <v>0.08811314288018386</v>
+        <v>0.08813330376403701</v>
       </c>
       <c r="I3" t="n">
-        <v>0.06115804116852483</v>
+        <v>0.06112779984274511</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0392129190943731</v>
+        <v>0.03922299953629967</v>
       </c>
       <c r="K3" t="n">
-        <v>0.05993830769540937</v>
+        <v>0.05991814681155622</v>
       </c>
       <c r="L3" t="n">
-        <v>0.03419285901493922</v>
+        <v>0.03420293945686579</v>
       </c>
       <c r="M3" t="n">
         <v>0.02454587609120784</v>
@@ -1043,40 +1043,40 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.03969006001223094</v>
+        <v>0.03965645853914235</v>
       </c>
       <c r="C4" t="n">
-        <v>0.03861481287339637</v>
+        <v>0.03863497375724952</v>
       </c>
       <c r="D4" t="n">
-        <v>0.09138256621170272</v>
+        <v>0.09129520238167241</v>
       </c>
       <c r="E4" t="n">
-        <v>0.426113720825521</v>
+        <v>0.4261473222986096</v>
       </c>
       <c r="F4" t="n">
-        <v>0.07552267091389286</v>
+        <v>0.07558987386007003</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03551675705462928</v>
+        <v>0.03554363823310014</v>
       </c>
       <c r="H4" t="n">
-        <v>0.08138276782054125</v>
+        <v>0.08136260693668811</v>
       </c>
       <c r="I4" t="n">
-        <v>0.04987802665268845</v>
+        <v>0.04992506871501247</v>
       </c>
       <c r="J4" t="n">
-        <v>0.03416597783646835</v>
+        <v>0.03415253724723292</v>
       </c>
       <c r="K4" t="n">
-        <v>0.04714286674327803</v>
+        <v>0.04708238409171858</v>
       </c>
       <c r="L4" t="n">
-        <v>0.04063090125871118</v>
+        <v>0.04058385919638717</v>
       </c>
       <c r="M4" t="n">
-        <v>0.02519438452181744</v>
+        <v>0.0252615874679946</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -1228,40 +1228,40 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.03263039051632024</v>
+        <v>0.03261022963246709</v>
       </c>
       <c r="C5" t="n">
-        <v>0.03483800729823996</v>
+        <v>0.03485312796112982</v>
       </c>
       <c r="D5" t="n">
-        <v>0.08804762000766114</v>
+        <v>0.08798209713513841</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4251880002419306</v>
+        <v>0.4252182415677103</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07344609987701861</v>
+        <v>0.07349650208665148</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04108788129271587</v>
+        <v>0.04110300195560573</v>
       </c>
       <c r="H5" t="n">
-        <v>0.07995806536158545</v>
+        <v>0.07994294469869559</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0594191649361908</v>
+        <v>0.05945444648293381</v>
       </c>
       <c r="J5" t="n">
-        <v>0.04733775528719179</v>
+        <v>0.04732767484526522</v>
       </c>
       <c r="K5" t="n">
-        <v>0.04515029938912522</v>
+        <v>0.04510493740045564</v>
       </c>
       <c r="L5" t="n">
-        <v>0.03652648132094111</v>
+        <v>0.0364911997741981</v>
       </c>
       <c r="M5" t="n">
-        <v>0.0214915021874559</v>
+        <v>0.02153686417612548</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -1413,40 +1413,40 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.02923328158706478</v>
+        <v>0.02921312070321163</v>
       </c>
       <c r="C6" t="n">
-        <v>0.03593879155662184</v>
+        <v>0.03593072720308058</v>
       </c>
       <c r="D6" t="n">
-        <v>0.09481663676135561</v>
+        <v>0.09472389669563114</v>
       </c>
       <c r="E6" t="n">
-        <v>0.4487409528033709</v>
+        <v>0.4488135319852422</v>
       </c>
       <c r="F6" t="n">
-        <v>0.07199048406282131</v>
+        <v>0.07204693453761013</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04450313501743917</v>
+        <v>0.04455152113868672</v>
       </c>
       <c r="H6" t="n">
-        <v>0.07911130823975324</v>
+        <v>0.07909921170944134</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0517086349065543</v>
+        <v>0.05171266708332493</v>
       </c>
       <c r="J6" t="n">
-        <v>0.04009193363037036</v>
+        <v>0.04007580492328783</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0401120945142235</v>
+        <v>0.04007983710005847</v>
       </c>
       <c r="L6" t="n">
-        <v>0.03092276365395859</v>
+        <v>0.03089050623979355</v>
       </c>
       <c r="M6" t="n">
-        <v>0.02092699743956775</v>
+        <v>0.02095925485373279</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -1598,40 +1598,40 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.03446839109426558</v>
+        <v>0.03444150991579471</v>
       </c>
       <c r="C7" t="n">
-        <v>0.03377956089594968</v>
+        <v>0.0338098022217294</v>
       </c>
       <c r="D7" t="n">
-        <v>0.08113747706699462</v>
+        <v>0.08107363426812632</v>
       </c>
       <c r="E7" t="n">
-        <v>0.3780064918046007</v>
+        <v>0.3780669744561602</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06505245189949127</v>
+        <v>0.06509949396181529</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04521078204068466</v>
+        <v>0.04525446395569982</v>
       </c>
       <c r="H7" t="n">
         <v>0.07709858000174728</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0490581507093271</v>
+        <v>0.04902790938354738</v>
       </c>
       <c r="J7" t="n">
-        <v>0.04390032459023004</v>
+        <v>0.04390704488484775</v>
       </c>
       <c r="K7" t="n">
-        <v>0.1144230963085422</v>
+        <v>0.1143827745408359</v>
       </c>
       <c r="L7" t="n">
-        <v>0.03538571130958381</v>
+        <v>0.03535210983649523</v>
       </c>
       <c r="M7" t="n">
-        <v>0.02682069581930472</v>
+        <v>0.02682741611392243</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
@@ -1783,40 +1783,40 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.03305232901410398</v>
+        <v>0.03302928800398609</v>
       </c>
       <c r="C8" t="n">
-        <v>0.03063014282546147</v>
+        <v>0.03065606396184409</v>
       </c>
       <c r="D8" t="n">
-        <v>0.07491496427203369</v>
+        <v>0.07486024187300372</v>
       </c>
       <c r="E8" t="n">
-        <v>0.3324644952434715</v>
+        <v>0.3325163375162367</v>
       </c>
       <c r="F8" t="n">
-        <v>0.05668664514252305</v>
+        <v>0.05672696691022935</v>
       </c>
       <c r="G8" t="n">
-        <v>0.04272379301108561</v>
+        <v>0.04276123465252717</v>
       </c>
       <c r="H8" t="n">
         <v>0.07630894538416565</v>
       </c>
       <c r="I8" t="n">
-        <v>0.05463887536829615</v>
+        <v>0.05461583435817826</v>
       </c>
       <c r="J8" t="n">
-        <v>0.05318153147834001</v>
+        <v>0.05318441160460475</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1662236072429415</v>
+        <v>0.1661890457277647</v>
       </c>
       <c r="L8" t="n">
-        <v>0.03361971388825686</v>
+        <v>0.03359091262560951</v>
       </c>
       <c r="M8" t="n">
-        <v>0.0249447735788737</v>
+        <v>0.02495053383140317</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -1968,37 +1968,37 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.03220953206588577</v>
+        <v>0.03220701195540412</v>
       </c>
       <c r="C9" t="n">
-        <v>0.02872673938025443</v>
+        <v>0.02872169915929114</v>
       </c>
       <c r="D9" t="n">
-        <v>0.07072690066732526</v>
+        <v>0.07067901856817403</v>
       </c>
       <c r="E9" t="n">
-        <v>0.2966875667829277</v>
+        <v>0.2967304086611157</v>
       </c>
       <c r="F9" t="n">
-        <v>0.05298532287655491</v>
+        <v>0.05300044353944477</v>
       </c>
       <c r="G9" t="n">
-        <v>0.04312665067236548</v>
+        <v>0.04317957299247999</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0767524848289349</v>
+        <v>0.07674240438700833</v>
       </c>
       <c r="I9" t="n">
-        <v>0.05280891514283986</v>
+        <v>0.05278623414850507</v>
       </c>
       <c r="J9" t="n">
-        <v>0.05462339468962319</v>
+        <v>0.05463851535251305</v>
       </c>
       <c r="K9" t="n">
-        <v>0.2019314126731316</v>
+        <v>0.2019162920102417</v>
       </c>
       <c r="L9" t="n">
-        <v>0.03564444265236588</v>
+        <v>0.03562176165803109</v>
       </c>
       <c r="M9" t="n">
         <v>0.02754480756436362</v>
@@ -2153,37 +2153,37 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.03125609026699731</v>
+        <v>0.03124936997237959</v>
       </c>
       <c r="C10" t="n">
-        <v>0.02831036112623177</v>
+        <v>0.02830140073340815</v>
       </c>
       <c r="D10" t="n">
-        <v>0.06504573160487356</v>
+        <v>0.06500092964075545</v>
       </c>
       <c r="E10" t="n">
-        <v>0.266862899269504</v>
+        <v>0.2669054611354162</v>
       </c>
       <c r="F10" t="n">
-        <v>0.05055005611446006</v>
+        <v>0.05055901650728368</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04436066477154359</v>
+        <v>0.04440546673566169</v>
       </c>
       <c r="H10" t="n">
-        <v>0.07794197697627064</v>
+        <v>0.07793525668165292</v>
       </c>
       <c r="I10" t="n">
-        <v>0.05047837297187108</v>
+        <v>0.05044477149878251</v>
       </c>
       <c r="J10" t="n">
-        <v>0.05382507969149367</v>
+        <v>0.05383628018252321</v>
       </c>
       <c r="K10" t="n">
-        <v>0.226509770188325</v>
+        <v>0.226487369206266</v>
       </c>
       <c r="L10" t="n">
-        <v>0.03680481352302485</v>
+        <v>0.03682049421046619</v>
       </c>
       <c r="M10" t="n">
         <v>0.03205356522829961</v>
@@ -2338,37 +2338,37 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.03422914860587488</v>
+        <v>0.03422310034071894</v>
       </c>
       <c r="C11" t="n">
-        <v>0.028991350980827</v>
+        <v>0.02898328662728574</v>
       </c>
       <c r="D11" t="n">
-        <v>0.06398661317312151</v>
+        <v>0.0639442753170299</v>
       </c>
       <c r="E11" t="n">
-        <v>0.2469768754662204</v>
+        <v>0.2470171972339267</v>
       </c>
       <c r="F11" t="n">
-        <v>0.04723291869115542</v>
+        <v>0.04724098304469668</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04329146589786496</v>
+        <v>0.04333178766557126</v>
       </c>
       <c r="H11" t="n">
-        <v>0.08101852785226105</v>
+        <v>0.08101046349871978</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0481280619342352</v>
+        <v>0.04809983669684079</v>
       </c>
       <c r="J11" t="n">
-        <v>0.05349690530432854</v>
+        <v>0.05350698574625511</v>
       </c>
       <c r="K11" t="n">
-        <v>0.2428418781879398</v>
+        <v>0.2428197012157013</v>
       </c>
       <c r="L11" t="n">
-        <v>0.03514042055603717</v>
+        <v>0.03515654926311969</v>
       </c>
       <c r="M11" t="n">
         <v>0.03164250720751598</v>
@@ -2526,37 +2526,37 @@
         <v>0.0348031839534027</v>
       </c>
       <c r="C12" t="n">
-        <v>0.02729783673716256</v>
+        <v>0.02729233831429352</v>
       </c>
       <c r="D12" t="n">
-        <v>0.05985033292950472</v>
+        <v>0.05981001116179843</v>
       </c>
       <c r="E12" t="n">
-        <v>0.2277813313881135</v>
+        <v>0.2278179875405738</v>
       </c>
       <c r="F12" t="n">
-        <v>0.04453905804685023</v>
+        <v>0.0445482220849653</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04181917153429825</v>
+        <v>0.04185949330200454</v>
       </c>
       <c r="H12" t="n">
-        <v>0.08068385718029879</v>
+        <v>0.08066552910406866</v>
       </c>
       <c r="I12" t="n">
-        <v>0.05017677429523965</v>
+        <v>0.05012545568179527</v>
       </c>
       <c r="J12" t="n">
-        <v>0.06057979036346408</v>
+        <v>0.06060911528543229</v>
       </c>
       <c r="K12" t="n">
-        <v>0.2597748212554365</v>
+        <v>0.2597583259868295</v>
       </c>
       <c r="L12" t="n">
-        <v>0.03979941753373741</v>
+        <v>0.03980491595660645</v>
       </c>
       <c r="M12" t="n">
-        <v>0.0321364488619181</v>
+        <v>0.03214744570765619</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -2711,37 +2711,37 @@
         <v>0.03443814976848585</v>
       </c>
       <c r="C13" t="n">
-        <v>0.02638723681646203</v>
+        <v>0.02638219659549875</v>
       </c>
       <c r="D13" t="n">
-        <v>0.05804486468686787</v>
+        <v>0.05800790306647043</v>
       </c>
       <c r="E13" t="n">
-        <v>0.2381638811045476</v>
+        <v>0.2381974825776362</v>
       </c>
       <c r="F13" t="n">
-        <v>0.04297628408029408</v>
+        <v>0.04298468444856623</v>
       </c>
       <c r="G13" t="n">
-        <v>0.03967997957030436</v>
+        <v>0.0397169411907018</v>
       </c>
       <c r="H13" t="n">
-        <v>0.07938516024542516</v>
+        <v>0.07936835950888087</v>
       </c>
       <c r="I13" t="n">
-        <v>0.04984442517959987</v>
+        <v>0.04979738311727586</v>
       </c>
       <c r="J13" t="n">
-        <v>0.06031632426765589</v>
+        <v>0.06034320544612676</v>
       </c>
       <c r="K13" t="n">
-        <v>0.2440105374219606</v>
+        <v>0.2439954167590707</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0412861299839385</v>
+        <v>0.04129117020490179</v>
       </c>
       <c r="M13" t="n">
-        <v>0.0345624752189136</v>
+        <v>0.03457255566084017</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -2896,37 +2896,37 @@
         <v>0.03486592236819046</v>
       </c>
       <c r="C14" t="n">
-        <v>0.02660306166283868</v>
+        <v>0.02659840915118027</v>
       </c>
       <c r="D14" t="n">
-        <v>0.05854255419788373</v>
+        <v>0.05850843577905532</v>
       </c>
       <c r="E14" t="n">
-        <v>0.248346419814737</v>
+        <v>0.2483774365591264</v>
       </c>
       <c r="F14" t="n">
-        <v>0.04204784953156962</v>
+        <v>0.04205560371766699</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04003486282069375</v>
+        <v>0.04006898123952216</v>
       </c>
       <c r="H14" t="n">
-        <v>0.08272320812390568</v>
+        <v>0.08270769975171097</v>
       </c>
       <c r="I14" t="n">
-        <v>0.04825740175833924</v>
+        <v>0.048213978316194</v>
       </c>
       <c r="J14" t="n">
-        <v>0.0572150375380149</v>
+        <v>0.05723985093352647</v>
       </c>
       <c r="K14" t="n">
-        <v>0.2273604905608293</v>
+        <v>0.227346533025854</v>
       </c>
       <c r="L14" t="n">
-        <v>0.03972159370236022</v>
+        <v>0.03972624621401864</v>
       </c>
       <c r="M14" t="n">
-        <v>0.0335864816621253</v>
+        <v>0.03359578668544214</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -3078,40 +3078,40 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.03824375660628962</v>
+        <v>0.038217835469907</v>
       </c>
       <c r="C15" t="n">
-        <v>0.02833036200307022</v>
+        <v>0.02842108598040938</v>
       </c>
       <c r="D15" t="n">
-        <v>0.06020039918550029</v>
+        <v>0.06007943388238141</v>
       </c>
       <c r="E15" t="n">
-        <v>0.2535130340114111</v>
+        <v>0.2535360750215289</v>
       </c>
       <c r="F15" t="n">
-        <v>0.04094675510574384</v>
+        <v>0.04091939390622885</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03877657996526568</v>
+        <v>0.03879098059658936</v>
       </c>
       <c r="H15" t="n">
-        <v>0.07880601485569128</v>
+        <v>0.07879161422436759</v>
       </c>
       <c r="I15" t="n">
-        <v>0.04914503451831329</v>
+        <v>0.04911191306626882</v>
       </c>
       <c r="J15" t="n">
-        <v>0.05556915615180569</v>
+        <v>0.05564547949782118</v>
       </c>
       <c r="K15" t="n">
-        <v>0.2131480644111438</v>
+        <v>0.2131509445374085</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0385303291696308</v>
+        <v>0.03853608942216027</v>
       </c>
       <c r="M15" t="n">
-        <v>0.0330782501504866</v>
+        <v>0.0330868905292808</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -3263,40 +3263,40 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0398849485561447</v>
+        <v>0.03987285202583282</v>
       </c>
       <c r="C16" t="n">
-        <v>0.02879646243691323</v>
+        <v>0.02887845003124937</v>
       </c>
       <c r="D16" t="n">
-        <v>0.06026088183705974</v>
+        <v>0.06016007741779399</v>
       </c>
       <c r="E16" t="n">
-        <v>0.2569921305350026</v>
+        <v>0.2570055711242381</v>
       </c>
       <c r="F16" t="n">
-        <v>0.04130427477940633</v>
+        <v>0.04128411389555318</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03888093654025793</v>
+        <v>0.03881373359408077</v>
       </c>
       <c r="H16" t="n">
-        <v>0.07781697949638113</v>
+        <v>0.07785864532301096</v>
       </c>
       <c r="I16" t="n">
-        <v>0.04849364596143895</v>
+        <v>0.04847214101866226</v>
       </c>
       <c r="J16" t="n">
-        <v>0.05484298031625706</v>
+        <v>0.0549155594981284</v>
       </c>
       <c r="K16" t="n">
         <v>0.2008427249450616</v>
       </c>
       <c r="L16" t="n">
-        <v>0.03778418445864667</v>
+        <v>0.03779090475326438</v>
       </c>
       <c r="M16" t="n">
-        <v>0.03270364172765334</v>
+        <v>0.03270901796334751</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -3448,40 +3448,40 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.03887900445555533</v>
+        <v>0.03886766395838794</v>
       </c>
       <c r="C17" t="n">
-        <v>0.02795558557287152</v>
+        <v>0.02803244894256164</v>
       </c>
       <c r="D17" t="n">
-        <v>0.05797640168544989</v>
+        <v>0.05788189754238826</v>
       </c>
       <c r="E17" t="n">
-        <v>0.2440311183242273</v>
+        <v>0.2440437188766356</v>
       </c>
       <c r="F17" t="n">
-        <v>0.04073380577004496</v>
+        <v>0.04071490494143263</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03846948650228826</v>
+        <v>0.03840648374024717</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0777428882482208</v>
+        <v>0.07778194996068627</v>
       </c>
       <c r="I17" t="n">
-        <v>0.04881832019515735</v>
+        <v>0.04879815931130421</v>
       </c>
       <c r="J17" t="n">
-        <v>0.05422269712304188</v>
+        <v>0.05429074010604625</v>
       </c>
       <c r="K17" t="n">
         <v>0.2100902703574525</v>
       </c>
       <c r="L17" t="n">
-        <v>0.03937042599947582</v>
+        <v>0.03937672627567992</v>
       </c>
       <c r="M17" t="n">
-        <v>0.03291768311122759</v>
+        <v>0.03292272333219088</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -3633,40 +3633,40 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.04011304326169895</v>
+        <v>0.04010592765563313</v>
       </c>
       <c r="C18" t="n">
-        <v>0.02756941570200791</v>
+        <v>0.02764887330307619</v>
       </c>
       <c r="D18" t="n">
-        <v>0.05642557016758439</v>
+        <v>0.05632832355135155</v>
       </c>
       <c r="E18" t="n">
-        <v>0.2325676545895066</v>
+        <v>0.232577142064261</v>
       </c>
       <c r="F18" t="n">
-        <v>0.04027670220121274</v>
+        <v>0.04025654131735959</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03763444048210603</v>
+        <v>0.0375822593709567</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0784685318251411</v>
+        <v>0.07850292392112587</v>
       </c>
       <c r="I18" t="n">
-        <v>0.04804931589377349</v>
+        <v>0.04803271281295325</v>
       </c>
       <c r="J18" t="n">
-        <v>0.05349038266543488</v>
+        <v>0.05354967938265002</v>
       </c>
       <c r="K18" t="n">
-        <v>0.2161661826077985</v>
+        <v>0.2161685544764871</v>
       </c>
       <c r="L18" t="n">
-        <v>0.03973947394324356</v>
+        <v>0.03974421768062077</v>
       </c>
       <c r="M18" t="n">
-        <v>0.03392009411574956</v>
+        <v>0.03392365191878247</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -3818,40 +3818,40 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.04065778243718204</v>
+        <v>0.04065442228987319</v>
       </c>
       <c r="C19" t="n">
-        <v>0.02762601112432769</v>
+        <v>0.02769881431601962</v>
       </c>
       <c r="D19" t="n">
-        <v>0.05508177478500657</v>
+        <v>0.05498769066035855</v>
       </c>
       <c r="E19" t="n">
-        <v>0.2230521786075101</v>
+        <v>0.2230577788530249</v>
       </c>
       <c r="F19" t="n">
-        <v>0.04046625404057714</v>
+        <v>0.04043265256748856</v>
       </c>
       <c r="G19" t="n">
-        <v>0.03732451630679489</v>
+        <v>0.0372886747355004</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0788917786155745</v>
+        <v>0.07891977984314832</v>
       </c>
       <c r="I19" t="n">
-        <v>0.04711598556480716</v>
+        <v>0.04710590512288058</v>
       </c>
       <c r="J19" t="n">
-        <v>0.05242389826369988</v>
+        <v>0.05248214081705342</v>
       </c>
       <c r="K19" t="n">
-        <v>0.2235976425206481</v>
+        <v>0.223601002667957</v>
       </c>
       <c r="L19" t="n">
-        <v>0.03987374806511518</v>
+        <v>0.03987822826152698</v>
       </c>
       <c r="M19" t="n">
-        <v>0.03474840337000374</v>
+        <v>0.03475288356641555</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -4003,40 +4003,40 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.04180624541737805</v>
+        <v>0.04180306211992755</v>
       </c>
       <c r="C20" t="n">
-        <v>0.02805546153038086</v>
+        <v>0.02812443297514163</v>
       </c>
       <c r="D20" t="n">
-        <v>0.05535011497009292</v>
+        <v>0.055260982641479</v>
       </c>
       <c r="E20" t="n">
-        <v>0.2144969488093937</v>
+        <v>0.2145022543051445</v>
       </c>
       <c r="F20" t="n">
-        <v>0.03906860960995057</v>
+        <v>0.03903677663544559</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03708753749659122</v>
+        <v>0.03705252122463575</v>
       </c>
       <c r="H20" t="n">
-        <v>0.08047375954856598</v>
+        <v>0.08050134812647028</v>
       </c>
       <c r="I20" t="n">
-        <v>0.04606868070359362</v>
+        <v>0.04605913081124213</v>
       </c>
       <c r="J20" t="n">
-        <v>0.05266022862442289</v>
+        <v>0.05271540578023151</v>
       </c>
       <c r="K20" t="n">
-        <v>0.2326565996653293</v>
+        <v>0.2326597829627798</v>
       </c>
       <c r="L20" t="n">
-        <v>0.0391015036836057</v>
+        <v>0.03910574808020637</v>
       </c>
       <c r="M20" t="n">
-        <v>0.034242730674997</v>
+        <v>0.03424697507159766</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -4188,40 +4188,40 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.042452773129574</v>
+        <v>0.04244874095280337</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0278623414850507</v>
+        <v>0.02792786435757344</v>
       </c>
       <c r="D21" t="n">
-        <v>0.05381544726920828</v>
+        <v>0.05373177960121771</v>
       </c>
       <c r="E21" t="n">
-        <v>0.2056490796556521</v>
+        <v>0.2056531118324227</v>
       </c>
       <c r="F21" t="n">
-        <v>0.03799318562125763</v>
+        <v>0.0379609282070926</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03738533497308522</v>
+        <v>0.03735005342634221</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0796707727666781</v>
+        <v>0.07969798995987984</v>
       </c>
       <c r="I21" t="n">
-        <v>0.04682970101409246</v>
+        <v>0.04682768492570714</v>
       </c>
       <c r="J21" t="n">
-        <v>0.05417027882502369</v>
+        <v>0.05422068103465656</v>
       </c>
       <c r="K21" t="n">
-        <v>0.2425434971069132</v>
+        <v>0.2425465212394911</v>
       </c>
       <c r="L21" t="n">
-        <v>0.04124412814257777</v>
+        <v>0.04124715227515574</v>
       </c>
       <c r="M21" t="n">
-        <v>0.03427047841777384</v>
+        <v>0.03427451059454446</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -4373,40 +4373,40 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.04166006637730998</v>
+        <v>0.041656226208957</v>
       </c>
       <c r="C22" t="n">
-        <v>0.02716535092898473</v>
+        <v>0.02722775366472066</v>
       </c>
       <c r="D22" t="n">
-        <v>0.05393228439134772</v>
+        <v>0.05385260089802337</v>
       </c>
       <c r="E22" t="n">
-        <v>0.213963620165108</v>
+        <v>0.213967460333461</v>
       </c>
       <c r="F22" t="n">
-        <v>0.0375885278810623</v>
+        <v>0.03755780653423846</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03658624394093437</v>
+        <v>0.03655264246784579</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0816112578375436</v>
+        <v>0.08163717897392622</v>
       </c>
       <c r="I22" t="n">
-        <v>0.0468615744114222</v>
+        <v>0.0468596543272457</v>
       </c>
       <c r="J22" t="n">
-        <v>0.05427405937476299</v>
+        <v>0.05432206147917525</v>
       </c>
       <c r="K22" t="n">
-        <v>0.2344297974023181</v>
+        <v>0.2344326775285829</v>
       </c>
       <c r="L22" t="n">
-        <v>0.04127316941574719</v>
+        <v>0.04127604954201192</v>
       </c>
       <c r="M22" t="n">
-        <v>0.0340565330384084</v>
+        <v>0.03406037320676138</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -4558,40 +4558,40 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.04232869205349599</v>
+        <v>0.04232594284206147</v>
       </c>
       <c r="C23" t="n">
-        <v>0.02790449606038001</v>
+        <v>0.02796314590431645</v>
       </c>
       <c r="D23" t="n">
-        <v>0.05608024764896602</v>
+        <v>0.05600418613261096</v>
       </c>
       <c r="E23" t="n">
-        <v>0.2226595504856024</v>
+        <v>0.2226632161008484</v>
       </c>
       <c r="F23" t="n">
-        <v>0.03747908308300236</v>
+        <v>0.03744975816103414</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03592211300725242</v>
+        <v>0.03589003887384969</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0829043036155796</v>
+        <v>0.08292904651849028</v>
       </c>
       <c r="I23" t="n">
-        <v>0.04780695403868324</v>
+        <v>0.04780512123106023</v>
       </c>
       <c r="J23" t="n">
-        <v>0.05321648573800748</v>
+        <v>0.05326230592858282</v>
       </c>
       <c r="K23" t="n">
-        <v>0.2247700284635024</v>
+        <v>0.2247727776749369</v>
       </c>
       <c r="L23" t="n">
-        <v>0.04089452008848795</v>
+        <v>0.04089726929992247</v>
       </c>
       <c r="M23" t="n">
-        <v>0.03350189054106314</v>
+        <v>0.03350555615630917</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -4743,40 +4743,40 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.04264640527058097</v>
+        <v>0.04264377559007839</v>
       </c>
       <c r="C24" t="n">
-        <v>0.02794999750180352</v>
+        <v>0.02800697391269285</v>
       </c>
       <c r="D24" t="n">
-        <v>0.05825005281275009</v>
+        <v>0.0581755451985102</v>
       </c>
       <c r="E24" t="n">
-        <v>0.2331807826455112</v>
+        <v>0.2331851654463488</v>
       </c>
       <c r="F24" t="n">
-        <v>0.03908581787008151</v>
+        <v>0.03906302730572578</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03711180437280805</v>
+        <v>0.03708463100761468</v>
       </c>
       <c r="H24" t="n">
-        <v>0.08240103854848649</v>
+        <v>0.08241681663150199</v>
       </c>
       <c r="I24" t="n">
-        <v>0.04704060139039973</v>
+        <v>0.04703884827006468</v>
       </c>
       <c r="J24" t="n">
-        <v>0.05181960742376337</v>
+        <v>0.05186255887197225</v>
       </c>
       <c r="K24" t="n">
-        <v>0.2155461451951793</v>
+        <v>0.2155487748756819</v>
       </c>
       <c r="L24" t="n">
-        <v>0.03971869431103685</v>
+        <v>0.03972132399153944</v>
       </c>
       <c r="M24" t="n">
-        <v>0.03270708953097895</v>
+        <v>0.03271059577164907</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -4928,40 +4928,40 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.04160450394145279</v>
+        <v>0.04160114379414394</v>
       </c>
       <c r="C25" t="n">
-        <v>0.02832772188732754</v>
+        <v>0.02838652446523256</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0611219195849546</v>
+        <v>0.06105471663877744</v>
       </c>
       <c r="E25" t="n">
-        <v>0.2437618865211051</v>
+        <v>0.2437711269262045</v>
       </c>
       <c r="F25" t="n">
-        <v>0.04101059790461214</v>
+        <v>0.04099295713124063</v>
       </c>
       <c r="G25" t="n">
-        <v>0.03707922555324825</v>
+        <v>0.03705234437477739</v>
       </c>
       <c r="H25" t="n">
-        <v>0.08167846078372076</v>
+        <v>0.08169358144661062</v>
       </c>
       <c r="I25" t="n">
-        <v>0.04607181978857953</v>
+        <v>0.04605501905203524</v>
       </c>
       <c r="J25" t="n">
-        <v>0.05080038708896998</v>
+        <v>0.05084322896715792</v>
       </c>
       <c r="K25" t="n">
-        <v>0.208081322285169</v>
+        <v>0.2080804822483418</v>
       </c>
       <c r="L25" t="n">
-        <v>0.03907683312836435</v>
+        <v>0.03908019327567321</v>
       </c>
       <c r="M25" t="n">
-        <v>0.03199868282225492</v>
+        <v>0.03200204296956378</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -5113,40 +5113,40 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.04046128102256003</v>
+        <v>0.04045805528114352</v>
       </c>
       <c r="C26" t="n">
-        <v>0.02816475474284793</v>
+        <v>0.02822120521763674</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0633954960585472</v>
+        <v>0.06333098123021713</v>
       </c>
       <c r="E26" t="n">
-        <v>0.2494264228543779</v>
+        <v>0.2494369065139816</v>
       </c>
       <c r="F26" t="n">
-        <v>0.04277978266567206</v>
+        <v>0.04276123465252717</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03774278744380154</v>
+        <v>0.03771778794782363</v>
       </c>
       <c r="H26" t="n">
-        <v>0.08110320356444427</v>
+        <v>0.0811169129654644</v>
       </c>
       <c r="I26" t="n">
-        <v>0.04761839479042761</v>
+        <v>0.04760226608334509</v>
       </c>
       <c r="J26" t="n">
-        <v>0.0520941110058265</v>
+        <v>0.05213523920888691</v>
       </c>
       <c r="K26" t="n">
-        <v>0.2012685228120401</v>
+        <v>0.2012677163766859</v>
       </c>
       <c r="L26" t="n">
-        <v>0.03856051289288522</v>
+        <v>0.03856373863430173</v>
       </c>
       <c r="M26" t="n">
-        <v>0.03119533880365315</v>
+        <v>0.03119856454506965</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -5298,40 +5298,40 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.03940599832819748</v>
+        <v>0.03940289665375853</v>
       </c>
       <c r="C27" t="n">
-        <v>0.02827796585986945</v>
+        <v>0.028332245162551</v>
       </c>
       <c r="D27" t="n">
-        <v>0.06430313904961593</v>
+        <v>0.06424110556083702</v>
       </c>
       <c r="E27" t="n">
-        <v>0.2554523559543619</v>
+        <v>0.2554624363962885</v>
       </c>
       <c r="F27" t="n">
-        <v>0.04335830698202425</v>
+        <v>0.04334047235400031</v>
       </c>
       <c r="G27" t="n">
-        <v>0.03868796069558151</v>
+        <v>0.03866392271867968</v>
       </c>
       <c r="H27" t="n">
-        <v>0.08184310800185481</v>
+        <v>0.08185629011822032</v>
       </c>
       <c r="I27" t="n">
-        <v>0.04837448996840944</v>
+        <v>0.04835898159621472</v>
       </c>
       <c r="J27" t="n">
-        <v>0.05254158957713322</v>
+        <v>0.05258113592622977</v>
       </c>
       <c r="K27" t="n">
-        <v>0.1955249041194889</v>
+        <v>0.1955241287008792</v>
       </c>
       <c r="L27" t="n">
-        <v>0.03841733960078348</v>
+        <v>0.03842044127522243</v>
       </c>
       <c r="M27" t="n">
-        <v>0.03044681171130235</v>
+        <v>0.03044991338574129</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -5483,40 +5483,40 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.03961837686964197</v>
+        <v>0.03961688347083803</v>
       </c>
       <c r="C28" t="n">
-        <v>0.02856573232170498</v>
+        <v>0.02861650788103884</v>
       </c>
       <c r="D28" t="n">
-        <v>0.06502407732221648</v>
+        <v>0.06496583476886293</v>
       </c>
       <c r="E28" t="n">
-        <v>0.2655151068489509</v>
+        <v>0.2655255606405785</v>
       </c>
       <c r="F28" t="n">
-        <v>0.04385888277342079</v>
+        <v>0.0438349883925578</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03898666917557666</v>
+        <v>0.03896128139590973</v>
       </c>
       <c r="H28" t="n">
-        <v>0.08136559373429599</v>
+        <v>0.08137903432353141</v>
       </c>
       <c r="I28" t="n">
-        <v>0.04762299445874374</v>
+        <v>0.04761328736651815</v>
       </c>
       <c r="J28" t="n">
-        <v>0.05133558388533087</v>
+        <v>0.0513751589536352</v>
       </c>
       <c r="K28" t="n">
-        <v>0.1894055302051109</v>
+        <v>0.1894040368063069</v>
       </c>
       <c r="L28" t="n">
-        <v>0.03757018041004251</v>
+        <v>0.03757316720765038</v>
       </c>
       <c r="M28" t="n">
-        <v>0.0298552821889045</v>
+        <v>0.02985826898651237</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
@@ -5668,40 +5668,40 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.03921579922063783</v>
+        <v>0.03921435915750546</v>
       </c>
       <c r="C29" t="n">
-        <v>0.02795450552552224</v>
+        <v>0.02800346767202274</v>
       </c>
       <c r="D29" t="n">
-        <v>0.06554663356441547</v>
+        <v>0.06549047110225312</v>
       </c>
       <c r="E29" t="n">
-        <v>0.2719465621372841</v>
+        <v>0.2719566425792107</v>
       </c>
       <c r="F29" t="n">
-        <v>0.04400472916732669</v>
+        <v>0.04398168815720881</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03941452793290458</v>
+        <v>0.03939004685965432</v>
       </c>
       <c r="H29" t="n">
-        <v>0.08099131065905929</v>
+        <v>0.0810042712272506</v>
       </c>
       <c r="I29" t="n">
-        <v>0.04909391227711423</v>
+        <v>0.04908455186675384</v>
       </c>
       <c r="J29" t="n">
-        <v>0.05263502751960646</v>
+        <v>0.0526731891926142</v>
       </c>
       <c r="K29" t="n">
-        <v>0.1842395170604279</v>
+        <v>0.1842380769972956</v>
       </c>
       <c r="L29" t="n">
-        <v>0.03665248684502329</v>
+        <v>0.03665536697128802</v>
       </c>
       <c r="M29" t="n">
-        <v>0.02917567906177007</v>
+        <v>0.0291785591880348</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -5853,40 +5853,40 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.04081536175925263</v>
+        <v>0.04082370419395048</v>
       </c>
       <c r="C30" t="n">
-        <v>0.03072310138352327</v>
+        <v>0.03076133754255511</v>
       </c>
       <c r="D30" t="n">
-        <v>0.06687504214667529</v>
+        <v>0.06682359713270519</v>
       </c>
       <c r="E30" t="n">
-        <v>0.2703831749777014</v>
+        <v>0.2703901270066162</v>
       </c>
       <c r="F30" t="n">
-        <v>0.04590841814229274</v>
+        <v>0.0458875620555481</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0402668466778687</v>
+        <v>0.04024460018534109</v>
       </c>
       <c r="H30" t="n">
-        <v>0.08111418777012977</v>
+        <v>0.0811246158135021</v>
       </c>
       <c r="I30" t="n">
-        <v>0.04889987618436503</v>
+        <v>0.04888944814099271</v>
       </c>
       <c r="J30" t="n">
-        <v>0.05220626113628132</v>
+        <v>0.05224241168663869</v>
       </c>
       <c r="K30" t="n">
-        <v>0.1795319755093925</v>
+        <v>0.1795305851036096</v>
       </c>
       <c r="L30" t="n">
-        <v>0.03662606913514675</v>
+        <v>0.0366288499467127</v>
       </c>
       <c r="M30" t="n">
-        <v>0.03024897301152855</v>
+        <v>0.03025244902598599</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -6038,40 +6038,40 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.03995147947286009</v>
+        <v>0.03995954382640135</v>
       </c>
       <c r="C31" t="n">
-        <v>0.03002493229303173</v>
+        <v>0.03006189391342916</v>
       </c>
       <c r="D31" t="n">
-        <v>0.06497180836407868</v>
+        <v>0.06492207818390758</v>
       </c>
       <c r="E31" t="n">
-        <v>0.2632164674099313</v>
+        <v>0.2632231877045489</v>
       </c>
       <c r="F31" t="n">
-        <v>0.04492180937212287</v>
+        <v>0.04490164848826973</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04033117611876105</v>
+        <v>0.04031034320544612</v>
       </c>
       <c r="H31" t="n">
-        <v>0.08229269571178001</v>
+        <v>0.08230210412424481</v>
       </c>
       <c r="I31" t="n">
-        <v>0.04922750213369354</v>
+        <v>0.04921742169176697</v>
       </c>
       <c r="J31" t="n">
-        <v>0.05409702761369058</v>
+        <v>0.05413197314570271</v>
       </c>
       <c r="K31" t="n">
-        <v>0.188910169821845</v>
+        <v>0.1889088257629215</v>
       </c>
       <c r="L31" t="n">
-        <v>0.03700328622406807</v>
+        <v>0.03700530231245338</v>
       </c>
       <c r="M31" t="n">
-        <v>0.03000073923240795</v>
+        <v>0.03000477140917858</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
@@ -6223,40 +6223,40 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.03896903743485921</v>
+        <v>0.03897684164796365</v>
       </c>
       <c r="C32" t="n">
-        <v>0.02934123986834292</v>
+        <v>0.02937700917840496</v>
       </c>
       <c r="D32" t="n">
-        <v>0.06357311994880437</v>
+        <v>0.06352499396799362</v>
       </c>
       <c r="E32" t="n">
-        <v>0.2572808430631277</v>
+        <v>0.257287346574048</v>
       </c>
       <c r="F32" t="n">
-        <v>0.04392731416054958</v>
+        <v>0.04390780362778846</v>
       </c>
       <c r="G32" t="n">
-        <v>0.04043037633866643</v>
+        <v>0.04040956510372124</v>
       </c>
       <c r="H32" t="n">
-        <v>0.08156703396328507</v>
+        <v>0.08157678922966563</v>
       </c>
       <c r="I32" t="n">
-        <v>0.05092444155977605</v>
+        <v>0.05091468629339549</v>
       </c>
       <c r="J32" t="n">
-        <v>0.05728942769754252</v>
+        <v>0.05732324595432844</v>
       </c>
       <c r="K32" t="n">
-        <v>0.1970453249186573</v>
+        <v>0.1970433738653812</v>
       </c>
       <c r="L32" t="n">
-        <v>0.03749078940265903</v>
+        <v>0.03749339080702718</v>
       </c>
       <c r="M32" t="n">
-        <v>0.02952203747192922</v>
+        <v>0.02952593957848144</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -6408,40 +6408,40 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.03826220741517308</v>
+        <v>0.03826976774661801</v>
       </c>
       <c r="C33" t="n">
-        <v>0.02872106913167073</v>
+        <v>0.02875572065079333</v>
       </c>
       <c r="D33" t="n">
-        <v>0.06232800245962783</v>
+        <v>0.06228138041571742</v>
       </c>
       <c r="E33" t="n">
-        <v>0.2507497328682889</v>
+        <v>0.2507560331444931</v>
       </c>
       <c r="F33" t="n">
-        <v>0.04351978790750186</v>
+        <v>0.04350088707888954</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04063426140602004</v>
+        <v>0.04061410052216689</v>
       </c>
       <c r="H33" t="n">
-        <v>0.08191556117820205</v>
+        <v>0.08192501159250822</v>
       </c>
       <c r="I33" t="n">
-        <v>0.05206611257837544</v>
+        <v>0.05205666216406928</v>
       </c>
       <c r="J33" t="n">
-        <v>0.05992948730872361</v>
+        <v>0.05996224874498498</v>
       </c>
       <c r="K33" t="n">
-        <v>0.2047533063849519</v>
+        <v>0.2047514163020907</v>
       </c>
       <c r="L33" t="n">
-        <v>0.03737764863611621</v>
+        <v>0.03738016874659785</v>
       </c>
       <c r="M33" t="n">
-        <v>0.02911861656015</v>
+        <v>0.02912239672587246</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -6593,40 +6593,40 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.03812606417392611</v>
+        <v>0.03813156259679516</v>
       </c>
       <c r="C34" t="n">
-        <v>0.02805784096483881</v>
+        <v>0.0280883877585557</v>
       </c>
       <c r="D34" t="n">
-        <v>0.06074229930603794</v>
+        <v>0.06069770098721128</v>
       </c>
       <c r="E34" t="n">
-        <v>0.2443138670835693</v>
+        <v>0.2443199764423127</v>
       </c>
       <c r="F34" t="n">
-        <v>0.04257062265973376</v>
+        <v>0.04255290551937797</v>
       </c>
       <c r="G34" t="n">
-        <v>0.04108910316446455</v>
+        <v>0.04106772040886272</v>
       </c>
       <c r="H34" t="n">
-        <v>0.08171022944918632</v>
+        <v>0.08171878255142706</v>
       </c>
       <c r="I34" t="n">
-        <v>0.05176642944026666</v>
+        <v>0.05175115604340821</v>
       </c>
       <c r="J34" t="n">
-        <v>0.0612359354925029</v>
+        <v>0.06126403854272244</v>
       </c>
       <c r="K34" t="n">
-        <v>0.2124761658642024</v>
+        <v>0.2124834970946944</v>
       </c>
       <c r="L34" t="n">
-        <v>0.03964973824452464</v>
+        <v>0.03966134602613706</v>
       </c>
       <c r="M34" t="n">
-        <v>0.02948315435966894</v>
+        <v>0.02948437623141762</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
@@ -6778,40 +6778,40 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.03838928769225478</v>
+        <v>0.03839403142963199</v>
       </c>
       <c r="C35" t="n">
-        <v>0.02781312520976214</v>
+        <v>0.02784277356836971</v>
       </c>
       <c r="D35" t="n">
-        <v>0.05964301004367796</v>
+        <v>0.05959972344011091</v>
       </c>
       <c r="E35" t="n">
-        <v>0.2381130835834666</v>
+        <v>0.2381190132551882</v>
       </c>
       <c r="F35" t="n">
-        <v>0.04170160231589259</v>
+        <v>0.0416844062679002</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04041011981494681</v>
+        <v>0.04038936596392151</v>
       </c>
       <c r="H35" t="n">
-        <v>0.08124302522363756</v>
+        <v>0.08125132676404768</v>
       </c>
       <c r="I35" t="n">
-        <v>0.05169665696967685</v>
+        <v>0.05168183279037306</v>
       </c>
       <c r="J35" t="n">
-        <v>0.06388391125890489</v>
+        <v>0.06391118774882384</v>
       </c>
       <c r="K35" t="n">
-        <v>0.2196872216760336</v>
+        <v>0.2196943372820994</v>
       </c>
       <c r="L35" t="n">
-        <v>0.04073684472680224</v>
+        <v>0.04074811110307311</v>
       </c>
       <c r="M35" t="n">
-        <v>0.02959439859490499</v>
+        <v>0.02959617749642144</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -6963,40 +6963,40 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.03822157963405116</v>
+        <v>0.03822042758354526</v>
       </c>
       <c r="C36" t="n">
-        <v>0.02750117365145288</v>
+        <v>0.02753343106561792</v>
       </c>
       <c r="D36" t="n">
-        <v>0.05818315874967959</v>
+        <v>0.05813419660317908</v>
       </c>
       <c r="E36" t="n">
-        <v>0.2322119081700542</v>
+        <v>0.232213636245813</v>
       </c>
       <c r="F36" t="n">
-        <v>0.04127508949992368</v>
+        <v>0.04124283208575864</v>
       </c>
       <c r="G36" t="n">
-        <v>0.04038513048412042</v>
+        <v>0.0403016068224431</v>
       </c>
       <c r="H36" t="n">
-        <v>0.08128234741811081</v>
+        <v>0.08143211398387705</v>
       </c>
       <c r="I36" t="n">
-        <v>0.05141774215381602</v>
+        <v>0.05136013962852132</v>
       </c>
       <c r="J36" t="n">
-        <v>0.06545202141661891</v>
+        <v>0.06548197472977216</v>
       </c>
       <c r="K36" t="n">
-        <v>0.225997171716008</v>
+        <v>0.226008692221067</v>
       </c>
       <c r="L36" t="n">
-        <v>0.04233497596534632</v>
+        <v>0.04234649647040526</v>
       </c>
       <c r="M36" t="n">
-        <v>0.03017220274936853</v>
+        <v>0.03015895416855075</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -7148,40 +7148,40 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.03806038856743479</v>
+        <v>0.03805982854288332</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0272541548221474</v>
+        <v>0.02728551619703008</v>
       </c>
       <c r="D37" t="n">
-        <v>0.05704578088703409</v>
+        <v>0.0569981788001586</v>
       </c>
       <c r="E37" t="n">
-        <v>0.2268429847964535</v>
+        <v>0.226842424771902</v>
       </c>
       <c r="F37" t="n">
-        <v>0.04083139004813971</v>
+        <v>0.04079946864870556</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04045953374595943</v>
+        <v>0.04037216991592912</v>
       </c>
       <c r="H37" t="n">
-        <v>0.08111115591307523</v>
+        <v>0.08126628271383417</v>
       </c>
       <c r="I37" t="n">
-        <v>0.05161074261495624</v>
+        <v>0.05155978038077189</v>
       </c>
       <c r="J37" t="n">
-        <v>0.06583144605059486</v>
+        <v>0.06586392747458049</v>
       </c>
       <c r="K37" t="n">
-        <v>0.2324090688135768</v>
+        <v>0.2324113089117827</v>
       </c>
       <c r="L37" t="n">
-        <v>0.04379728007275839</v>
+        <v>0.0438112806865453</v>
       </c>
       <c r="M37" t="n">
-        <v>0.03046533560031272</v>
+        <v>0.0304490948883199</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
@@ -7333,40 +7333,40 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.03873886587944772</v>
+        <v>0.03873832099069494</v>
       </c>
       <c r="C38" t="n">
-        <v>0.02722209720052506</v>
+        <v>0.02725261097068117</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0557786269566274</v>
+        <v>0.05573231141264044</v>
       </c>
       <c r="E38" t="n">
-        <v>0.2212787776183675</v>
+        <v>0.2212782327296147</v>
       </c>
       <c r="F38" t="n">
-        <v>0.03993598646932249</v>
+        <v>0.03990492781041359</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0397392816295661</v>
+        <v>0.03965427898413121</v>
       </c>
       <c r="H38" t="n">
-        <v>0.07982402272839965</v>
+        <v>0.07997495691292188</v>
       </c>
       <c r="I38" t="n">
-        <v>0.05149253202719867</v>
+        <v>0.05144294715069498</v>
       </c>
       <c r="J38" t="n">
-        <v>0.0690341356456959</v>
+        <v>0.06906573919335759</v>
       </c>
       <c r="K38" t="n">
-        <v>0.23853213508664</v>
+        <v>0.2385343146416512</v>
       </c>
       <c r="L38" t="n">
-        <v>0.04479040036790888</v>
+        <v>0.04480402258672858</v>
       </c>
       <c r="M38" t="n">
-        <v>0.0305660794763837</v>
+        <v>0.03055027770255286</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -7518,40 +7518,40 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.03870093875441815</v>
+        <v>0.03870306095271848</v>
       </c>
       <c r="C39" t="n">
-        <v>0.02715883274849085</v>
+        <v>0.02718748242554533</v>
       </c>
       <c r="D39" t="n">
-        <v>0.05447417762163114</v>
+        <v>0.0544290809077491</v>
       </c>
       <c r="E39" t="n">
-        <v>0.2156609745771255</v>
+        <v>0.2156604440275504</v>
       </c>
       <c r="F39" t="n">
-        <v>0.03934078154196807</v>
+        <v>0.03931054021618834</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03997425773461698</v>
+        <v>0.0398930836496293</v>
       </c>
       <c r="H39" t="n">
-        <v>0.07979147279500944</v>
+        <v>0.07993737392815722</v>
       </c>
       <c r="I39" t="n">
-        <v>0.05132483534393938</v>
+        <v>0.05127549423345667</v>
       </c>
       <c r="J39" t="n">
-        <v>0.06977204406956991</v>
+        <v>0.06980281594492471</v>
       </c>
       <c r="K39" t="n">
-        <v>0.244879931325663</v>
+        <v>0.2448820535239633</v>
       </c>
       <c r="L39" t="n">
-        <v>0.04590898528149369</v>
+        <v>0.04592224902087076</v>
       </c>
       <c r="M39" t="n">
-        <v>0.0309305096777548</v>
+        <v>0.03091406264092723</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -7703,40 +7703,40 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0384814408725217</v>
+        <v>0.03848299170974117</v>
       </c>
       <c r="C40" t="n">
-        <v>0.02694683057982185</v>
+        <v>0.02697577954125201</v>
       </c>
       <c r="D40" t="n">
-        <v>0.05321232667455526</v>
+        <v>0.05316838628667019</v>
       </c>
       <c r="E40" t="n">
-        <v>0.2105344236752878</v>
+        <v>0.2105339067295479</v>
       </c>
       <c r="F40" t="n">
-        <v>0.0388003963939933</v>
+        <v>0.03877093048682331</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04007466764266022</v>
+        <v>0.03999454105298746</v>
       </c>
       <c r="H40" t="n">
-        <v>0.07999580240059263</v>
+        <v>0.08013847942478414</v>
       </c>
       <c r="I40" t="n">
-        <v>0.05120502636681746</v>
+        <v>0.05115953514171292</v>
       </c>
       <c r="J40" t="n">
-        <v>0.06993552135787172</v>
+        <v>0.06996447031930188</v>
       </c>
       <c r="K40" t="n">
-        <v>0.2504038638592377</v>
+        <v>0.2504069655336767</v>
       </c>
       <c r="L40" t="n">
-        <v>0.04741684798538491</v>
+        <v>0.04742666995444157</v>
       </c>
       <c r="M40" t="n">
-        <v>0.03139359783379057</v>
+        <v>0.03137808946159584</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
@@ -7888,40 +7888,40 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.03782131408640955</v>
+        <v>0.03782282615269853</v>
       </c>
       <c r="C41" t="n">
-        <v>0.02715872663857584</v>
+        <v>0.02718695187597024</v>
       </c>
       <c r="D41" t="n">
-        <v>0.05267333319892744</v>
+        <v>0.0526304913207395</v>
       </c>
       <c r="E41" t="n">
-        <v>0.2065931130420758</v>
+        <v>0.2065921049978831</v>
       </c>
       <c r="F41" t="n">
-        <v>0.03863581379407673</v>
+        <v>0.03860305235781537</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04000876998447612</v>
+        <v>0.03993518275841213</v>
       </c>
       <c r="H41" t="n">
-        <v>0.07916171044938611</v>
+        <v>0.07930233261426181</v>
       </c>
       <c r="I41" t="n">
-        <v>0.05144251123969275</v>
+        <v>0.05139664522892683</v>
       </c>
       <c r="J41" t="n">
-        <v>0.07172940061692304</v>
+        <v>0.07175762585431746</v>
       </c>
       <c r="K41" t="n">
-        <v>0.2549923388641358</v>
+        <v>0.2549953629967138</v>
       </c>
       <c r="L41" t="n">
-        <v>0.04755146065603516</v>
+        <v>0.04756053305376907</v>
       </c>
       <c r="M41" t="n">
-        <v>0.03133706981714078</v>
+        <v>0.03132245317634725</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -8073,40 +8073,40 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.03768855958352531</v>
+        <v>0.03769003477014871</v>
       </c>
       <c r="C42" t="n">
-        <v>0.02764942288240648</v>
+        <v>0.02767695969937663</v>
       </c>
       <c r="D42" t="n">
-        <v>0.05364909539097609</v>
+        <v>0.05360680670777192</v>
       </c>
       <c r="E42" t="n">
-        <v>0.2121928108255095</v>
+        <v>0.2121923190966351</v>
       </c>
       <c r="F42" t="n">
-        <v>0.03834305071544093</v>
+        <v>0.03831108833860057</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03984380724031429</v>
+        <v>0.03977201482464211</v>
       </c>
       <c r="H42" t="n">
-        <v>0.07813571815281065</v>
+        <v>0.07827291050878694</v>
       </c>
       <c r="I42" t="n">
-        <v>0.05165120097401656</v>
+        <v>0.05160694537531452</v>
       </c>
       <c r="J42" t="n">
-        <v>0.07077847073303499</v>
+        <v>0.07080551582113068</v>
       </c>
       <c r="K42" t="n">
-        <v>0.2505751998509078</v>
+        <v>0.2505781502241546</v>
       </c>
       <c r="L42" t="n">
-        <v>0.04757673552018277</v>
+        <v>0.04758607836879764</v>
       </c>
       <c r="M42" t="n">
-        <v>0.03116774297921806</v>
+        <v>0.03115299111298405</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -8258,40 +8258,40 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.03831527974186388</v>
+        <v>0.03831239961559915</v>
       </c>
       <c r="C43" t="n">
-        <v>0.02785082097999176</v>
+        <v>0.0278772221374185</v>
       </c>
       <c r="D43" t="n">
-        <v>0.05458463299031029</v>
+        <v>0.05454767136991286</v>
       </c>
       <c r="E43" t="n">
-        <v>0.2169368705124033</v>
+        <v>0.2169335103650944</v>
       </c>
       <c r="F43" t="n">
-        <v>0.04032224772734037</v>
+        <v>0.04030016675931073</v>
       </c>
       <c r="G43" t="n">
-        <v>0.04001359419596955</v>
+        <v>0.03994159103935117</v>
       </c>
       <c r="H43" t="n">
-        <v>0.07785125299893147</v>
+        <v>0.07798181872293282</v>
       </c>
       <c r="I43" t="n">
-        <v>0.05099407558027344</v>
+        <v>0.0509508736863024</v>
       </c>
       <c r="J43" t="n">
-        <v>0.06943360396919801</v>
+        <v>0.06945952510558062</v>
       </c>
       <c r="K43" t="n">
-        <v>0.2452864333572384</v>
+        <v>0.2452893134835031</v>
       </c>
       <c r="L43" t="n">
-        <v>0.04700366064048248</v>
+        <v>0.04701374108240905</v>
       </c>
       <c r="M43" t="n">
-        <v>0.03110008342765747</v>
+        <v>0.03108472275424555</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
@@ -8443,40 +8443,40 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.03828645615265634</v>
+        <v>0.03828364300607218</v>
       </c>
       <c r="C44" t="n">
-        <v>0.02782436400616454</v>
+        <v>0.02785015118318601</v>
       </c>
       <c r="D44" t="n">
-        <v>0.05589956691608337</v>
+        <v>0.05586346486825331</v>
       </c>
       <c r="E44" t="n">
-        <v>0.2206500900441336</v>
+        <v>0.2206468080397854</v>
       </c>
       <c r="F44" t="n">
-        <v>0.04054494400197296</v>
+        <v>0.04052337654482772</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03982712276524807</v>
+        <v>0.03975679410064407</v>
       </c>
       <c r="H44" t="n">
-        <v>0.07712897761344834</v>
+        <v>0.0772565069252636</v>
       </c>
       <c r="I44" t="n">
-        <v>0.0510975256969219</v>
+        <v>0.0510553284981595</v>
       </c>
       <c r="J44" t="n">
-        <v>0.06955973787100128</v>
+        <v>0.06958505619025873</v>
       </c>
       <c r="K44" t="n">
-        <v>0.2414233021371006</v>
+        <v>0.2414261152836847</v>
       </c>
       <c r="L44" t="n">
-        <v>0.04740527080521163</v>
+        <v>0.04741464796049217</v>
       </c>
       <c r="M44" t="n">
-        <v>0.03083021113133972</v>
+        <v>0.03081567654065489</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -8628,40 +8628,40 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.03793178656588669</v>
+        <v>0.03792949555635792</v>
       </c>
       <c r="C45" t="n">
-        <v>0.02773358674953401</v>
+        <v>0.02775787145053894</v>
       </c>
       <c r="D45" t="n">
-        <v>0.05679595902575278</v>
+        <v>0.05675976107519826</v>
       </c>
       <c r="E45" t="n">
-        <v>0.2262147390723427</v>
+        <v>0.2262129062647197</v>
       </c>
       <c r="F45" t="n">
-        <v>0.04104893413072683</v>
+        <v>0.04102739864115643</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0395254127940969</v>
+        <v>0.03945714071013964</v>
       </c>
       <c r="H45" t="n">
-        <v>0.07733394304733593</v>
+        <v>0.07745903216760659</v>
       </c>
       <c r="I45" t="n">
-        <v>0.05164302039365042</v>
+        <v>0.05160132402022687</v>
       </c>
       <c r="J45" t="n">
-        <v>0.06910463682000546</v>
+        <v>0.06912892152101038</v>
       </c>
       <c r="K45" t="n">
-        <v>0.2367735437885233</v>
+        <v>0.2367762929999578</v>
       </c>
       <c r="L45" t="n">
-        <v>0.04659546819987134</v>
+        <v>0.04660509043989216</v>
       </c>
       <c r="M45" t="n">
-        <v>0.03067432658065911</v>
+        <v>0.03066012232158076</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -8813,40 +8813,40 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.03822727588377475</v>
+        <v>0.03823534023731601</v>
       </c>
       <c r="C46" t="n">
-        <v>0.02944967507375523</v>
+        <v>0.02946580378083775</v>
       </c>
       <c r="D46" t="n">
-        <v>0.05754633083114364</v>
+        <v>0.05750735312236088</v>
       </c>
       <c r="E46" t="n">
+        <v>0.231849268271921</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.04171107661359874</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.03927967402090907</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0.07698590306199024</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0.05138337264705685</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0.06782524545876091</v>
+      </c>
+      <c r="K46" t="n">
         <v>0.2318497162915622</v>
       </c>
-      <c r="F46" t="n">
-        <v>0.04173213353673425</v>
-      </c>
-      <c r="G46" t="n">
-        <v>0.03934194875103324</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0.07686896993564198</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0.05142459045404551</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0.06780194843741949</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0.2318474761933563</v>
-      </c>
       <c r="L46" t="n">
-        <v>0.04585346621595891</v>
+        <v>0.04586332264806489</v>
       </c>
       <c r="M46" t="n">
-        <v>0.03028523170455793</v>
+        <v>0.03027268715460486</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
@@ -8998,40 +8998,40 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.03800370434326798</v>
+        <v>0.03801159338477573</v>
       </c>
       <c r="C47" t="n">
-        <v>0.02973292088255584</v>
+        <v>0.02974869896557135</v>
       </c>
       <c r="D47" t="n">
-        <v>0.058192638121777</v>
+        <v>0.05815450775448952</v>
       </c>
       <c r="E47" t="n">
-        <v>0.234084077898149</v>
+        <v>0.2340836396180652</v>
       </c>
       <c r="F47" t="n">
-        <v>0.04268848015862232</v>
+        <v>0.04266788099468542</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03950306050982492</v>
+        <v>0.03944257785826548</v>
       </c>
       <c r="H47" t="n">
-        <v>0.07691289533959256</v>
+        <v>0.07702684816137122</v>
       </c>
       <c r="I47" t="n">
-        <v>0.05122749103059809</v>
+        <v>0.05118716926289179</v>
       </c>
       <c r="J47" t="n">
-        <v>0.06779623131721572</v>
+        <v>0.06781902188157146</v>
       </c>
       <c r="K47" t="n">
-        <v>0.2286485282993067</v>
+        <v>0.2286507196997256</v>
       </c>
       <c r="L47" t="n">
-        <v>0.046224523874431</v>
+        <v>0.04623416603627381</v>
       </c>
       <c r="M47" t="n">
-        <v>0.03018873216967049</v>
+        <v>0.0301764603273251</v>
       </c>
       <c r="N47" t="n">
         <v>0</v>
@@ -9183,40 +9183,40 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0.03761763554012081</v>
+        <v>0.03762492777470598</v>
       </c>
       <c r="C48" t="n">
-        <v>0.02978491768568496</v>
+        <v>0.02980036006480652</v>
       </c>
       <c r="D48" t="n">
-        <v>0.05992157845136101</v>
+        <v>0.05988554623341071</v>
       </c>
       <c r="E48" t="n">
-        <v>0.2391072245883855</v>
+        <v>0.2391059377234587</v>
       </c>
       <c r="F48" t="n">
-        <v>0.04345699962294858</v>
+        <v>0.04343640978411983</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03920820058964151</v>
+        <v>0.03914900480300886</v>
       </c>
       <c r="H48" t="n">
-        <v>0.077028302878245</v>
+        <v>0.07714111803682749</v>
       </c>
       <c r="I48" t="n">
-        <v>0.05123867183528815</v>
+        <v>0.05119835006758185</v>
       </c>
       <c r="J48" t="n">
-        <v>0.06720694975693266</v>
+        <v>0.06722925541566381</v>
       </c>
       <c r="K48" t="n">
-        <v>0.2241572857788128</v>
+        <v>0.224160288463642</v>
       </c>
       <c r="L48" t="n">
-        <v>0.04542075550124032</v>
+        <v>0.0454289056457767</v>
       </c>
       <c r="M48" t="n">
-        <v>0.03005601723026346</v>
+        <v>0.03004443544592229</v>
       </c>
       <c r="N48" t="n">
         <v>0</v>
@@ -9368,40 +9368,40 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0.03785037936063117</v>
+        <v>0.03790666182805454</v>
       </c>
       <c r="C49" t="n">
-        <v>0.03039253240862079</v>
+        <v>0.0302942480998367</v>
       </c>
       <c r="D49" t="n">
-        <v>0.06165786308071746</v>
+        <v>0.06157133928751436</v>
       </c>
       <c r="E49" t="n">
-        <v>0.2443877139573799</v>
+        <v>0.2443914941231023</v>
       </c>
       <c r="F49" t="n">
-        <v>0.04386756315396867</v>
+        <v>0.04379910015255069</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03919737841306963</v>
+        <v>0.03909531393856307</v>
       </c>
       <c r="H49" t="n">
-        <v>0.07630978542099286</v>
+        <v>0.07659665799748661</v>
       </c>
       <c r="I49" t="n">
-        <v>0.05068488202522799</v>
+        <v>0.05092681263146576</v>
       </c>
       <c r="J49" t="n">
-        <v>0.0667447060879149</v>
+        <v>0.06652797658649355</v>
       </c>
       <c r="K49" t="n">
-        <v>0.2198691390630565</v>
+        <v>0.2198804795602239</v>
       </c>
       <c r="L49" t="n">
-        <v>0.04476556252226098</v>
+        <v>0.04476808263274262</v>
       </c>
       <c r="M49" t="n">
-        <v>0.02962305867489231</v>
+        <v>0.02959239733069898</v>
       </c>
       <c r="N49" t="n">
         <v>0</v>
@@ -9553,40 +9553,40 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0.03742148055770765</v>
+        <v>0.03747661440334687</v>
       </c>
       <c r="C50" t="n">
-        <v>0.03020635281793611</v>
+        <v>0.0301100743113721</v>
       </c>
       <c r="D50" t="n">
-        <v>0.06155158985027046</v>
+        <v>0.06146683184876539</v>
       </c>
       <c r="E50" t="n">
-        <v>0.2477817884678921</v>
+        <v>0.2477854914873754</v>
       </c>
       <c r="F50" t="n">
-        <v>0.04464771735592889</v>
+        <v>0.04458065155862147</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03956059147918759</v>
+        <v>0.03946060995314035</v>
       </c>
       <c r="H50" t="n">
-        <v>0.07696725995896231</v>
+        <v>0.07724827799307865</v>
       </c>
       <c r="I50" t="n">
-        <v>0.05186078786265418</v>
+        <v>0.05209778110958099</v>
       </c>
       <c r="J50" t="n">
-        <v>0.06656712401700261</v>
+        <v>0.0663548175666307</v>
       </c>
       <c r="K50" t="n">
-        <v>0.2159773770196371</v>
+        <v>0.2159884860780868</v>
       </c>
       <c r="L50" t="n">
-        <v>0.04452263758671752</v>
+        <v>0.044525106266373</v>
       </c>
       <c r="M50" t="n">
-        <v>0.02927031178189709</v>
+        <v>0.02924027617942199</v>
       </c>
       <c r="N50" t="n">
         <v>0</v>
@@ -9738,40 +9738,40 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>0.03742464869659886</v>
+        <v>0.03747908308300236</v>
       </c>
       <c r="C51" t="n">
-        <v>0.03045382149553436</v>
+        <v>0.03035946855910163</v>
       </c>
       <c r="D51" t="n">
-        <v>0.06199108888933691</v>
+        <v>0.06190762283018487</v>
       </c>
       <c r="E51" t="n">
-        <v>0.252372331203</v>
+        <v>0.2523759601620935</v>
       </c>
       <c r="F51" t="n">
-        <v>0.04521158847603879</v>
+        <v>0.0451482833007399</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03971452188463942</v>
+        <v>0.03961452390072781</v>
       </c>
       <c r="H51" t="n">
-        <v>0.07719683070905828</v>
+        <v>0.07747222838249229</v>
       </c>
       <c r="I51" t="n">
-        <v>0.05153000947561541</v>
+        <v>0.05176306929295781</v>
       </c>
       <c r="J51" t="n">
-        <v>0.06578899618959295</v>
+        <v>0.06558012943287433</v>
       </c>
       <c r="K51" t="n">
-        <v>0.2124352331606218</v>
+        <v>0.2124461200379025</v>
       </c>
       <c r="L51" t="n">
-        <v>0.04420475393641257</v>
+        <v>0.04420717324247495</v>
       </c>
       <c r="M51" t="n">
-        <v>0.02908449426422854</v>
+        <v>0.02905465615612588</v>
       </c>
       <c r="N51" t="n">
         <v>0</v>
@@ -9923,40 +9923,40 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>0.03789178823481974</v>
+        <v>0.03794475996886527</v>
       </c>
       <c r="C52" t="n">
-        <v>0.03067577306118512</v>
+        <v>0.0305824795594333</v>
       </c>
       <c r="D52" t="n">
-        <v>0.06258294128320468</v>
+        <v>0.06250190243634399</v>
       </c>
       <c r="E52" t="n">
-        <v>0.2571595844644182</v>
+        <v>0.2571631422674511</v>
       </c>
       <c r="F52" t="n">
-        <v>0.04594784023566887</v>
+        <v>0.04588577633831702</v>
       </c>
       <c r="G52" t="n">
-        <v>0.03977821446515745</v>
+        <v>0.03968096784892462</v>
       </c>
       <c r="H52" t="n">
-        <v>0.07665602883559827</v>
+        <v>0.07692523593175501</v>
       </c>
       <c r="I52" t="n">
-        <v>0.05090662704064711</v>
+        <v>0.05113472174620135</v>
       </c>
       <c r="J52" t="n">
-        <v>0.06513111887766336</v>
+        <v>0.06492674285899518</v>
       </c>
       <c r="K52" t="n">
-        <v>0.2087766257084475</v>
+        <v>0.2087872991175463</v>
       </c>
       <c r="L52" t="n">
-        <v>0.0436945649814935</v>
+        <v>0.0436969368501821</v>
       </c>
       <c r="M52" t="n">
-        <v>0.02909057415430034</v>
+        <v>0.02906171641858897</v>
       </c>
       <c r="N52" t="n">
         <v>0</v>
@@ -10108,40 +10108,40 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>0.03781716559684746</v>
+        <v>0.0378691186436998</v>
       </c>
       <c r="C53" t="n">
-        <v>0.03072906408524642</v>
+        <v>0.03063756468929752</v>
       </c>
       <c r="D53" t="n">
-        <v>0.06403678275717146</v>
+        <v>0.06395730234967346</v>
       </c>
       <c r="E53" t="n">
-        <v>0.2583597880315688</v>
+        <v>0.2583632774153127</v>
       </c>
       <c r="F53" t="n">
-        <v>0.04680659353952231</v>
+        <v>0.046745723178658</v>
       </c>
       <c r="G53" t="n">
-        <v>0.04015970521686132</v>
+        <v>0.04006432872786374</v>
       </c>
       <c r="H53" t="n">
-        <v>0.07785164070823634</v>
+        <v>0.07811567074485161</v>
       </c>
       <c r="I53" t="n">
-        <v>0.05064569107632756</v>
+        <v>0.05086939934523652</v>
       </c>
       <c r="J53" t="n">
-        <v>0.06494596107708747</v>
+        <v>0.06474551536647059</v>
       </c>
       <c r="K53" t="n">
-        <v>0.2055910008017828</v>
+        <v>0.2056014689530143</v>
       </c>
       <c r="L53" t="n">
-        <v>0.04330131371420862</v>
+        <v>0.04330363997003783</v>
       </c>
       <c r="M53" t="n">
-        <v>0.029041365481155</v>
+        <v>0.02901306270189962</v>
       </c>
       <c r="N53" t="n">
         <v>0</v>
@@ -10293,40 +10293,40 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>0.03831290680764577</v>
+        <v>0.03836387960833108</v>
       </c>
       <c r="C54" t="n">
-        <v>0.03066964946309284</v>
+        <v>0.03057949607680612</v>
       </c>
       <c r="D54" t="n">
-        <v>0.06355965890827672</v>
+        <v>0.06348205852514385</v>
       </c>
       <c r="E54" t="n">
-        <v>0.2564536700987085</v>
+        <v>0.2564570936450231</v>
       </c>
       <c r="F54" t="n">
-        <v>0.04938922031775835</v>
+        <v>0.04933025924233877</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04065917721531025</v>
+        <v>0.04056521988867388</v>
       </c>
       <c r="H54" t="n">
-        <v>0.07772172883002587</v>
+        <v>0.07798077716783708</v>
       </c>
       <c r="I54" t="n">
-        <v>0.05115310745789133</v>
+        <v>0.05137259481606617</v>
       </c>
       <c r="J54" t="n">
-        <v>0.06513296863689221</v>
+        <v>0.06493630492081527</v>
       </c>
       <c r="K54" t="n">
-        <v>0.2037367627630758</v>
+        <v>0.2037462726139499</v>
       </c>
       <c r="L54" t="n">
-        <v>0.04386399695989087</v>
+        <v>0.0438670401121706</v>
       </c>
       <c r="M54" t="n">
-        <v>0.029590091191862</v>
+        <v>0.02956194203327459</v>
       </c>
       <c r="N54" t="n">
         <v>0</v>
@@ -10478,40 +10478,40 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>0.03907291295650402</v>
+        <v>0.03912406186553885</v>
       </c>
       <c r="C55" t="n">
-        <v>0.03068150507718258</v>
+        <v>0.03059302119804932</v>
       </c>
       <c r="D55" t="n">
-        <v>0.06285603560860108</v>
+        <v>0.0627798722696003</v>
       </c>
       <c r="E55" t="n">
-        <v>0.2524605612043365</v>
+        <v>0.2524642947013463</v>
       </c>
       <c r="F55" t="n">
-        <v>0.04925079915503495</v>
+        <v>0.04919255660168142</v>
       </c>
       <c r="G55" t="n">
-        <v>0.04065106214256433</v>
+        <v>0.04055921811612221</v>
       </c>
       <c r="H55" t="n">
-        <v>0.07702689685915831</v>
+        <v>0.07728114800552856</v>
       </c>
       <c r="I55" t="n">
-        <v>0.05105855840720057</v>
+        <v>0.05127398118466847</v>
       </c>
       <c r="J55" t="n">
-        <v>0.06588054153627429</v>
+        <v>0.06568303954445363</v>
       </c>
       <c r="K55" t="n">
-        <v>0.2081488052436219</v>
+        <v>0.2081611257837544</v>
       </c>
       <c r="L55" t="n">
-        <v>0.04420273784802726</v>
+        <v>0.04420796474384104</v>
       </c>
       <c r="M55" t="n">
-        <v>0.02987394967395371</v>
+        <v>0.02984408169787497</v>
       </c>
       <c r="N55" t="n">
         <v>0</v>
@@ -10663,40 +10663,40 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>0.03960074118740275</v>
+        <v>0.03965096011627332</v>
       </c>
       <c r="C56" t="n">
-        <v>0.03079923242016748</v>
+        <v>0.03071235733883665</v>
       </c>
       <c r="D56" t="n">
-        <v>0.06237704151859108</v>
+        <v>0.06230226296757214</v>
       </c>
       <c r="E56" t="n">
-        <v>0.2480947048354963</v>
+        <v>0.2480983704507424</v>
       </c>
       <c r="F56" t="n">
-        <v>0.04856646951766002</v>
+        <v>0.048509285919822</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04020336833384958</v>
+        <v>0.04011319419879731</v>
       </c>
       <c r="H56" t="n">
-        <v>0.07658386652761766</v>
+        <v>0.07683349492587209</v>
       </c>
       <c r="I56" t="n">
-        <v>0.05127022732312948</v>
+        <v>0.05148173332282523</v>
       </c>
       <c r="J56" t="n">
-        <v>0.06697775521387948</v>
+        <v>0.06678384416736466</v>
       </c>
       <c r="K56" t="n">
-        <v>0.2131514943796954</v>
+        <v>0.2131632243484827</v>
       </c>
       <c r="L56" t="n">
-        <v>0.04453942460837483</v>
+        <v>0.04454492303124387</v>
       </c>
       <c r="M56" t="n">
-        <v>0.02986046835565999</v>
+        <v>0.02983114343369177</v>
       </c>
       <c r="N56" t="n">
         <v>0</v>
@@ -10848,40 +10848,40 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>0.03991242976092072</v>
+        <v>0.03995851178115649</v>
       </c>
       <c r="C57" t="n">
-        <v>0.03052753832728027</v>
+        <v>0.03044041450777202</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0614449737476491</v>
+        <v>0.06137225055946453</v>
       </c>
       <c r="E57" t="n">
-        <v>0.2438894521135807</v>
+        <v>0.2438923322398454</v>
       </c>
       <c r="F57" t="n">
-        <v>0.04814347060975153</v>
+        <v>0.04808802817915538</v>
       </c>
       <c r="G57" t="n">
-        <v>0.04022060327124741</v>
+        <v>0.04013167937282371</v>
       </c>
       <c r="H57" t="n">
-        <v>0.0767791259968837</v>
+        <v>0.07702321669782003</v>
       </c>
       <c r="I57" t="n">
-        <v>0.05135085122131754</v>
+        <v>0.05156074042286014</v>
       </c>
       <c r="J57" t="n">
-        <v>0.06711846247339483</v>
+        <v>0.06692837413992229</v>
       </c>
       <c r="K57" t="n">
-        <v>0.2180691201502274</v>
+        <v>0.2180784805605878</v>
       </c>
       <c r="L57" t="n">
-        <v>0.04510277730575708</v>
+        <v>0.045106377463588</v>
       </c>
       <c r="M57" t="n">
-        <v>0.03031908918887004</v>
+        <v>0.03029748824188452</v>
       </c>
       <c r="N57" t="n">
         <v>0</v>
@@ -11033,40 +11033,40 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>0.03998787517371077</v>
+        <v>0.04003314873745117</v>
       </c>
       <c r="C58" t="n">
-        <v>0.03034000800068759</v>
+        <v>0.030259364465275</v>
       </c>
       <c r="D58" t="n">
-        <v>0.06053499911751921</v>
+        <v>0.06046461287389155</v>
       </c>
       <c r="E58" t="n">
-        <v>0.2398674757901386</v>
+        <v>0.2398699516881557</v>
       </c>
       <c r="F58" t="n">
-        <v>0.04770807889059962</v>
+        <v>0.04765325543450772</v>
       </c>
       <c r="G58" t="n">
-        <v>0.04017321382527305</v>
+        <v>0.04008691109439291</v>
       </c>
       <c r="H58" t="n">
-        <v>0.07671074826236171</v>
+        <v>0.07694878817171555</v>
       </c>
       <c r="I58" t="n">
-        <v>0.05132784179153151</v>
+        <v>0.0515312191286466</v>
       </c>
       <c r="J58" t="n">
-        <v>0.06795208217717738</v>
+        <v>0.06776603612618166</v>
       </c>
       <c r="K58" t="n">
-        <v>0.2224219446622645</v>
+        <v>0.2224261890588652</v>
       </c>
       <c r="L58" t="n">
-        <v>0.04600572215401712</v>
+        <v>0.04601032025033451</v>
       </c>
       <c r="M58" t="n">
-        <v>0.03062473627264872</v>
+        <v>0.03060492908851229</v>
       </c>
       <c r="N58" t="n">
         <v>0</v>
@@ -11218,40 +11218,40 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>0.04026232785907403</v>
+        <v>0.04030682084412925</v>
       </c>
       <c r="C59" t="n">
-        <v>0.02998236270264295</v>
+        <v>0.02990310957301334</v>
       </c>
       <c r="D59" t="n">
-        <v>0.05962199037978239</v>
+        <v>0.05955281769207935</v>
       </c>
       <c r="E59" t="n">
-        <v>0.2359358717044776</v>
+        <v>0.2359383049145978</v>
       </c>
       <c r="F59" t="n">
-        <v>0.04706627855806578</v>
+        <v>0.04701240033397547</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03996790943452892</v>
+        <v>0.0398830946817674</v>
       </c>
       <c r="H59" t="n">
-        <v>0.07694783684144299</v>
+        <v>0.07718177261442866</v>
       </c>
       <c r="I59" t="n">
-        <v>0.05151835787515407</v>
+        <v>0.05171822870645684</v>
       </c>
       <c r="J59" t="n">
-        <v>0.07005698578101525</v>
+        <v>0.06987414742055395</v>
       </c>
       <c r="K59" t="n">
-        <v>0.2259517153783746</v>
+        <v>0.2259558865957235</v>
       </c>
       <c r="L59" t="n">
-        <v>0.04663316715666884</v>
+        <v>0.04663768597546351</v>
       </c>
       <c r="M59" t="n">
-        <v>0.03045023424861429</v>
+        <v>0.03043076856765263</v>
       </c>
       <c r="N59" t="n">
         <v>0</v>
@@ -11403,40 +11403,40 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>0.04011537492922334</v>
+        <v>0.04016082234536687</v>
       </c>
       <c r="C60" t="n">
-        <v>0.029829223645368</v>
+        <v>0.02975165549901776</v>
       </c>
       <c r="D60" t="n">
-        <v>0.05881715752723684</v>
+        <v>0.05874881554807363</v>
       </c>
       <c r="E60" t="n">
-        <v>0.2324457646596108</v>
+        <v>0.2324484983387773</v>
       </c>
       <c r="F60" t="n">
-        <v>0.04659419455389602</v>
+        <v>0.04654122952004453</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03973505181518005</v>
+        <v>0.03965201631049674</v>
       </c>
       <c r="H60" t="n">
-        <v>0.07685431437788809</v>
+        <v>0.07708394342787649</v>
       </c>
       <c r="I60" t="n">
-        <v>0.05179433574842497</v>
+        <v>0.05199116064841503</v>
       </c>
       <c r="J60" t="n">
-        <v>0.07148707704430508</v>
+        <v>0.07130699592921001</v>
       </c>
       <c r="K60" t="n">
-        <v>0.2294021546175771</v>
+        <v>0.2294065968462227</v>
       </c>
       <c r="L60" t="n">
-        <v>0.04730153403823529</v>
+        <v>0.04730563455698508</v>
       </c>
       <c r="M60" t="n">
-        <v>0.03061208101668262</v>
+        <v>0.03059089500314202</v>
       </c>
       <c r="N60" t="n">
         <v>0</v>
@@ -11588,40 +11588,40 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>0.04003749924396686</v>
+        <v>0.04008218920317467</v>
       </c>
       <c r="C61" t="n">
-        <v>0.02977762545109978</v>
+        <v>0.0297013501071887</v>
       </c>
       <c r="D61" t="n">
-        <v>0.05818565485910902</v>
+        <v>0.05811878792766275</v>
       </c>
       <c r="E61" t="n">
-        <v>0.2287457242125495</v>
+        <v>0.2287480763156657</v>
       </c>
       <c r="F61" t="n">
-        <v>0.04614120683050745</v>
+        <v>0.04608912454722015</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0397004764688884</v>
+        <v>0.0396198329334758</v>
       </c>
       <c r="H61" t="n">
-        <v>0.07681699965726498</v>
+        <v>0.07704078546803492</v>
       </c>
       <c r="I61" t="n">
-        <v>0.05183329637171294</v>
+        <v>0.0520281849156267</v>
       </c>
       <c r="J61" t="n">
-        <v>0.0719552025160783</v>
+        <v>0.07177745072343972</v>
       </c>
       <c r="K61" t="n">
-        <v>0.2331508773344624</v>
+        <v>0.2331555815406947</v>
       </c>
       <c r="L61" t="n">
-        <v>0.04824566709004523</v>
+        <v>0.04825305941412471</v>
       </c>
       <c r="M61" t="n">
-        <v>0.03091940350664973</v>
+        <v>0.03089521044602596</v>
       </c>
       <c r="N61" t="n">
         <v>0</v>
@@ -11773,40 +11773,40 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>0.03973148346757948</v>
+        <v>0.0397754408045052</v>
       </c>
       <c r="C62" t="n">
-        <v>0.02977465089446571</v>
+        <v>0.02969962596602858</v>
       </c>
       <c r="D62" t="n">
-        <v>0.05771664439605098</v>
+        <v>0.05765087364380874</v>
       </c>
       <c r="E62" t="n">
-        <v>0.2256891965094569</v>
+        <v>0.225691179547213</v>
       </c>
       <c r="F62" t="n">
-        <v>0.04566969002806329</v>
+        <v>0.04561879205899141</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03946344286422041</v>
+        <v>0.03938412135397852</v>
       </c>
       <c r="H62" t="n">
-        <v>0.07612220932880452</v>
+        <v>0.07634232651972578</v>
       </c>
       <c r="I62" t="n">
-        <v>0.05243250978877012</v>
+        <v>0.05262420343852137</v>
       </c>
       <c r="J62" t="n">
-        <v>0.07268395236611107</v>
+        <v>0.07250911453728623</v>
       </c>
       <c r="K62" t="n">
-        <v>0.2371633834722396</v>
+        <v>0.2371676800540444</v>
       </c>
       <c r="L62" t="n">
-        <v>0.04859764527486721</v>
+        <v>0.04860524691959873</v>
       </c>
       <c r="M62" t="n">
-        <v>0.03091621962936363</v>
+        <v>0.03089242317629106</v>
       </c>
       <c r="N62" t="n">
         <v>0</v>
@@ -11958,40 +11958,40 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>0.03944704548750643</v>
+        <v>0.03949809804823134</v>
       </c>
       <c r="C63" t="n">
-        <v>0.02971031411307394</v>
+        <v>0.02963779996631181</v>
       </c>
       <c r="D63" t="n">
-        <v>0.05720780863549187</v>
+        <v>0.05714244835074215</v>
       </c>
       <c r="E63" t="n">
-        <v>0.2227683364864522</v>
+        <v>0.2227702875397283</v>
       </c>
       <c r="F63" t="n">
-        <v>0.04520850581186253</v>
+        <v>0.04515810360222967</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03934689141933273</v>
+        <v>0.03926949963938032</v>
       </c>
       <c r="H63" t="n">
-        <v>0.07594442359707888</v>
+        <v>0.07616294156400333</v>
       </c>
       <c r="I63" t="n">
-        <v>0.05223002137704039</v>
+        <v>0.05241959872036919</v>
       </c>
       <c r="J63" t="n">
-        <v>0.07332155764289351</v>
+        <v>0.07314693837468157</v>
       </c>
       <c r="K63" t="n">
-        <v>0.2406396593200839</v>
+        <v>0.2406416103733601</v>
       </c>
       <c r="L63" t="n">
-        <v>0.04917434677110438</v>
+        <v>0.04917499712219642</v>
       </c>
       <c r="M63" t="n">
-        <v>0.03133554149207449</v>
+        <v>0.03131212885276116</v>
       </c>
       <c r="N63" t="n">
         <v>0</v>
@@ -12143,40 +12143,40 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>0.03958061521417099</v>
+        <v>0.03963053740275974</v>
       </c>
       <c r="C64" t="n">
-        <v>0.02953025460636194</v>
+        <v>0.02945889147780239</v>
       </c>
       <c r="D64" t="n">
-        <v>0.05671064619472917</v>
+        <v>0.05664600336078734</v>
       </c>
       <c r="E64" t="n">
-        <v>0.219768674658697</v>
+        <v>0.2197705947428735</v>
       </c>
       <c r="F64" t="n">
-        <v>0.04474756173310638</v>
+        <v>0.04469795955854704</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03933932463599204</v>
+        <v>0.03926316129699126</v>
       </c>
       <c r="H64" t="n">
-        <v>0.07580012307739571</v>
+        <v>0.0760145324771038</v>
       </c>
       <c r="I64" t="n">
-        <v>0.05213636565827046</v>
+        <v>0.05232165378130177</v>
       </c>
       <c r="J64" t="n">
-        <v>0.07386595828361116</v>
+        <v>0.07369507079190352</v>
       </c>
       <c r="K64" t="n">
-        <v>0.2440980612590056</v>
+        <v>0.2441012613992997</v>
       </c>
       <c r="L64" t="n">
-        <v>0.04957209324056767</v>
+        <v>0.04957369331071474</v>
       </c>
       <c r="M64" t="n">
-        <v>0.03146633948432299</v>
+        <v>0.03144265844614628</v>
       </c>
       <c r="N64" t="n">
         <v>0</v>
@@ -12328,40 +12328,40 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>0.03927497681498357</v>
+        <v>0.03932411896937562</v>
       </c>
       <c r="C65" t="n">
-        <v>0.02940401907219612</v>
+        <v>0.02933377099252031</v>
       </c>
       <c r="D65" t="n">
-        <v>0.0565115874679946</v>
+        <v>0.0564479546783331</v>
       </c>
       <c r="E65" t="n">
-        <v>0.2170388449829641</v>
+        <v>0.2170407350658253</v>
       </c>
       <c r="F65" t="n">
-        <v>0.04488442773331183</v>
+        <v>0.04483560059272999</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03934742999133082</v>
+        <v>0.03927245670450193</v>
       </c>
       <c r="H65" t="n">
-        <v>0.07539383026551884</v>
+        <v>0.07560488951835649</v>
       </c>
       <c r="I65" t="n">
-        <v>0.05190293542468902</v>
+        <v>0.05208532842079797</v>
       </c>
       <c r="J65" t="n">
-        <v>0.07398540352009032</v>
+        <v>0.07381718614544061</v>
       </c>
       <c r="K65" t="n">
-        <v>0.2475844741033447</v>
+        <v>0.2475876242414468</v>
       </c>
       <c r="L65" t="n">
-        <v>0.04997127074050926</v>
+        <v>0.04997284580956029</v>
       </c>
       <c r="M65" t="n">
-        <v>0.0314412133827947</v>
+        <v>0.0314179023608395</v>
       </c>
       <c r="N65" t="n">
         <v>0</v>
@@ -12513,40 +12513,40 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>0.03905659470265022</v>
+        <v>0.03910342998667831</v>
       </c>
       <c r="C66" t="n">
-        <v>0.02918210395882217</v>
+        <v>0.02911324678627757</v>
       </c>
       <c r="D66" t="n">
-        <v>0.05614030734492016</v>
+        <v>0.05607579251659008</v>
       </c>
       <c r="E66" t="n">
-        <v>0.2139280690680864</v>
+        <v>0.2139289995704181</v>
       </c>
       <c r="F66" t="n">
-        <v>0.04448080296147876</v>
+        <v>0.04442962533323615</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03913475689851166</v>
+        <v>0.03906465905619148</v>
       </c>
       <c r="H66" t="n">
-        <v>0.07572583058964381</v>
+        <v>0.07594915114924793</v>
       </c>
       <c r="I66" t="n">
-        <v>0.05182991037711709</v>
+        <v>0.05199647029448848</v>
       </c>
       <c r="J66" t="n">
-        <v>0.07435861249695648</v>
+        <v>0.0741917424121412</v>
       </c>
       <c r="K66" t="n">
-        <v>0.2509961802879284</v>
+        <v>0.251000522632143</v>
       </c>
       <c r="L66" t="n">
-        <v>0.05041616716784556</v>
+        <v>0.05041833833995282</v>
       </c>
       <c r="M66" t="n">
-        <v>0.03142709591773118</v>
+        <v>0.03140445369432688</v>
       </c>
       <c r="N66" t="n">
         <v>0</v>
@@ -12698,40 +12698,40 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>0.03901222665965312</v>
+        <v>0.03905835231816563</v>
       </c>
       <c r="C67" t="n">
-        <v>0.02971928107510051</v>
+        <v>0.02965146719304902</v>
       </c>
       <c r="D67" t="n">
-        <v>0.05690501107932208</v>
+        <v>0.05684147374839095</v>
       </c>
       <c r="E67" t="n">
-        <v>0.2167209483191016</v>
+        <v>0.2167218647229131</v>
       </c>
       <c r="F67" t="n">
-        <v>0.04462520000513186</v>
+        <v>0.04457479779549899</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03906507261278334</v>
+        <v>0.03899603685898317</v>
       </c>
       <c r="H67" t="n">
-        <v>0.075653105723064</v>
+        <v>0.0758730426378256</v>
       </c>
       <c r="I67" t="n">
-        <v>0.05170716866045589</v>
+        <v>0.0518712049427156</v>
       </c>
       <c r="J67" t="n">
-        <v>0.07357042532744636</v>
+        <v>0.07340608357724948</v>
       </c>
       <c r="K67" t="n">
-        <v>0.2476333871567839</v>
+        <v>0.247637358239967</v>
       </c>
       <c r="L67" t="n">
-        <v>0.05024978113222302</v>
+        <v>0.05025222487572037</v>
       </c>
       <c r="M67" t="n">
-        <v>0.03162631740684602</v>
+        <v>0.0316040182474327</v>
       </c>
       <c r="N67" t="n">
         <v>0</v>
@@ -12883,40 +12883,40 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>0.03890539038843403</v>
+        <v>0.03895082760428217</v>
       </c>
       <c r="C68" t="n">
-        <v>0.02986699533922493</v>
+        <v>0.02980019360466673</v>
       </c>
       <c r="D68" t="n">
-        <v>0.05724968833379924</v>
+        <v>0.05718709932124021</v>
       </c>
       <c r="E68" t="n">
-        <v>0.2186754780762424</v>
+        <v>0.2186763808023851</v>
       </c>
       <c r="F68" t="n">
-        <v>0.04559098020110933</v>
+        <v>0.04554133026326203</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03910128196139522</v>
+        <v>0.03903327659198012</v>
       </c>
       <c r="H68" t="n">
-        <v>0.07519678677638601</v>
+        <v>0.07541374195934301</v>
       </c>
       <c r="I68" t="n">
-        <v>0.05203102850297614</v>
+        <v>0.05219231557380132</v>
       </c>
       <c r="J68" t="n">
-        <v>0.07319514200935405</v>
+        <v>0.07303325312110041</v>
       </c>
       <c r="K68" t="n">
-        <v>0.2449628633510338</v>
+        <v>0.2449667751643187</v>
       </c>
       <c r="L68" t="n">
-        <v>0.05011333726721326</v>
+        <v>0.05011574453692707</v>
       </c>
       <c r="M68" t="n">
-        <v>0.03160504407259483</v>
+        <v>0.03158307773645633</v>
       </c>
       <c r="N68" t="n">
         <v>0</v>
@@ -13068,40 +13068,40 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>0.03902079773059604</v>
+        <v>0.03906556675209347</v>
       </c>
       <c r="C69" t="n">
-        <v>0.03029795414466264</v>
+        <v>0.03023183830496776</v>
       </c>
       <c r="D69" t="n">
-        <v>0.05856440275753454</v>
+        <v>0.05850154823728649</v>
       </c>
       <c r="E69" t="n">
-        <v>0.2219387180286925</v>
+        <v>0.2219399039630368</v>
       </c>
       <c r="F69" t="n">
-        <v>0.04560302982506283</v>
+        <v>0.04555440651694641</v>
       </c>
       <c r="G69" t="n">
-        <v>0.03895468189090116</v>
+        <v>0.03888738011686197</v>
       </c>
       <c r="H69" t="n">
-        <v>0.07531631833798418</v>
+        <v>0.07553126893788906</v>
       </c>
       <c r="I69" t="n">
-        <v>0.05207170870606261</v>
+        <v>0.05223062390819919</v>
       </c>
       <c r="J69" t="n">
-        <v>0.07225512531175249</v>
+        <v>0.07209532065885768</v>
       </c>
       <c r="K69" t="n">
-        <v>0.2416415347413536</v>
+        <v>0.2416453890279726</v>
       </c>
       <c r="L69" t="n">
-        <v>0.04953143734056595</v>
+        <v>0.04953410569284063</v>
       </c>
       <c r="M69" t="n">
-        <v>0.03150849662660976</v>
+        <v>0.03148685332482623</v>
       </c>
       <c r="N69" t="n">
         <v>0</v>
@@ -13253,40 +13253,40 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>0.03884359507712123</v>
+        <v>0.03888917620583269</v>
       </c>
       <c r="C70" t="n">
-        <v>0.03074826974327598</v>
+        <v>0.03068428085104642</v>
       </c>
       <c r="D70" t="n">
-        <v>0.05957015242504753</v>
+        <v>0.05952924628389621</v>
       </c>
       <c r="E70" t="n">
-        <v>0.2257434618107571</v>
+        <v>0.2259319222467756</v>
       </c>
       <c r="F70" t="n">
-        <v>0.04648866067157949</v>
+        <v>0.04627215031020004</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03897537128897296</v>
+        <v>0.03870860481132189</v>
       </c>
       <c r="H70" t="n">
-        <v>0.07455553286238678</v>
+        <v>0.07470571683775661</v>
       </c>
       <c r="I70" t="n">
-        <v>0.05158381273869829</v>
+        <v>0.0517395482617958</v>
       </c>
       <c r="J70" t="n">
-        <v>0.07142241463691855</v>
+        <v>0.07132219459109783</v>
       </c>
       <c r="K70" t="n">
-        <v>0.2384103406049843</v>
+        <v>0.2385757182899246</v>
       </c>
       <c r="L70" t="n">
-        <v>0.04913441144390205</v>
+        <v>0.04913791768457216</v>
       </c>
       <c r="M70" t="n">
-        <v>0.03155236760362183</v>
+        <v>0.03153191453304617</v>
       </c>
       <c r="N70" t="n">
         <v>0</v>
@@ -13438,40 +13438,40 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>0.03894794747801743</v>
+        <v>0.03899287744774731</v>
       </c>
       <c r="C71" t="n">
-        <v>0.030504569320319</v>
+        <v>0.0304414945551213</v>
       </c>
       <c r="D71" t="n">
-        <v>0.05960306099819416</v>
+        <v>0.05956273923048786</v>
       </c>
       <c r="E71" t="n">
-        <v>0.2281428657832359</v>
+        <v>0.2283286339273114</v>
       </c>
       <c r="F71" t="n">
-        <v>0.04666207766548486</v>
+        <v>0.04644866030926796</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03897127650076179</v>
+        <v>0.03870832097279145</v>
       </c>
       <c r="H71" t="n">
-        <v>0.07435218759990438</v>
+        <v>0.07450022608991178</v>
       </c>
       <c r="I71" t="n">
-        <v>0.05164095193933302</v>
+        <v>0.05179446266924342</v>
       </c>
       <c r="J71" t="n">
-        <v>0.07151439919126054</v>
+        <v>0.07141561086038012</v>
       </c>
       <c r="K71" t="n">
-        <v>0.2361674735820418</v>
+        <v>0.2363304887286259</v>
       </c>
       <c r="L71" t="n">
-        <v>0.04946069635692829</v>
+        <v>0.04946415250844597</v>
       </c>
       <c r="M71" t="n">
-        <v>0.03140806492956651</v>
+        <v>0.03138790404571336</v>
       </c>
       <c r="N71" t="n">
         <v>0</v>
@@ -13623,40 +13623,40 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>0.03855612861053744</v>
+        <v>0.03860070971990285</v>
       </c>
       <c r="C72" t="n">
-        <v>0.03039920537722008</v>
+        <v>0.03033701898899699</v>
       </c>
       <c r="D72" t="n">
-        <v>0.06045879924615332</v>
+        <v>0.06041904539066824</v>
       </c>
       <c r="E72" t="n">
-        <v>0.2309292946445026</v>
+        <v>0.2311124463358445</v>
       </c>
       <c r="F72" t="n">
-        <v>0.04689336397409071</v>
+        <v>0.04668295249613039</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03884689966779974</v>
+        <v>0.0385876477388149</v>
       </c>
       <c r="H72" t="n">
-        <v>0.07428802974497049</v>
+        <v>0.07443398318582287</v>
       </c>
       <c r="I72" t="n">
-        <v>0.05213661355646226</v>
+        <v>0.05228796216341618</v>
       </c>
       <c r="J72" t="n">
-        <v>0.07146380226886612</v>
+        <v>0.07136526949848523</v>
       </c>
       <c r="K72" t="n">
-        <v>0.2334599115022386</v>
+        <v>0.2336214825291744</v>
       </c>
       <c r="L72" t="n">
-        <v>0.04903893634584264</v>
+        <v>0.04904262777528054</v>
       </c>
       <c r="M72" t="n">
-        <v>0.03129423503785561</v>
+        <v>0.03127407415400246</v>
       </c>
       <c r="N72" t="n">
         <v>0</v>
@@ -13808,40 +13808,40 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>0.03836392187433497</v>
+        <v>0.03840788380162587</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0304563752074891</v>
+        <v>0.03039449249455096</v>
       </c>
       <c r="D73" t="n">
-        <v>0.06174354683709334</v>
+        <v>0.06170014493435392</v>
       </c>
       <c r="E73" t="n">
-        <v>0.2347261703953101</v>
+        <v>0.2349087383990914</v>
       </c>
       <c r="F73" t="n">
-        <v>0.04726719219370577</v>
+        <v>0.04705494288869624</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03881726174875506</v>
+        <v>0.03856273059010907</v>
       </c>
       <c r="H73" t="n">
-        <v>0.07419261260413657</v>
+        <v>0.0743410191102778</v>
       </c>
       <c r="I73" t="n">
-        <v>0.05207528298040586</v>
+        <v>0.05222592958475299</v>
       </c>
       <c r="J73" t="n">
-        <v>0.07064485707053397</v>
+        <v>0.07054769281085282</v>
       </c>
       <c r="K73" t="n">
-        <v>0.2304702638163657</v>
+        <v>0.2306295908012607</v>
       </c>
       <c r="L73" t="n">
-        <v>0.04844660389911494</v>
+        <v>0.04845024405869953</v>
       </c>
       <c r="M73" t="n">
-        <v>0.03098111821222242</v>
+        <v>0.03096179736519649</v>
       </c>
       <c r="N73" t="n">
         <v>0</v>
@@ -13993,40 +13993,40 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0380209413586171</v>
+        <v>0.03806430106772593</v>
       </c>
       <c r="C74" t="n">
-        <v>0.03051833080033461</v>
+        <v>0.03045729579579289</v>
       </c>
       <c r="D74" t="n">
-        <v>0.06190440813582802</v>
+        <v>0.06186160077970147</v>
       </c>
       <c r="E74" t="n">
-        <v>0.2365236228942578</v>
+        <v>0.2367036899664804</v>
       </c>
       <c r="F74" t="n">
-        <v>0.04794672445015332</v>
+        <v>0.04773738266986995</v>
       </c>
       <c r="G74" t="n">
-        <v>0.0389552464281404</v>
+        <v>0.03870420199769503</v>
       </c>
       <c r="H74" t="n">
-        <v>0.07473584409063781</v>
+        <v>0.07488221763094149</v>
       </c>
       <c r="I74" t="n">
-        <v>0.05321009601828067</v>
+        <v>0.05335867897051347</v>
       </c>
       <c r="J74" t="n">
-        <v>0.07044627083026662</v>
+        <v>0.07035043758784139</v>
       </c>
       <c r="K74" t="n">
-        <v>0.2276304637030904</v>
+        <v>0.2277876081265485</v>
       </c>
       <c r="L74" t="n">
-        <v>0.04815109505359619</v>
+        <v>0.048154685347981</v>
       </c>
       <c r="M74" t="n">
-        <v>0.03071496846202559</v>
+        <v>0.030695912284137</v>
       </c>
       <c r="N74" t="n">
         <v>0</v>
@@ -14178,40 +14178,40 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>0.03804140827587935</v>
+        <v>0.0380839095985968</v>
       </c>
       <c r="C75" t="n">
-        <v>0.03063800479175169</v>
+        <v>0.03057806702894503</v>
       </c>
       <c r="D75" t="n">
-        <v>0.06265893723807879</v>
+        <v>0.06261643591536134</v>
       </c>
       <c r="E75" t="n">
-        <v>0.2397298005652676</v>
+        <v>0.2399074342986764</v>
       </c>
       <c r="F75" t="n">
-        <v>0.04795920090974626</v>
+        <v>0.04775268807243969</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03902901914030722</v>
+        <v>0.03878082231341238</v>
       </c>
       <c r="H75" t="n">
-        <v>0.07474293510865354</v>
+        <v>0.07488787551689509</v>
       </c>
       <c r="I75" t="n">
-        <v>0.05307189207715407</v>
+        <v>0.05321846715165398</v>
       </c>
       <c r="J75" t="n">
-        <v>0.06969917236847339</v>
+        <v>0.0696046341698647</v>
       </c>
       <c r="K75" t="n">
-        <v>0.2251758219783058</v>
+        <v>0.2253305703840975</v>
       </c>
       <c r="L75" t="n">
-        <v>0.0479349533602472</v>
+        <v>0.04793876758151672</v>
       </c>
       <c r="M75" t="n">
-        <v>0.03062519990606118</v>
+        <v>0.0306066736884664</v>
       </c>
       <c r="N75" t="n">
         <v>0</v>
@@ -14363,40 +14363,40 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>0.03827342190681639</v>
+        <v>0.03831643179236978</v>
       </c>
       <c r="C76" t="n">
-        <v>0.03089480722834889</v>
+        <v>0.03083728150642124</v>
       </c>
       <c r="D76" t="n">
-        <v>0.06289685019791268</v>
+        <v>0.06285572199485226</v>
       </c>
       <c r="E76" t="n">
-        <v>0.2439160500796355</v>
+        <v>0.2440902401161267</v>
       </c>
       <c r="F76" t="n">
-        <v>0.04848423754897415</v>
+        <v>0.04827859653367204</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03895109641606688</v>
+        <v>0.03870405838591964</v>
       </c>
       <c r="H76" t="n">
-        <v>0.07435656539182678</v>
+        <v>0.07450199256735415</v>
       </c>
       <c r="I76" t="n">
-        <v>0.05252743560277683</v>
+        <v>0.05267178753116537</v>
       </c>
       <c r="J76" t="n">
-        <v>0.0689107074454144</v>
+        <v>0.06881689213255109</v>
       </c>
       <c r="K76" t="n">
-        <v>0.2225482013131456</v>
+        <v>0.2227011552186448</v>
       </c>
       <c r="L76" t="n">
-        <v>0.04749635424016989</v>
+        <v>0.04750038641694052</v>
       </c>
       <c r="M76" t="n">
-        <v>0.03058997466448929</v>
+        <v>0.03057115783955969</v>
       </c>
       <c r="N76" t="n">
         <v>0</v>
@@ -14548,40 +14548,40 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>0.03806772783655678</v>
+        <v>0.0381101718025634</v>
       </c>
       <c r="C77" t="n">
-        <v>0.03072067732080953</v>
+        <v>0.03066390851627567</v>
       </c>
       <c r="D77" t="n">
-        <v>0.06295952225071863</v>
+        <v>0.06291893520822479</v>
       </c>
       <c r="E77" t="n">
-        <v>0.2449388223284972</v>
+        <v>0.245110720390824</v>
       </c>
       <c r="F77" t="n">
-        <v>0.04972469782548951</v>
+        <v>0.04952176261302033</v>
       </c>
       <c r="G77" t="n">
-        <v>0.03943787211420823</v>
+        <v>0.03919408458445765</v>
       </c>
       <c r="H77" t="n">
-        <v>0.07508284531614919</v>
+        <v>0.07522635897620909</v>
       </c>
       <c r="I77" t="n">
-        <v>0.05228380370090162</v>
+        <v>0.05242625626181136</v>
       </c>
       <c r="J77" t="n">
-        <v>0.0688364198939113</v>
+        <v>0.06874383899305934</v>
       </c>
       <c r="K77" t="n">
-        <v>0.220300630611225</v>
+        <v>0.220451571965336</v>
       </c>
       <c r="L77" t="n">
-        <v>0.04736083419370789</v>
+        <v>0.04736481331552102</v>
       </c>
       <c r="M77" t="n">
-        <v>0.03058061223298766</v>
+        <v>0.03056204299785976</v>
       </c>
       <c r="N77" t="n">
         <v>0</v>
@@ -14733,40 +14733,40 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>0.03875576450726145</v>
+        <v>0.03879713359360947</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0308081869945542</v>
+        <v>0.03075215544722208</v>
       </c>
       <c r="D78" t="n">
-        <v>0.06349447814337635</v>
+        <v>0.06345179990872618</v>
       </c>
       <c r="E78" t="n">
-        <v>0.2474531174355775</v>
+        <v>0.2476204265885925</v>
       </c>
       <c r="F78" t="n">
-        <v>0.04964395093626359</v>
+        <v>0.04943789099350479</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03920925347912707</v>
+        <v>0.03896732287288929</v>
       </c>
       <c r="H78" t="n">
-        <v>0.07450808097972469</v>
+        <v>0.07465994218277439</v>
       </c>
       <c r="I78" t="n">
-        <v>0.05189202040071982</v>
+        <v>0.05203419390633358</v>
       </c>
       <c r="J78" t="n">
-        <v>0.06849699563556139</v>
+        <v>0.06840666440271287</v>
       </c>
       <c r="K78" t="n">
-        <v>0.2185041828597402</v>
+        <v>0.2186526402772043</v>
       </c>
       <c r="L78" t="n">
-        <v>0.04730581206861927</v>
+        <v>0.0473094776838653</v>
       </c>
       <c r="M78" t="n">
-        <v>0.03064166333052041</v>
+        <v>0.03062385891361113</v>
       </c>
       <c r="N78" t="n">
         <v>0</v>
@@ -14918,40 +14918,40 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>0.03861946538505479</v>
+        <v>0.03865901173415135</v>
       </c>
       <c r="C79" t="n">
-        <v>0.03077765698478991</v>
+        <v>0.03072156837201897</v>
       </c>
       <c r="D79" t="n">
-        <v>0.06401804347410282</v>
+        <v>0.06397125988464873</v>
       </c>
       <c r="E79" t="n">
-        <v>0.2498476302431868</v>
+        <v>0.2500120189884509</v>
       </c>
       <c r="F79" t="n">
-        <v>0.05069686870457017</v>
+        <v>0.05049422597455903</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03957814125955898</v>
+        <v>0.03933801996341058</v>
       </c>
       <c r="H79" t="n">
-        <v>0.07435411506902001</v>
+        <v>0.07451307588401598</v>
       </c>
       <c r="I79" t="n">
-        <v>0.05164313788131857</v>
+        <v>0.05178323017681095</v>
       </c>
       <c r="J79" t="n">
-        <v>0.0680535803920413</v>
+        <v>0.06796440725192161</v>
       </c>
       <c r="K79" t="n">
-        <v>0.2160900395411796</v>
+        <v>0.2162358182398101</v>
       </c>
       <c r="L79" t="n">
-        <v>0.04702991409912641</v>
+        <v>0.04703404966504501</v>
       </c>
       <c r="M79" t="n">
-        <v>0.03050858672721135</v>
+        <v>0.0304904936263175</v>
       </c>
       <c r="N79" t="n">
         <v>0</v>
@@ -15103,40 +15103,40 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>0.03820283329322424</v>
+        <v>0.03824187905562337</v>
       </c>
       <c r="C80" t="n">
-        <v>0.03048478759232855</v>
+        <v>0.03042940896199775</v>
       </c>
       <c r="D80" t="n">
-        <v>0.0635330698467441</v>
+        <v>0.06348687845462486</v>
       </c>
       <c r="E80" t="n">
-        <v>0.2474911821653249</v>
+        <v>0.2476534900403958</v>
       </c>
       <c r="F80" t="n">
-        <v>0.05023199052489499</v>
+        <v>0.0500319128927321</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03942218396474755</v>
+        <v>0.03918510217867698</v>
       </c>
       <c r="H80" t="n">
-        <v>0.07452279315520129</v>
+        <v>0.07467974180798213</v>
       </c>
       <c r="I80" t="n">
-        <v>0.05294375700367413</v>
+        <v>0.05308207597897041</v>
       </c>
       <c r="J80" t="n">
-        <v>0.06937947096309563</v>
+        <v>0.0692914265969015</v>
       </c>
       <c r="K80" t="n">
-        <v>0.2183816730930547</v>
+        <v>0.2185256064917025</v>
       </c>
       <c r="L80" t="n">
-        <v>0.04681816592611572</v>
+        <v>0.04682224914309863</v>
       </c>
       <c r="M80" t="n">
-        <v>0.03021274326084177</v>
+        <v>0.03019487918654151</v>
       </c>
       <c r="N80" t="n">
         <v>0</v>
@@ -15288,40 +15288,40 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>0.03806425273683998</v>
+        <v>0.03810306243825729</v>
       </c>
       <c r="C81" t="n">
-        <v>0.03034717041995121</v>
+        <v>0.03029273603354771</v>
       </c>
       <c r="D81" t="n">
-        <v>0.06303199532267495</v>
+        <v>0.0629863813229572</v>
       </c>
       <c r="E81" t="n">
-        <v>0.2447674946069636</v>
+        <v>0.2449275216225479</v>
       </c>
       <c r="F81" t="n">
-        <v>0.04978301848753049</v>
+        <v>0.0495864498699623</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03949970766718413</v>
+        <v>0.03926407733715046</v>
       </c>
       <c r="H81" t="n">
-        <v>0.07450278220197173</v>
+        <v>0.07465928106288179</v>
       </c>
       <c r="I81" t="n">
-        <v>0.0530730227213161</v>
+        <v>0.0532073446099877</v>
       </c>
       <c r="J81" t="n">
-        <v>0.06967803068486522</v>
+        <v>0.06959209491744119</v>
       </c>
       <c r="K81" t="n">
-        <v>0.2214572286849056</v>
+        <v>0.2215986068829257</v>
       </c>
       <c r="L81" t="n">
-        <v>0.04751743916453297</v>
+        <v>0.04752298340759259</v>
       </c>
       <c r="M81" t="n">
-        <v>0.03026652688453862</v>
+        <v>0.03024813007802262</v>
       </c>
       <c r="N81" t="n">
         <v>0</v>
@@ -15473,40 +15473,40 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>0.03799281227155665</v>
+        <v>0.03803238733986098</v>
       </c>
       <c r="C82" t="n">
-        <v>0.03019627491580342</v>
+        <v>0.03014276145866235</v>
       </c>
       <c r="D82" t="n">
-        <v>0.06244721768602336</v>
+        <v>0.06240142012270262</v>
       </c>
       <c r="E82" t="n">
-        <v>0.2421259925812926</v>
+        <v>0.2422855373535131</v>
       </c>
       <c r="F82" t="n">
-        <v>0.04955097231462628</v>
+        <v>0.04935981726772235</v>
       </c>
       <c r="G82" t="n">
-        <v>0.03981376321315704</v>
+        <v>0.03957755730233436</v>
       </c>
       <c r="H82" t="n">
-        <v>0.07425552202875241</v>
+        <v>0.07440909320575725</v>
       </c>
       <c r="I82" t="n">
-        <v>0.0528934477376377</v>
+        <v>0.05302660913098875</v>
       </c>
       <c r="J82" t="n">
-        <v>0.06968447718970222</v>
+        <v>0.06960010015727978</v>
       </c>
       <c r="K82" t="n">
-        <v>0.2249668403240576</v>
+        <v>0.225106970911827</v>
       </c>
       <c r="L82" t="n">
-        <v>0.04813299015028819</v>
+        <v>0.04813597694789606</v>
       </c>
       <c r="M82" t="n">
-        <v>0.03039763485453425</v>
+        <v>0.030379714068887</v>
       </c>
       <c r="N82" t="n">
         <v>0</v>
@@ -15658,40 +15658,40 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>0.03818741852667211</v>
+        <v>0.03822651097219224</v>
       </c>
       <c r="C83" t="n">
-        <v>0.03000972147984821</v>
+        <v>0.02995686062584301</v>
       </c>
       <c r="D83" t="n">
-        <v>0.06173606846046082</v>
+        <v>0.06169082940400985</v>
       </c>
       <c r="E83" t="n">
-        <v>0.2392750244512183</v>
+        <v>0.239432623555485</v>
       </c>
       <c r="F83" t="n">
-        <v>0.04905634770345405</v>
+        <v>0.04886752381565871</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03961564504256159</v>
+        <v>0.03938231969162699</v>
       </c>
       <c r="H83" t="n">
-        <v>0.07435702761696877</v>
+        <v>0.07450872597474185</v>
       </c>
       <c r="I83" t="n">
-        <v>0.05316302139856543</v>
+        <v>0.05329455887248536</v>
       </c>
       <c r="J83" t="n">
-        <v>0.0712598733011382</v>
+        <v>0.07117652525691605</v>
       </c>
       <c r="K83" t="n">
-        <v>0.2278644559192109</v>
+        <v>0.2280028775973734</v>
       </c>
       <c r="L83" t="n">
-        <v>0.04809845985599228</v>
+        <v>0.04810141022923908</v>
       </c>
       <c r="M83" t="n">
-        <v>0.03029271144710399</v>
+        <v>0.03027500920762317</v>
       </c>
       <c r="N83" t="n">
         <v>0</v>
@@ -15843,40 +15843,40 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>0.03817791275583979</v>
+        <v>0.0382165342080404</v>
       </c>
       <c r="C84" t="n">
-        <v>0.02982523428525902</v>
+        <v>0.02977301030901291</v>
       </c>
       <c r="D84" t="n">
-        <v>0.06113727302913394</v>
+        <v>0.06109257902155587</v>
       </c>
       <c r="E84" t="n">
-        <v>0.2365274893651338</v>
+        <v>0.2366831896850117</v>
       </c>
       <c r="F84" t="n">
-        <v>0.04871865438002489</v>
+        <v>0.0485321054788295</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03956075506639368</v>
+        <v>0.03933048376648061</v>
       </c>
       <c r="H84" t="n">
-        <v>0.074775746602466</v>
+        <v>0.07492513146475137</v>
       </c>
       <c r="I84" t="n">
-        <v>0.05322011823022418</v>
+        <v>0.0533495851108715</v>
       </c>
       <c r="J84" t="n">
-        <v>0.07156579382994367</v>
+        <v>0.0714836928812405</v>
       </c>
       <c r="K84" t="n">
-        <v>0.2310167668112016</v>
+        <v>0.2311525491494415</v>
       </c>
       <c r="L84" t="n">
-        <v>0.04839462282508393</v>
+        <v>0.0483987521627406</v>
       </c>
       <c r="M84" t="n">
-        <v>0.03031589675975732</v>
+        <v>0.03029865070248535</v>
       </c>
       <c r="N84" t="n">
         <v>0</v>
@@ -16028,40 +16028,40 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>0.03810167037722934</v>
+        <v>0.03813935202919296</v>
       </c>
       <c r="C85" t="n">
-        <v>0.02964753974814256</v>
+        <v>0.02959593748589938</v>
       </c>
       <c r="D85" t="n">
-        <v>0.06055969493702604</v>
+        <v>0.06051625303253295</v>
       </c>
       <c r="E85" t="n">
-        <v>0.234124023997212</v>
+        <v>0.2342776307313313</v>
       </c>
       <c r="F85" t="n">
-        <v>0.04873941673602971</v>
+        <v>0.04855460863404252</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03959837599280353</v>
+        <v>0.03937084601788943</v>
       </c>
       <c r="H85" t="n">
-        <v>0.07443614328052142</v>
+        <v>0.07458350974106705</v>
       </c>
       <c r="I85" t="n">
-        <v>0.05295688162969064</v>
+        <v>0.05308432721690519</v>
       </c>
       <c r="J85" t="n">
-        <v>0.07221292581466772</v>
+        <v>0.07212796208985801</v>
       </c>
       <c r="K85" t="n">
-        <v>0.2337136060044872</v>
+        <v>0.2338520920757166</v>
       </c>
       <c r="L85" t="n">
-        <v>0.04896598666885556</v>
+        <v>0.04897030685825267</v>
       </c>
       <c r="M85" t="n">
-        <v>0.03049093672266592</v>
+        <v>0.03047437599664369</v>
       </c>
       <c r="N85" t="n">
         <v>0</v>
@@ -16213,40 +16213,40 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>0.03795203369951033</v>
+        <v>0.03798927203792143</v>
       </c>
       <c r="C86" t="n">
-        <v>0.02956558039033843</v>
+        <v>0.02951458521353341</v>
       </c>
       <c r="D86" t="n">
-        <v>0.06002464371567461</v>
+        <v>0.05998171289241085</v>
       </c>
       <c r="E86" t="n">
-        <v>0.231815060654612</v>
+        <v>0.2319668602506828</v>
       </c>
       <c r="F86" t="n">
-        <v>0.04848028443449313</v>
+        <v>0.0482976505454705</v>
       </c>
       <c r="G86" t="n">
-        <v>0.03930874258939276</v>
+        <v>0.03908388943771295</v>
       </c>
       <c r="H86" t="n">
-        <v>0.07410547937245099</v>
+        <v>0.07425111210993136</v>
       </c>
       <c r="I86" t="n">
-        <v>0.05334996803906942</v>
+        <v>0.05347591426643438</v>
       </c>
       <c r="J86" t="n">
-        <v>0.07364367653877946</v>
+        <v>0.07355971238720282</v>
       </c>
       <c r="K86" t="n">
-        <v>0.2356463401473168</v>
+        <v>0.2357829597837804</v>
       </c>
       <c r="L86" t="n">
-        <v>0.04933961246037497</v>
+        <v>0.04934411901088332</v>
       </c>
       <c r="M86" t="n">
-        <v>0.03060588199716087</v>
+        <v>0.03058951610320949</v>
       </c>
       <c r="N86" t="n">
         <v>0</v>
@@ -16398,40 +16398,40 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>0.03788065975789123</v>
+        <v>0.03791723066348531</v>
       </c>
       <c r="C87" t="n">
-        <v>0.02954882286225475</v>
+        <v>0.02949842065262188</v>
       </c>
       <c r="D87" t="n">
-        <v>0.05981429481682431</v>
+        <v>0.05977186318917989</v>
       </c>
       <c r="E87" t="n">
-        <v>0.2294475026994486</v>
+        <v>0.2295975371839371</v>
       </c>
       <c r="F87" t="n">
-        <v>0.04821264387486562</v>
+        <v>0.04803189920683332</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03930036106736408</v>
+        <v>0.0390776536294514</v>
       </c>
       <c r="H87" t="n">
-        <v>0.07402513921559159</v>
+        <v>0.07416978183579383</v>
       </c>
       <c r="I87" t="n">
-        <v>0.05310353364031014</v>
+        <v>0.05322824980554124</v>
       </c>
       <c r="J87" t="n">
-        <v>0.07352814998572328</v>
+        <v>0.07344516216149055</v>
       </c>
       <c r="K87" t="n">
-        <v>0.2383295441811704</v>
+        <v>0.2384648096460921</v>
       </c>
       <c r="L87" t="n">
-        <v>0.04995163732164064</v>
+        <v>0.04995702918592695</v>
       </c>
       <c r="M87" t="n">
-        <v>0.0308913970695452</v>
+        <v>0.03087404933227621</v>
       </c>
       <c r="N87" t="n">
         <v>0</v>
@@ -16583,40 +16583,40 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>0.03800326606318421</v>
+        <v>0.03803988008213591</v>
       </c>
       <c r="C88" t="n">
-        <v>0.0294246941165211</v>
+        <v>0.02937556644552263</v>
       </c>
       <c r="D88" t="n">
-        <v>0.05944425017385865</v>
+        <v>0.05940137932888357</v>
       </c>
       <c r="E88" t="n">
-        <v>0.2270442267223478</v>
+        <v>0.2271925366725319</v>
       </c>
       <c r="F88" t="n">
-        <v>0.04787236631074596</v>
+        <v>0.04769369916763358</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03927641429179565</v>
+        <v>0.03905580324089684</v>
       </c>
       <c r="H88" t="n">
-        <v>0.07394409688162108</v>
+        <v>0.07408545480289028</v>
       </c>
       <c r="I88" t="n">
-        <v>0.05301617250486469</v>
+        <v>0.0531413090253325</v>
       </c>
       <c r="J88" t="n">
-        <v>0.07402497215133085</v>
+        <v>0.07394340167872959</v>
       </c>
       <c r="K88" t="n">
-        <v>0.2405524823725514</v>
+        <v>0.240685961327717</v>
       </c>
       <c r="L88" t="n">
-        <v>0.05053499338514449</v>
+        <v>0.05054055500827639</v>
       </c>
       <c r="M88" t="n">
-        <v>0.03107811832677641</v>
+        <v>0.03106050652019205</v>
       </c>
       <c r="N88" t="n">
         <v>0</v>
@@ -16768,40 +16768,40 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>0.0378018863256056</v>
+        <v>0.03783808427616012</v>
       </c>
       <c r="C89" t="n">
-        <v>0.02933110769394312</v>
+        <v>0.02928253829193326</v>
       </c>
       <c r="D89" t="n">
-        <v>0.05915546973942974</v>
+        <v>0.05911308606314755</v>
       </c>
       <c r="E89" t="n">
-        <v>0.2249136747609561</v>
+        <v>0.2250602993707971</v>
       </c>
       <c r="F89" t="n">
-        <v>0.04793547967324706</v>
+        <v>0.04775884283857913</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03934442304132432</v>
+        <v>0.03912631893418571</v>
       </c>
       <c r="H89" t="n">
-        <v>0.07371277338616707</v>
+        <v>0.07385252496742184</v>
       </c>
       <c r="I89" t="n">
-        <v>0.05281853738286068</v>
+        <v>0.05294225189741409</v>
       </c>
       <c r="J89" t="n">
-        <v>0.07440855298005356</v>
+        <v>0.07432813854559384</v>
       </c>
       <c r="K89" t="n">
-        <v>0.243330413059854</v>
+        <v>0.2434621461077581</v>
       </c>
       <c r="L89" t="n">
-        <v>0.0505506670503344</v>
+        <v>0.05055547817034481</v>
       </c>
       <c r="M89" t="n">
-        <v>0.03105761247482181</v>
+        <v>0.03104088810526181</v>
       </c>
       <c r="N89" t="n">
         <v>0</v>
@@ -16953,40 +16953,40 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>0.03753027813638226</v>
+        <v>0.03756629589517609</v>
       </c>
       <c r="C90" t="n">
-        <v>0.02920745753358996</v>
+        <v>0.02915943385519819</v>
       </c>
       <c r="D90" t="n">
-        <v>0.05885732187802484</v>
+        <v>0.05881541442282447</v>
       </c>
       <c r="E90" t="n">
-        <v>0.22274673240776</v>
+        <v>0.2228917095500748</v>
       </c>
       <c r="F90" t="n">
-        <v>0.04766780481274276</v>
+        <v>0.04749315266161044</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03923738398713872</v>
+        <v>0.03902150396116062</v>
       </c>
       <c r="H90" t="n">
-        <v>0.07393290593769743</v>
+        <v>0.0740710872764662</v>
       </c>
       <c r="I90" t="n">
-        <v>0.05276488399903137</v>
+        <v>0.05288720846285946</v>
       </c>
       <c r="J90" t="n">
-        <v>0.07464329393503982</v>
+        <v>0.07456400956033643</v>
       </c>
       <c r="K90" t="n">
-        <v>0.2458986759282898</v>
+        <v>0.2460291553563731</v>
       </c>
       <c r="L90" t="n">
-        <v>0.05077235439934271</v>
+        <v>0.05077688493504005</v>
       </c>
       <c r="M90" t="n">
-        <v>0.0310874033211998</v>
+        <v>0.03107064033911966</v>
       </c>
       <c r="N90" t="n">
         <v>0</v>
@@ -17138,40 +17138,40 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>0.03735811777988347</v>
+        <v>0.03739395935117795</v>
       </c>
       <c r="C91" t="n">
-        <v>0.02909641158668396</v>
+        <v>0.02904892150471877</v>
       </c>
       <c r="D91" t="n">
-        <v>0.05842915353409094</v>
+        <v>0.05838771171728169</v>
       </c>
       <c r="E91" t="n">
-        <v>0.2204765136903602</v>
+        <v>0.2206196559657175</v>
       </c>
       <c r="F91" t="n">
-        <v>0.04742063892081029</v>
+        <v>0.04724859937859676</v>
       </c>
       <c r="G91" t="n">
-        <v>0.03922882379163502</v>
+        <v>0.03901511842279166</v>
       </c>
       <c r="H91" t="n">
-        <v>0.07398417146607707</v>
+        <v>0.0741208174566373</v>
       </c>
       <c r="I91" t="n">
-        <v>0.05273034369826773</v>
+        <v>0.0528517570210278</v>
       </c>
       <c r="J91" t="n">
-        <v>0.07483652883342405</v>
+        <v>0.0747576773765762</v>
       </c>
       <c r="K91" t="n">
-        <v>0.2483684244717288</v>
+        <v>0.2484972301185684</v>
       </c>
       <c r="L91" t="n">
-        <v>0.05100502006007943</v>
+        <v>0.05100927624667066</v>
       </c>
       <c r="M91" t="n">
-        <v>0.03117768682979062</v>
+        <v>0.03116111010306692</v>
       </c>
       <c r="N91" t="n">
         <v>0</v>
@@ -17323,40 +17323,40 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>0.03720901585863986</v>
+        <v>0.03724446356651352</v>
       </c>
       <c r="C92" t="n">
-        <v>0.02914333302833535</v>
+        <v>0.02909636481540274</v>
       </c>
       <c r="D92" t="n">
-        <v>0.0587310916941368</v>
+        <v>0.05869010528190786</v>
       </c>
       <c r="E92" t="n">
-        <v>0.222485322987329</v>
+        <v>0.2226268922706494</v>
       </c>
       <c r="F92" t="n">
-        <v>0.04755398630522116</v>
+        <v>0.04738383730742756</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03910657597075209</v>
+        <v>0.03889521901255535</v>
       </c>
       <c r="H92" t="n">
-        <v>0.07357969342606749</v>
+        <v>0.07371483781233584</v>
       </c>
       <c r="I92" t="n">
-        <v>0.05300938854697852</v>
+        <v>0.05312946765740056</v>
       </c>
       <c r="J92" t="n">
-        <v>0.07463514892800592</v>
+        <v>0.07455716397068386</v>
       </c>
       <c r="K92" t="n">
-        <v>0.2463952450444658</v>
+        <v>0.2465226352446368</v>
       </c>
       <c r="L92" t="n">
-        <v>0.05091088424085743</v>
+        <v>0.05091509365616743</v>
       </c>
       <c r="M92" t="n">
-        <v>0.0311964199587433</v>
+        <v>0.03118002539385173</v>
       </c>
       <c r="N92" t="n">
         <v>0</v>
@@ -17508,40 +17508,40 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>0.03729237576731886</v>
+        <v>0.03732699989393622</v>
       </c>
       <c r="C93" t="n">
-        <v>0.02931786964323125</v>
+        <v>0.02927119281431037</v>
       </c>
       <c r="D93" t="n">
-        <v>0.05915510118572294</v>
+        <v>0.05911609425826794</v>
       </c>
       <c r="E93" t="n">
-        <v>0.2245953140846564</v>
+        <v>0.2247346871512934</v>
       </c>
       <c r="F93" t="n">
-        <v>0.04843696173727213</v>
+        <v>0.04826866218510672</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03901196767596726</v>
+        <v>0.03880049753555109</v>
       </c>
       <c r="H93" t="n">
-        <v>0.07358832176420005</v>
+        <v>0.07372484601029257</v>
       </c>
       <c r="I93" t="n">
-        <v>0.05287389016525789</v>
+        <v>0.05299244492791608</v>
       </c>
       <c r="J93" t="n">
-        <v>0.07398036329912704</v>
+        <v>0.07390300686434267</v>
       </c>
       <c r="K93" t="n">
-        <v>0.2439499817237205</v>
+        <v>0.2440759872478027</v>
       </c>
       <c r="L93" t="n">
-        <v>0.05053391279804141</v>
+        <v>0.05053807645883717</v>
       </c>
       <c r="M93" t="n">
-        <v>0.03108720634138688</v>
+        <v>0.03107077083824572</v>
       </c>
       <c r="N93" t="n">
         <v>0</v>
@@ -17693,40 +17693,40 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>0.0376449226114718</v>
+        <v>0.03767960800304711</v>
       </c>
       <c r="C94" t="n">
-        <v>0.029483016406407</v>
+        <v>0.02943749182996441</v>
       </c>
       <c r="D94" t="n">
-        <v>0.05998600010882542</v>
+        <v>0.05994697904330319</v>
       </c>
       <c r="E94" t="n">
-        <v>0.2270217410202231</v>
+        <v>0.227159615451735</v>
       </c>
       <c r="F94" t="n">
-        <v>0.04838677159864753</v>
+        <v>0.0482200649353887</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03907179290740106</v>
+        <v>0.03886151272097575</v>
       </c>
       <c r="H94" t="n">
-        <v>0.07346279222171423</v>
+        <v>0.07359806524885792</v>
       </c>
       <c r="I94" t="n">
-        <v>0.05276905404049043</v>
+        <v>0.05288655080445178</v>
       </c>
       <c r="J94" t="n">
-        <v>0.07326660297561639</v>
+        <v>0.07319007833045336</v>
       </c>
       <c r="K94" t="n">
-        <v>0.2415185004291233</v>
+        <v>0.2416431510550971</v>
       </c>
       <c r="L94" t="n">
-        <v>0.05014705522109444</v>
+        <v>0.05015117411134401</v>
       </c>
       <c r="M94" t="n">
-        <v>0.03109241857550132</v>
+        <v>0.03107637658189774</v>
       </c>
       <c r="N94" t="n">
         <v>0</v>
@@ -17878,40 +17878,40 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>0.03764916373082732</v>
+        <v>0.03768348012887524</v>
       </c>
       <c r="C95" t="n">
-        <v>0.02927617708462467</v>
+        <v>0.02923113681218678</v>
       </c>
       <c r="D95" t="n">
-        <v>0.06004704778172369</v>
+        <v>0.06000844183391978</v>
       </c>
       <c r="E95" t="n">
-        <v>0.2283145029248295</v>
+        <v>0.22845091060707</v>
       </c>
       <c r="F95" t="n">
-        <v>0.04915180587899953</v>
+        <v>0.04898687269088175</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03930235620678547</v>
+        <v>0.03909431304362</v>
       </c>
       <c r="H95" t="n">
-        <v>0.07413693186522063</v>
+        <v>0.07427076581760748</v>
       </c>
       <c r="I95" t="n">
-        <v>0.05263942430810635</v>
+        <v>0.05275567110649365</v>
       </c>
       <c r="J95" t="n">
-        <v>0.07307869994041816</v>
+        <v>0.07300298938722495</v>
       </c>
       <c r="K95" t="n">
-        <v>0.239454249163645</v>
+        <v>0.2395775737191297</v>
       </c>
       <c r="L95" t="n">
-        <v>0.04989604276166361</v>
+        <v>0.0499001178339318</v>
       </c>
       <c r="M95" t="n">
-        <v>0.03106813649518906</v>
+        <v>0.0310522651610919</v>
       </c>
       <c r="N95" t="n">
         <v>0</v>
@@ -18063,40 +18063,40 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>0.03817367858670082</v>
+        <v>0.03822270136743847</v>
       </c>
       <c r="C96" t="n">
-        <v>0.0293525491315434</v>
+        <v>0.02929694753607472</v>
       </c>
       <c r="D96" t="n">
-        <v>0.06023902319456632</v>
+        <v>0.06022883664272474</v>
       </c>
       <c r="E96" t="n">
-        <v>0.2307425890182604</v>
+        <v>0.230873953093051</v>
       </c>
       <c r="F96" t="n">
-        <v>0.04900410539261199</v>
+        <v>0.04882159633878349</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03929059155216522</v>
+        <v>0.03908070614026245</v>
       </c>
       <c r="H96" t="n">
-        <v>0.07406005184530448</v>
+        <v>0.0742202778169795</v>
       </c>
       <c r="I96" t="n">
-        <v>0.05248939166124622</v>
+        <v>0.05266447302102355</v>
       </c>
       <c r="J96" t="n">
-        <v>0.07253313016821605</v>
+        <v>0.07243869234385131</v>
       </c>
       <c r="K96" t="n">
-        <v>0.237176033165715</v>
+        <v>0.2372759887056606</v>
       </c>
       <c r="L96" t="n">
-        <v>0.049682996628888</v>
+        <v>0.04967387117619657</v>
       </c>
       <c r="M96" t="n">
-        <v>0.03145776984547213</v>
+        <v>0.03140386600864371</v>
       </c>
       <c r="N96" t="n">
         <v>0</v>
@@ -18248,40 +18248,40 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>0.0382575872126234</v>
+        <v>0.03830651935780865</v>
       </c>
       <c r="C97" t="n">
-        <v>0.02944623092276365</v>
+        <v>0.02939183853820151</v>
       </c>
       <c r="D97" t="n">
-        <v>0.06060466690859728</v>
+        <v>0.06059416644825709</v>
       </c>
       <c r="E97" t="n">
-        <v>0.2331387808041505</v>
+        <v>0.2332691965215755</v>
       </c>
       <c r="F97" t="n">
-        <v>0.04975118109177906</v>
+        <v>0.04956931311868713</v>
       </c>
       <c r="G97" t="n">
-        <v>0.03942859854976042</v>
+        <v>0.03922110945343844</v>
       </c>
       <c r="H97" t="n">
-        <v>0.07400262427504822</v>
+        <v>0.07416055119856454</v>
       </c>
       <c r="I97" t="n">
-        <v>0.05213793572710228</v>
+        <v>0.05231119332271527</v>
       </c>
       <c r="J97" t="n">
-        <v>0.07198107565035651</v>
+        <v>0.07188678151650169</v>
       </c>
       <c r="K97" t="n">
-        <v>0.2350591049911628</v>
+        <v>0.2351594893920149</v>
       </c>
       <c r="L97" t="n">
-        <v>0.04928475064346821</v>
+        <v>0.04927572024757566</v>
       </c>
       <c r="M97" t="n">
-        <v>0.03129914215439205</v>
+        <v>0.03124579981586393</v>
       </c>
       <c r="N97" t="n">
         <v>0</v>
@@ -18433,40 +18433,40 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>0.03799266601084905</v>
+        <v>0.03804150938925616</v>
       </c>
       <c r="C98" t="n">
-        <v>0.02922538350885426</v>
+        <v>0.02917155187052473</v>
       </c>
       <c r="D98" t="n">
-        <v>0.06126954956220745</v>
+        <v>0.06125915735403572</v>
       </c>
       <c r="E98" t="n">
-        <v>0.2348520575636881</v>
+        <v>0.234981128789181</v>
       </c>
       <c r="F98" t="n">
-        <v>0.04993559948595982</v>
+        <v>0.04975560644042552</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03934635504729805</v>
+        <v>0.03914100501382475</v>
       </c>
       <c r="H98" t="n">
-        <v>0.07424006458133846</v>
+        <v>0.07439657123640465</v>
       </c>
       <c r="I98" t="n">
-        <v>0.05286807278785741</v>
+        <v>0.05303933637852745</v>
       </c>
       <c r="J98" t="n">
-        <v>0.07193860615962806</v>
+        <v>0.07184528413024596</v>
       </c>
       <c r="K98" t="n">
-        <v>0.2328661065820713</v>
+        <v>0.232965456092193</v>
       </c>
       <c r="L98" t="n">
-        <v>0.04900404194544631</v>
+        <v>0.04899510464641862</v>
       </c>
       <c r="M98" t="n">
-        <v>0.03109972217470674</v>
+        <v>0.0310465140688675</v>
       </c>
       <c r="N98" t="n">
         <v>0</v>
@@ -18618,40 +18618,40 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>0.03789032396894566</v>
+        <v>0.03793866894553229</v>
       </c>
       <c r="C99" t="n">
-        <v>0.02929829015132595</v>
+        <v>0.02924541926203759</v>
       </c>
       <c r="D99" t="n">
-        <v>0.06176780504343025</v>
+        <v>0.06175793032480829</v>
       </c>
       <c r="E99" t="n">
-        <v>0.2374781367558011</v>
+        <v>0.2376048623114494</v>
       </c>
       <c r="F99" t="n">
-        <v>0.05045754920181415</v>
+        <v>0.05027856992679131</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03949352568188018</v>
+        <v>0.03928553942090535</v>
       </c>
       <c r="H99" t="n">
-        <v>0.07430334888738666</v>
+        <v>0.07446340161838409</v>
       </c>
       <c r="I99" t="n">
-        <v>0.05249564998072373</v>
+        <v>0.05266578315364774</v>
       </c>
       <c r="J99" t="n">
-        <v>0.07132900134913343</v>
+        <v>0.07123663158535727</v>
       </c>
       <c r="K99" t="n">
-        <v>0.2306974966353953</v>
+        <v>0.2307958323750056</v>
       </c>
       <c r="L99" t="n">
-        <v>0.04858958159582859</v>
+        <v>0.04858094121703439</v>
       </c>
       <c r="M99" t="n">
-        <v>0.03119732197630973</v>
+        <v>0.03114445108702137</v>
       </c>
       <c r="N99" t="n">
         <v>0</v>
@@ -18803,40 +18803,40 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>0.03787904243540219</v>
+        <v>0.03792689907889198</v>
       </c>
       <c r="C100" t="n">
-        <v>0.02921250976733729</v>
+        <v>0.02916017292743569</v>
       </c>
       <c r="D100" t="n">
-        <v>0.06181856467132973</v>
+        <v>0.06180878969734033</v>
       </c>
       <c r="E100" t="n">
-        <v>0.2398065858479963</v>
+        <v>0.239932031347527</v>
       </c>
       <c r="F100" t="n">
-        <v>0.05037675397143956</v>
+        <v>0.0501995825678816</v>
       </c>
       <c r="G100" t="n">
-        <v>0.03986376944583432</v>
+        <v>0.03965788405618248</v>
       </c>
       <c r="H100" t="n">
-        <v>0.07407006905000897</v>
+        <v>0.07422850508675391</v>
       </c>
       <c r="I100" t="n">
-        <v>0.05244232816257574</v>
+        <v>0.05261074281860153</v>
       </c>
       <c r="J100" t="n">
-        <v>0.07109420040610943</v>
+        <v>0.07100276367025021</v>
       </c>
       <c r="K100" t="n">
-        <v>0.2287616798211343</v>
+        <v>0.2288590222704454</v>
       </c>
       <c r="L100" t="n">
-        <v>0.04869932770579935</v>
+        <v>0.04869077460355862</v>
       </c>
       <c r="M100" t="n">
-        <v>0.03132675518312904</v>
+        <v>0.03127441834322744</v>
       </c>
       <c r="N100" t="n">
         <v>0</v>
@@ -18988,40 +18988,40 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>0.03789963912017903</v>
+        <v>0.03794701719723393</v>
       </c>
       <c r="C101" t="n">
-        <v>0.02914437208927239</v>
+        <v>0.0290925586177698</v>
       </c>
       <c r="D101" t="n">
-        <v>0.06160682244309591</v>
+        <v>0.06159714521884639</v>
       </c>
       <c r="E101" t="n">
-        <v>0.2410671155823471</v>
+        <v>0.2411913066268825</v>
       </c>
       <c r="F101" t="n">
-        <v>0.05129634483175743</v>
+        <v>0.05112094514223504</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04018084312816274</v>
+        <v>0.03997701659240741</v>
       </c>
       <c r="H101" t="n">
-        <v>0.07468438136327897</v>
+        <v>0.07484123303965645</v>
       </c>
       <c r="I101" t="n">
-        <v>0.05246023265659967</v>
+        <v>0.0526269631660652</v>
       </c>
       <c r="J101" t="n">
-        <v>0.07097719804036209</v>
+        <v>0.07088667567186145</v>
       </c>
       <c r="K101" t="n">
-        <v>0.2268141771335255</v>
+        <v>0.2269105461583436</v>
       </c>
       <c r="L101" t="n">
-        <v>0.04834398500030241</v>
+        <v>0.04833551742908409</v>
       </c>
       <c r="M101" t="n">
-        <v>0.03117396826676882</v>
+        <v>0.03112215479526622</v>
       </c>
       <c r="N101" t="n">
         <v>0</v>
@@ -19173,40 +19173,40 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>0.03821505514999798</v>
+        <v>0.03826196413718104</v>
       </c>
       <c r="C102" t="n">
-        <v>0.02932131079279981</v>
+        <v>0.02927060916409981</v>
       </c>
       <c r="D102" t="n">
-        <v>0.06212546417440881</v>
+        <v>0.06211588276426078</v>
       </c>
       <c r="E102" t="n">
-        <v>0.2434101356548025</v>
+        <v>0.2435328974723242</v>
       </c>
       <c r="F102" t="n">
-        <v>0.05132861222655803</v>
+        <v>0.05115514878033639</v>
       </c>
       <c r="G102" t="n">
-        <v>0.04029062812331514</v>
+        <v>0.04008881967207224</v>
       </c>
       <c r="H102" t="n">
-        <v>0.07453418876695435</v>
+        <v>0.07468908823101418</v>
       </c>
       <c r="I102" t="n">
-        <v>0.05231190444299969</v>
+        <v>0.05247718376805322</v>
       </c>
       <c r="J102" t="n">
-        <v>0.0704854441412771</v>
+        <v>0.07039581803385073</v>
       </c>
       <c r="K102" t="n">
-        <v>0.2247587231253921</v>
+        <v>0.2248539383887382</v>
       </c>
       <c r="L102" t="n">
-        <v>0.04803280674834685</v>
+        <v>0.04802462262717875</v>
       </c>
       <c r="M102" t="n">
-        <v>0.03107430962446661</v>
+        <v>0.03102260993220953</v>
       </c>
       <c r="N102" t="n">
         <v>0</v>
@@ -19358,40 +19358,40 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>0.03851598501137114</v>
+        <v>0.03856243410652299</v>
       </c>
       <c r="C103" t="n">
-        <v>0.02948114186502407</v>
+        <v>0.0294315302782874</v>
       </c>
       <c r="D103" t="n">
-        <v>0.06269520973446535</v>
+        <v>0.06268532694826283</v>
       </c>
       <c r="E103" t="n">
-        <v>0.2453658627217747</v>
+        <v>0.2454868280248935</v>
       </c>
       <c r="F103" t="n">
-        <v>0.05162293138460602</v>
+        <v>0.05145136621613021</v>
       </c>
       <c r="G103" t="n">
-        <v>0.04040577138901769</v>
+        <v>0.04020594145200267</v>
       </c>
       <c r="H103" t="n">
-        <v>0.07418019323614206</v>
+        <v>0.07433377173372928</v>
       </c>
       <c r="I103" t="n">
-        <v>0.05206271537061832</v>
+        <v>0.05222617665440806</v>
       </c>
       <c r="J103" t="n">
-        <v>0.07016956093943394</v>
+        <v>0.07008061586361122</v>
       </c>
       <c r="K103" t="n">
-        <v>0.2231226758157548</v>
+        <v>0.223217352907575</v>
       </c>
       <c r="L103" t="n">
-        <v>0.04768898950882948</v>
+        <v>0.04768108327986746</v>
       </c>
       <c r="M103" t="n">
-        <v>0.03091197165142543</v>
+        <v>0.03086058116317231</v>
       </c>
       <c r="N103" t="n">
         <v>0</v>
@@ -19543,40 +19543,40 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>0.03840883258108443</v>
+        <v>0.03845483071414744</v>
       </c>
       <c r="C104" t="n">
-        <v>0.02989917796442798</v>
+        <v>0.02985004804358196</v>
       </c>
       <c r="D104" t="n">
-        <v>0.06309612846436896</v>
+        <v>0.06308634162754705</v>
       </c>
       <c r="E104" t="n">
-        <v>0.2449447562421913</v>
+        <v>0.2450645471248916</v>
       </c>
       <c r="F104" t="n">
-        <v>0.0523053579212602</v>
+        <v>0.05213545843403173</v>
       </c>
       <c r="G104" t="n">
-        <v>0.04069210161163757</v>
+        <v>0.04049421177109842</v>
       </c>
       <c r="H104" t="n">
-        <v>0.07464420444075763</v>
+        <v>0.07479629188497022</v>
       </c>
       <c r="I104" t="n">
-        <v>0.05262617043228263</v>
+        <v>0.05278804471331713</v>
       </c>
       <c r="J104" t="n">
-        <v>0.07021526930536751</v>
+        <v>0.07012718777397026</v>
       </c>
       <c r="K104" t="n">
-        <v>0.2212833165945801</v>
+        <v>0.221377074491334</v>
       </c>
       <c r="L104" t="n">
-        <v>0.04758927699351505</v>
+        <v>0.04758144752405751</v>
       </c>
       <c r="M104" t="n">
-        <v>0.03084634803205306</v>
+        <v>0.0307954564805791</v>
       </c>
       <c r="N104" t="n">
         <v>0</v>
@@ -19728,40 +19728,40 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>0.03822930058792239</v>
+        <v>0.0382748564312444</v>
       </c>
       <c r="C105" t="n">
-        <v>0.02984508687014685</v>
+        <v>0.02979623549773345</v>
       </c>
       <c r="D105" t="n">
-        <v>0.06286299283668288</v>
+        <v>0.0628534939587136</v>
       </c>
       <c r="E105" t="n">
-        <v>0.2429493124363188</v>
+        <v>0.2430679514836084</v>
       </c>
       <c r="F105" t="n">
-        <v>0.05228938467431643</v>
+        <v>0.05212111883600361</v>
       </c>
       <c r="G105" t="n">
-        <v>0.04072033287170079</v>
+        <v>0.0405243458180899</v>
       </c>
       <c r="H105" t="n">
-        <v>0.07467630150136552</v>
+        <v>0.07482712042095925</v>
       </c>
       <c r="I105" t="n">
-        <v>0.0528602866257349</v>
+        <v>0.05302041056864548</v>
       </c>
       <c r="J105" t="n">
-        <v>0.07089303410446129</v>
+        <v>0.07080579951086594</v>
       </c>
       <c r="K105" t="n">
-        <v>0.2233469238368333</v>
+        <v>0.2234397802153492</v>
       </c>
       <c r="L105" t="n">
-        <v>0.04748954348004771</v>
+        <v>0.04748178929395034</v>
       </c>
       <c r="M105" t="n">
-        <v>0.03069068086406446</v>
+        <v>0.0306402786544316</v>
       </c>
       <c r="N105" t="n">
         <v>0</v>
@@ -19913,40 +19913,40 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>0.03814458425857389</v>
+        <v>0.03818913021146847</v>
       </c>
       <c r="C106" t="n">
-        <v>0.0296637644594339</v>
+        <v>0.0296148023129334</v>
       </c>
       <c r="D106" t="n">
-        <v>0.06257381523605995</v>
+        <v>0.06256479084043044</v>
       </c>
       <c r="E106" t="n">
-        <v>0.2410644562657627</v>
+        <v>0.2411815814005286</v>
       </c>
       <c r="F106" t="n">
-        <v>0.05195958990842159</v>
+        <v>0.05179292660190223</v>
       </c>
       <c r="G106" t="n">
-        <v>0.04079161230428342</v>
+        <v>0.04059729978562261</v>
       </c>
       <c r="H106" t="n">
-        <v>0.07461082293847762</v>
+        <v>0.07476097352107916</v>
       </c>
       <c r="I106" t="n">
-        <v>0.05277216953191228</v>
+        <v>0.05293096049330803</v>
       </c>
       <c r="J106" t="n">
-        <v>0.07106615554025889</v>
+        <v>0.0709820558533286</v>
       </c>
       <c r="K106" t="n">
-        <v>0.2256855420541637</v>
+        <v>0.2257769380609646</v>
       </c>
       <c r="L106" t="n">
-        <v>0.04791147643912709</v>
+        <v>0.04790629221185057</v>
       </c>
       <c r="M106" t="n">
-        <v>0.03084500024481073</v>
+        <v>0.030791237887869</v>
       </c>
       <c r="N106" t="n">
         <v>0</v>
@@ -20098,40 +20098,40 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>0.03795058148934155</v>
+        <v>0.0379947071973975</v>
       </c>
       <c r="C107" t="n">
-        <v>0.02948415145312423</v>
+        <v>0.02943565121366619</v>
       </c>
       <c r="D107" t="n">
-        <v>0.06232489987078015</v>
+        <v>0.06231596061095847</v>
       </c>
       <c r="E107" t="n">
-        <v>0.2390359978287108</v>
+        <v>0.2391520180093752</v>
       </c>
       <c r="F107" t="n">
-        <v>0.05154947804232492</v>
+        <v>0.05138438703115009</v>
       </c>
       <c r="G107" t="n">
-        <v>0.04067077923337668</v>
+        <v>0.04047829985168436</v>
       </c>
       <c r="H107" t="n">
-        <v>0.07454429745596274</v>
+        <v>0.07469303152363407</v>
       </c>
       <c r="I107" t="n">
-        <v>0.05283787263875158</v>
+        <v>0.05299516557220963</v>
       </c>
       <c r="J107" t="n">
-        <v>0.07175924252896605</v>
+        <v>0.07167593623530871</v>
       </c>
       <c r="K107" t="n">
-        <v>0.2283693686942556</v>
+        <v>0.2284600926715948</v>
       </c>
       <c r="L107" t="n">
-        <v>0.048081235428531</v>
+        <v>0.04807590991204148</v>
       </c>
       <c r="M107" t="n">
-        <v>0.03079156575129914</v>
+        <v>0.03073831058640403</v>
       </c>
       <c r="N107" t="n">
         <v>0</v>
@@ -20283,40 +20283,40 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>0.03785780622828112</v>
+        <v>0.03790265006339373</v>
       </c>
       <c r="C108" t="n">
-        <v>0.02940625066535627</v>
+        <v>0.02935839211863945</v>
       </c>
       <c r="D108" t="n">
-        <v>0.06206254885952518</v>
+        <v>0.06205576575841571</v>
       </c>
       <c r="E108" t="n">
-        <v>0.2370701374538914</v>
+        <v>0.2371835659779998</v>
       </c>
       <c r="F108" t="n">
-        <v>0.05131095676206408</v>
+        <v>0.05114608972120889</v>
       </c>
       <c r="G108" t="n">
-        <v>0.04061268737610242</v>
+        <v>0.04042200686713619</v>
       </c>
       <c r="H108" t="n">
-        <v>0.07452235191972124</v>
+        <v>0.07466856543252538</v>
       </c>
       <c r="I108" t="n">
-        <v>0.05282622618212966</v>
+        <v>0.05298204908817221</v>
       </c>
       <c r="J108" t="n">
-        <v>0.07198170371527406</v>
+        <v>0.07189879914615831</v>
       </c>
       <c r="K108" t="n">
-        <v>0.2307019360289503</v>
+        <v>0.2307923773770766</v>
       </c>
       <c r="L108" t="n">
-        <v>0.04837142452848497</v>
+        <v>0.04836369932999919</v>
       </c>
       <c r="M108" t="n">
-        <v>0.03095355139621658</v>
+        <v>0.03090362023527186</v>
       </c>
       <c r="N108" t="n">
         <v>0</v>
@@ -20468,40 +20468,40 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>0.03773426760362508</v>
+        <v>0.03777906956774318</v>
       </c>
       <c r="C109" t="n">
-        <v>0.02931709859493574</v>
+        <v>0.02926949650806025</v>
       </c>
       <c r="D109" t="n">
-        <v>0.06170425178106475</v>
+        <v>0.06169753148644704</v>
       </c>
       <c r="E109" t="n">
-        <v>0.2352616472039468</v>
+        <v>0.2353742121387935</v>
       </c>
       <c r="F109" t="n">
-        <v>0.05105893175690156</v>
+        <v>0.05089596461242194</v>
       </c>
       <c r="G109" t="n">
-        <v>0.04062922118505675</v>
+        <v>0.04044161296031218</v>
       </c>
       <c r="H109" t="n">
-        <v>0.07456241548296144</v>
+        <v>0.07470727516694332</v>
       </c>
       <c r="I109" t="n">
-        <v>0.0528517570210278</v>
+        <v>0.05300520374813232</v>
       </c>
       <c r="J109" t="n">
-        <v>0.07237141276273552</v>
+        <v>0.07228834245426653</v>
       </c>
       <c r="K109" t="n">
-        <v>0.2328201268343604</v>
+        <v>0.2329102907871481</v>
       </c>
       <c r="L109" t="n">
-        <v>0.04860957104359455</v>
+        <v>0.04860098400047191</v>
       </c>
       <c r="M109" t="n">
-        <v>0.03096674424873453</v>
+        <v>0.03091746208820461</v>
       </c>
       <c r="N109" t="n">
         <v>0</v>
@@ -20653,40 +20653,40 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>0.03761022130916641</v>
+        <v>0.03765461224609078</v>
       </c>
       <c r="C110" t="n">
-        <v>0.02942009344662147</v>
+        <v>0.02937292807613933</v>
       </c>
       <c r="D110" t="n">
-        <v>0.06136991541122007</v>
+        <v>0.06136325677068141</v>
       </c>
       <c r="E110" t="n">
-        <v>0.2334110606308063</v>
+        <v>0.2335225928598288</v>
       </c>
       <c r="F110" t="n">
-        <v>0.05067058983902552</v>
+        <v>0.05050911780596314</v>
       </c>
       <c r="G110" t="n">
-        <v>0.04043995857585736</v>
+        <v>0.04025407152748659</v>
       </c>
       <c r="H110" t="n">
-        <v>0.07425530966470231</v>
+        <v>0.07439884036075775</v>
       </c>
       <c r="I110" t="n">
-        <v>0.05317664319064298</v>
+        <v>0.05332868214960892</v>
       </c>
       <c r="J110" t="n">
-        <v>0.07329184137120645</v>
+        <v>0.07320953317565919</v>
       </c>
       <c r="K110" t="n">
-        <v>0.2345461738804097</v>
+        <v>0.23463551064097</v>
       </c>
       <c r="L110" t="n">
-        <v>0.04890401551167306</v>
+        <v>0.04889550724876256</v>
       </c>
       <c r="M110" t="n">
-        <v>0.0309917175759811</v>
+        <v>0.0309428875453643</v>
       </c>
       <c r="N110" t="n">
         <v>0</v>
@@ -20838,40 +20838,40 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>0.03775840296474961</v>
+        <v>0.03780184050541503</v>
       </c>
       <c r="C111" t="n">
-        <v>0.02937660714318443</v>
+        <v>0.02933042039108449</v>
       </c>
       <c r="D111" t="n">
-        <v>0.06097036166792825</v>
+        <v>0.0609637635604854</v>
       </c>
       <c r="E111" t="n">
-        <v>0.2314482295994766</v>
+        <v>0.2315587478991443</v>
       </c>
       <c r="F111" t="n">
-        <v>0.05039414527932905</v>
+        <v>0.05023359133155306</v>
       </c>
       <c r="G111" t="n">
-        <v>0.04043613490197229</v>
+        <v>0.04025248757814633</v>
       </c>
       <c r="H111" t="n">
-        <v>0.07418142229537161</v>
+        <v>0.07432401472844206</v>
       </c>
       <c r="I111" t="n">
-        <v>0.05314225702927543</v>
+        <v>0.05329383021969865</v>
       </c>
       <c r="J111" t="n">
-        <v>0.07355166959610418</v>
+        <v>0.07347065949916699</v>
       </c>
       <c r="K111" t="n">
-        <v>0.23650329630451</v>
+        <v>0.2365899881050785</v>
       </c>
       <c r="L111" t="n">
-        <v>0.04936025849918715</v>
+        <v>0.04935439351479351</v>
       </c>
       <c r="M111" t="n">
-        <v>0.03114013463804799</v>
+        <v>0.03108918258612821</v>
       </c>
       <c r="N111" t="n">
         <v>0</v>
@@ -21023,40 +21023,40 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>0.03763165193378294</v>
+        <v>0.03767451651566891</v>
       </c>
       <c r="C112" t="n">
-        <v>0.0294448800527307</v>
+        <v>0.02939910939749653</v>
       </c>
       <c r="D112" t="n">
-        <v>0.06072948616445723</v>
+        <v>0.06072294749942378</v>
       </c>
       <c r="E112" t="n">
-        <v>0.229692586479748</v>
+        <v>0.2298019274894741</v>
       </c>
       <c r="F112" t="n">
-        <v>0.05011614303765672</v>
+        <v>0.04995739878101121</v>
       </c>
       <c r="G112" t="n">
-        <v>0.0404084050179895</v>
+        <v>0.04022604891538985</v>
       </c>
       <c r="H112" t="n">
-        <v>0.07409578889992591</v>
+        <v>0.07423655182772942</v>
       </c>
       <c r="I112" t="n">
-        <v>0.0530957763674846</v>
+        <v>0.05324598403366976</v>
       </c>
       <c r="J112" t="n">
-        <v>0.07365370249183076</v>
+        <v>0.07357342221558669</v>
       </c>
       <c r="K112" t="n">
-        <v>0.2385368574558309</v>
+        <v>0.2386231315083556</v>
       </c>
       <c r="L112" t="n">
-        <v>0.04967296685205598</v>
+        <v>0.04966824448286516</v>
       </c>
       <c r="M112" t="n">
-        <v>0.03130095277431016</v>
+        <v>0.03124991486113238</v>
       </c>
       <c r="N112" t="n">
         <v>0</v>
@@ -21208,40 +21208,40 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>0.03748412330396565</v>
+        <v>0.03752660516637049</v>
       </c>
       <c r="C113" t="n">
-        <v>0.02938160808969865</v>
+        <v>0.02933624610102907</v>
       </c>
       <c r="D113" t="n">
-        <v>0.06056653523690479</v>
+        <v>0.06056005495280913</v>
       </c>
       <c r="E113" t="n">
-        <v>0.2280464175549456</v>
+        <v>0.2281547823056563</v>
       </c>
       <c r="F113" t="n">
-        <v>0.05008305564115931</v>
+        <v>0.04992572874394813</v>
       </c>
       <c r="G113" t="n">
-        <v>0.04043805280423494</v>
+        <v>0.04025732488112279</v>
       </c>
       <c r="H113" t="n">
-        <v>0.07391502043449585</v>
+        <v>0.07405452655044398</v>
       </c>
       <c r="I113" t="n">
-        <v>0.0529633619137863</v>
+        <v>0.05311222844009481</v>
       </c>
       <c r="J113" t="n">
-        <v>0.07384859752251539</v>
+        <v>0.07376903403445208</v>
       </c>
       <c r="K113" t="n">
-        <v>0.2406671308470163</v>
+        <v>0.2407526345955007</v>
       </c>
       <c r="L113" t="n">
-        <v>0.04982150417474302</v>
+        <v>0.04981682396956283</v>
       </c>
       <c r="M113" t="n">
-        <v>0.03127727119556922</v>
+        <v>0.0312266889780448</v>
       </c>
       <c r="N113" t="n">
         <v>0</v>
@@ -21393,40 +21393,40 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>0.03732154272510563</v>
+        <v>0.03736418388652955</v>
       </c>
       <c r="C114" t="n">
-        <v>0.02921115813929672</v>
+        <v>0.02916637599905654</v>
       </c>
       <c r="D114" t="n">
-        <v>0.06017167438638209</v>
+        <v>0.0601652514499333</v>
       </c>
       <c r="E114" t="n">
-        <v>0.226463283194583</v>
+        <v>0.2265706889651989</v>
       </c>
       <c r="F114" t="n">
-        <v>0.04992066781411237</v>
+        <v>0.04976473319032784</v>
       </c>
       <c r="G114" t="n">
-        <v>0.04041186723148067</v>
+        <v>0.04023273867051996</v>
       </c>
       <c r="H114" t="n">
-        <v>0.07369088512167807</v>
+        <v>0.07383058398943927</v>
       </c>
       <c r="I114" t="n">
-        <v>0.05288681554914412</v>
+        <v>0.05303489991726901</v>
       </c>
       <c r="J114" t="n">
-        <v>0.07410106097989388</v>
+        <v>0.0740188117103691</v>
       </c>
       <c r="K114" t="n">
-        <v>0.2429823620812669</v>
+        <v>0.2430685364786215</v>
       </c>
       <c r="L114" t="n">
-        <v>0.05002843041453096</v>
+        <v>0.05002325638239166</v>
       </c>
       <c r="M114" t="n">
-        <v>0.03137354674372287</v>
+        <v>0.03132323374154068</v>
       </c>
       <c r="N114" t="n">
         <v>0</v>
@@ -21578,40 +21578,40 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>0.03712909721330604</v>
+        <v>0.03717136432945431</v>
       </c>
       <c r="C115" t="n">
-        <v>0.02909498499782652</v>
+        <v>0.02905059568337792</v>
       </c>
       <c r="D115" t="n">
-        <v>0.05990505992203751</v>
+        <v>0.05989869332713652</v>
       </c>
       <c r="E115" t="n">
-        <v>0.2247098512798801</v>
+        <v>0.224816138044755</v>
       </c>
       <c r="F115" t="n">
-        <v>0.04970736653937014</v>
+        <v>0.04955297661302103</v>
       </c>
       <c r="G115" t="n">
-        <v>0.04041832772896132</v>
+        <v>0.04024130102074201</v>
       </c>
       <c r="H115" t="n">
-        <v>0.07379838479487362</v>
+        <v>0.07393544343510336</v>
       </c>
       <c r="I115" t="n">
-        <v>0.05284680522499369</v>
+        <v>0.05299447485672509</v>
       </c>
       <c r="J115" t="n">
-        <v>0.0742857830045164</v>
+        <v>0.07420390152009528</v>
       </c>
       <c r="K115" t="n">
-        <v>0.2449535008667412</v>
+        <v>0.2450387424984711</v>
       </c>
       <c r="L115" t="n">
-        <v>0.05025029560453825</v>
+        <v>0.05024569750822087</v>
       </c>
       <c r="M115" t="n">
-        <v>0.03140287564943689</v>
+        <v>0.0313530039893791</v>
       </c>
       <c r="N115" t="n">
         <v>0</v>
@@ -21763,40 +21763,40 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>0.03707744321424095</v>
+        <v>0.03711916747821529</v>
       </c>
       <c r="C116" t="n">
-        <v>0.0291997969886652</v>
+        <v>0.02915579366825529</v>
       </c>
       <c r="D116" t="n">
-        <v>0.05958733300433108</v>
+        <v>0.05958102177112488</v>
       </c>
       <c r="E116" t="n">
-        <v>0.2229323917908387</v>
+        <v>0.2230377543229756</v>
       </c>
       <c r="F116" t="n">
-        <v>0.0493475324393004</v>
+        <v>0.04919448503404998</v>
       </c>
       <c r="G116" t="n">
-        <v>0.0402239435916001</v>
+        <v>0.04004845624606096</v>
       </c>
       <c r="H116" t="n">
-        <v>0.07351254313771724</v>
+        <v>0.07364840996368412</v>
       </c>
       <c r="I116" t="n">
-        <v>0.05313269455472058</v>
+        <v>0.05327908010269779</v>
       </c>
       <c r="J116" t="n">
-        <v>0.07500199417438112</v>
+        <v>0.07492082470286801</v>
       </c>
       <c r="K116" t="n">
-        <v>0.2465297421247643</v>
+        <v>0.246614242524914</v>
       </c>
       <c r="L116" t="n">
-        <v>0.05036521879380062</v>
+        <v>0.05036066068092947</v>
       </c>
       <c r="M116" t="n">
-        <v>0.03143730447229763</v>
+        <v>0.03138804179088255</v>
       </c>
       <c r="N116" t="n">
         <v>0</v>
@@ -21948,40 +21948,40 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>0.03726443919025548</v>
+        <v>0.03730562996157614</v>
       </c>
       <c r="C117" t="n">
-        <v>0.02969055128894092</v>
+        <v>0.02964675350677718</v>
       </c>
       <c r="D117" t="n">
-        <v>0.0601644224358658</v>
+        <v>0.06015816560984241</v>
       </c>
       <c r="E117" t="n">
-        <v>0.2241780790014662</v>
+        <v>0.2242818380330207</v>
       </c>
       <c r="F117" t="n">
-        <v>0.04954571967055725</v>
+        <v>0.04938964662141822</v>
       </c>
       <c r="G117" t="n">
-        <v>0.04021331605522414</v>
+        <v>0.04004403415114684</v>
       </c>
       <c r="H117" t="n">
-        <v>0.07341985596786495</v>
+        <v>0.07355872274543965</v>
       </c>
       <c r="I117" t="n">
-        <v>0.05299966143619184</v>
+        <v>0.05314113522460963</v>
       </c>
       <c r="J117" t="n">
-        <v>0.07476646396867694</v>
+        <v>0.07468599423398722</v>
       </c>
       <c r="K117" t="n">
-        <v>0.2447232362528842</v>
+        <v>0.2448070082013085</v>
       </c>
       <c r="L117" t="n">
-        <v>0.0500532177813434</v>
+        <v>0.05004904656399447</v>
       </c>
       <c r="M117" t="n">
-        <v>0.03135104339525969</v>
+        <v>0.0313020315914098</v>
       </c>
       <c r="N117" t="n">
         <v>0</v>
@@ -22133,40 +22133,40 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>0.03729505039962491</v>
+        <v>0.03733588911307102</v>
       </c>
       <c r="C118" t="n">
-        <v>0.02984551765826337</v>
+        <v>0.02980209421611813</v>
       </c>
       <c r="D118" t="n">
-        <v>0.06010579811511244</v>
+        <v>0.06009959476623455</v>
       </c>
       <c r="E118" t="n">
-        <v>0.2258996019000858</v>
+        <v>0.2260024741023108</v>
       </c>
       <c r="F118" t="n">
-        <v>0.04973896824867571</v>
+        <v>0.04958422915722164</v>
       </c>
       <c r="G118" t="n">
-        <v>0.04022354801572962</v>
+        <v>0.04005571296553333</v>
       </c>
       <c r="H118" t="n">
-        <v>0.07317418641787102</v>
+        <v>0.07331186629991089</v>
       </c>
       <c r="I118" t="n">
-        <v>0.05298642138625204</v>
+        <v>0.05312668599699103</v>
       </c>
       <c r="J118" t="n">
-        <v>0.07444432210061935</v>
+        <v>0.0743645401414398</v>
       </c>
       <c r="K118" t="n">
-        <v>0.2428233715304541</v>
+        <v>0.2429062551640725</v>
       </c>
       <c r="L118" t="n">
-        <v>0.04995281146971637</v>
+        <v>0.04994884821904438</v>
       </c>
       <c r="M118" t="n">
-        <v>0.03174270852341859</v>
+        <v>0.03169411562387511</v>
       </c>
       <c r="N118" t="n">
         <v>0</v>
@@ -22318,40 +22318,40 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>0.03713361437833231</v>
+        <v>0.03717393614603861</v>
       </c>
       <c r="C119" t="n">
-        <v>0.02967630846699031</v>
+        <v>0.02963342387506539</v>
       </c>
       <c r="D119" t="n">
-        <v>0.06037467123236648</v>
+        <v>0.0603685204542418</v>
       </c>
       <c r="E119" t="n">
-        <v>0.2274113527645527</v>
+        <v>0.2275135240234017</v>
       </c>
       <c r="F119" t="n">
-        <v>0.0498768306680531</v>
+        <v>0.04972340292483168</v>
       </c>
       <c r="G119" t="n">
-        <v>0.04015005848364867</v>
+        <v>0.03998347490943834</v>
       </c>
       <c r="H119" t="n">
-        <v>0.07338561722545917</v>
+        <v>0.07352213032883768</v>
       </c>
       <c r="I119" t="n">
-        <v>0.05362248369104095</v>
+        <v>0.05376155961863809</v>
       </c>
       <c r="J119" t="n">
-        <v>0.07431746011134958</v>
+        <v>0.07423835427046817</v>
       </c>
       <c r="K119" t="n">
-        <v>0.2409702305755864</v>
+        <v>0.2410524118055302</v>
       </c>
       <c r="L119" t="n">
-        <v>0.0497471517625909</v>
+        <v>0.0497430512438411</v>
       </c>
       <c r="M119" t="n">
-        <v>0.03158902960882076</v>
+        <v>0.03154101936845861</v>
       </c>
       <c r="N119" t="n">
         <v>0</v>
@@ -22503,40 +22503,40 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>0.03708670823423017</v>
+        <v>0.03712652174436033</v>
       </c>
       <c r="C120" t="n">
-        <v>0.02962802830452558</v>
+        <v>0.02958550408732272</v>
       </c>
       <c r="D120" t="n">
-        <v>0.06075355284752154</v>
+        <v>0.06074762317580003</v>
       </c>
       <c r="E120" t="n">
-        <v>0.2296383967590786</v>
+        <v>0.2297390317591523</v>
       </c>
       <c r="F120" t="n">
-        <v>0.05022770786506574</v>
+        <v>0.05007624710737907</v>
       </c>
       <c r="G120" t="n">
-        <v>0.03998140454948133</v>
+        <v>0.03981605141804711</v>
       </c>
       <c r="H120" t="n">
-        <v>0.07323042924554754</v>
+        <v>0.07336562576079805</v>
       </c>
       <c r="I120" t="n">
-        <v>0.0533416326148209</v>
+        <v>0.05347953983714411</v>
       </c>
       <c r="J120" t="n">
-        <v>0.0739955263168149</v>
+        <v>0.07391725465009091</v>
       </c>
       <c r="K120" t="n">
-        <v>0.2391829657812198</v>
+        <v>0.2392644564125927</v>
       </c>
       <c r="L120" t="n">
-        <v>0.04960610884945902</v>
+        <v>0.04960204278884998</v>
       </c>
       <c r="M120" t="n">
-        <v>0.03165648429085954</v>
+        <v>0.03160904691708744</v>
       </c>
       <c r="N120" t="n">
         <v>0</v>
@@ -22688,40 +22688,40 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>0.03703335954248235</v>
+        <v>0.03707384931755408</v>
       </c>
       <c r="C121" t="n">
-        <v>0.02961516232871649</v>
+        <v>0.02958038480406981</v>
       </c>
       <c r="D121" t="n">
-        <v>0.06098868974415839</v>
+        <v>0.06098398553792599</v>
       </c>
       <c r="E121" t="n">
-        <v>0.2318547005100704</v>
+        <v>0.2319632332681465</v>
       </c>
       <c r="F121" t="n">
-        <v>0.05070663897905284</v>
+        <v>0.05054417585666956</v>
       </c>
       <c r="G121" t="n">
-        <v>0.03989502899807128</v>
+        <v>0.03974651048701975</v>
       </c>
       <c r="H121" t="n">
-        <v>0.07313847839089266</v>
+        <v>0.07325490749514459</v>
       </c>
       <c r="I121" t="n">
-        <v>0.05324069407202812</v>
+        <v>0.0533737559054589</v>
       </c>
       <c r="J121" t="n">
-        <v>0.07351095072007957</v>
+        <v>0.07343316330987951</v>
       </c>
       <c r="K121" t="n">
-        <v>0.2374715227515574</v>
+        <v>0.2375523342943355</v>
       </c>
       <c r="L121" t="n">
-        <v>0.04938374898355544</v>
+        <v>0.04938022082888114</v>
       </c>
       <c r="M121" t="n">
-        <v>0.03158152053386021</v>
+        <v>0.03153397444943987</v>
       </c>
       <c r="N121" t="n">
         <v>0</v>
@@ -22873,40 +22873,40 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>0.03710918918090328</v>
+        <v>0.03714934432973475</v>
       </c>
       <c r="C122" t="n">
-        <v>0.02957068480857408</v>
+        <v>0.02953619470148646</v>
       </c>
       <c r="D122" t="n">
-        <v>0.06115829109683706</v>
+        <v>0.06115362576834212</v>
       </c>
       <c r="E122" t="n">
-        <v>0.233063816195388</v>
+        <v>0.2331714519885213</v>
       </c>
       <c r="F122" t="n">
-        <v>0.05106268685265443</v>
+        <v>0.05090156640070406</v>
       </c>
       <c r="G122" t="n">
-        <v>0.03996487007643307</v>
+        <v>0.03981757899109272</v>
       </c>
       <c r="H122" t="n">
-        <v>0.07320583545952902</v>
+        <v>0.07332130233977888</v>
       </c>
       <c r="I122" t="n">
-        <v>0.05356713516006492</v>
+        <v>0.05369909730892189</v>
       </c>
       <c r="J122" t="n">
-        <v>0.07331563729803502</v>
+        <v>0.07323832614011881</v>
       </c>
       <c r="K122" t="n">
-        <v>0.2358910052633236</v>
+        <v>0.2359713155609866</v>
       </c>
       <c r="L122" t="n">
-        <v>0.04920838539478926</v>
+        <v>0.04920488639841805</v>
       </c>
       <c r="M122" t="n">
-        <v>0.03144514715029239</v>
+        <v>0.0313979940087185</v>
       </c>
       <c r="N122" t="n">
         <v>0</v>
@@ -23058,40 +23058,40 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>0.03699770066772187</v>
+        <v>0.03703851819486717</v>
       </c>
       <c r="C123" t="n">
-        <v>0.02956279636086131</v>
+        <v>0.02952858895956949</v>
       </c>
       <c r="D123" t="n">
-        <v>0.06181723596926424</v>
+        <v>0.0618144266657765</v>
       </c>
       <c r="E123" t="n">
-        <v>0.2348012549984946</v>
+        <v>0.2349060254932724</v>
       </c>
       <c r="F123" t="n">
-        <v>0.05150213457489124</v>
+        <v>0.05134117801035873</v>
       </c>
       <c r="G123" t="n">
-        <v>0.04006265077283939</v>
+        <v>0.03991689749776991</v>
       </c>
       <c r="H123" t="n">
-        <v>0.07314104256887999</v>
+        <v>0.07325539774614538</v>
       </c>
       <c r="I123" t="n">
-        <v>0.05344418955064695</v>
+        <v>0.0535747395362534</v>
       </c>
       <c r="J123" t="n">
-        <v>0.07291993385908072</v>
+        <v>0.07284325639918021</v>
       </c>
       <c r="K123" t="n">
-        <v>0.2341452000075356</v>
+        <v>0.2342250172772165</v>
       </c>
       <c r="L123" t="n">
-        <v>0.04895872339961416</v>
+        <v>0.04895558358983376</v>
       </c>
       <c r="M123" t="n">
-        <v>0.03136488192166935</v>
+        <v>0.03131811528125589</v>
       </c>
       <c r="N123" t="n">
         <v>0</v>
@@ -23243,40 +23243,40 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>0.03722453143565326</v>
+        <v>0.03726550884185885</v>
       </c>
       <c r="C124" t="n">
-        <v>0.02970026010818363</v>
+        <v>0.02966715036396952</v>
       </c>
       <c r="D124" t="n">
-        <v>0.06233138821781557</v>
+        <v>0.06232909348306805</v>
       </c>
       <c r="E124" t="n">
-        <v>0.2365368322137486</v>
+        <v>0.2366400952773867</v>
       </c>
       <c r="F124" t="n">
-        <v>0.05164415286014919</v>
+        <v>0.05148417706632259</v>
       </c>
       <c r="G124" t="n">
-        <v>0.04008950776792299</v>
+        <v>0.03994428384033039</v>
       </c>
       <c r="H124" t="n">
-        <v>0.07323449255137296</v>
+        <v>0.07334791801175003</v>
       </c>
       <c r="I124" t="n">
-        <v>0.05328210174099886</v>
+        <v>0.05341142643498369</v>
       </c>
       <c r="J124" t="n">
-        <v>0.07248821202955684</v>
+        <v>0.07241248578288892</v>
       </c>
       <c r="K124" t="n">
-        <v>0.2324238479980816</v>
+        <v>0.2325030163468708</v>
       </c>
       <c r="L124" t="n">
-        <v>0.0486385420697819</v>
+        <v>0.04863526387728545</v>
       </c>
       <c r="M124" t="n">
-        <v>0.03129428120958091</v>
+        <v>0.03124773087613137</v>
       </c>
       <c r="N124" t="n">
         <v>0</v>
@@ -23428,40 +23428,40 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>0.03727340955014564</v>
+        <v>0.03731405649339796</v>
       </c>
       <c r="C125" t="n">
-        <v>0.02971714279954033</v>
+        <v>0.02968430006939246</v>
       </c>
       <c r="D125" t="n">
-        <v>0.06268766693699594</v>
+        <v>0.0626853907081738</v>
       </c>
       <c r="E125" t="n">
-        <v>0.237619591436437</v>
+        <v>0.2377220217334328</v>
       </c>
       <c r="F125" t="n">
-        <v>0.05179444873314859</v>
+        <v>0.05163576306669156</v>
       </c>
       <c r="G125" t="n">
-        <v>0.04012845084418824</v>
+        <v>0.03998439807730203</v>
       </c>
       <c r="H125" t="n">
-        <v>0.07320238080527773</v>
+        <v>0.07331489154420014</v>
       </c>
       <c r="I125" t="n">
-        <v>0.0536824179533321</v>
+        <v>0.05381069970623641</v>
       </c>
       <c r="J125" t="n">
-        <v>0.07239789650442792</v>
+        <v>0.07232278095329764</v>
       </c>
       <c r="K125" t="n">
-        <v>0.2309386972557135</v>
+        <v>0.231017227150077</v>
       </c>
       <c r="L125" t="n">
-        <v>0.04841668774888123</v>
+        <v>0.04841343599342105</v>
       </c>
       <c r="M125" t="n">
-        <v>0.03124124058372913</v>
+        <v>0.0311950656561945</v>
       </c>
       <c r="N125" t="n">
         <v>0</v>
@@ -23613,40 +23613,40 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>0.0374050523174936</v>
+        <v>0.0374460192334832</v>
       </c>
       <c r="C126" t="n">
-        <v>0.0300127820003629</v>
+        <v>0.02997891171548961</v>
       </c>
       <c r="D126" t="n">
-        <v>0.06310969536904498</v>
+        <v>0.06310550190520352</v>
       </c>
       <c r="E126" t="n">
-        <v>0.2396566198262132</v>
+        <v>0.2397595209773996</v>
       </c>
       <c r="F126" t="n">
-        <v>0.0518175036793613</v>
+        <v>0.05165637789560695</v>
       </c>
       <c r="G126" t="n">
-        <v>0.0401095139210903</v>
+        <v>0.03996209753835608</v>
       </c>
       <c r="H126" t="n">
-        <v>0.07334658575431947</v>
+        <v>0.0734672284832967</v>
       </c>
       <c r="I126" t="n">
-        <v>0.05348876030725187</v>
+        <v>0.05361682224148707</v>
       </c>
       <c r="J126" t="n">
-        <v>0.07200967722424952</v>
+        <v>0.07193484002338663</v>
       </c>
       <c r="K126" t="n">
-        <v>0.2292363460414105</v>
+        <v>0.2293139251224774</v>
       </c>
       <c r="L126" t="n">
-        <v>0.04808548214753735</v>
+        <v>0.04808241769319167</v>
       </c>
       <c r="M126" t="n">
-        <v>0.0310617931090099</v>
+        <v>0.03101614886796637</v>
       </c>
       <c r="N126" t="n">
         <v>0</v>
@@ -23798,40 +23798,40 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>0.037294915009074</v>
+        <v>0.03733555679080971</v>
       </c>
       <c r="C127" t="n">
-        <v>0.03004755728491137</v>
+        <v>0.03001379580480808</v>
       </c>
       <c r="D127" t="n">
-        <v>0.06345750197688667</v>
+        <v>0.06345350180151897</v>
       </c>
       <c r="E127" t="n">
-        <v>0.2418314018886588</v>
+        <v>0.2419334863640422</v>
       </c>
       <c r="F127" t="n">
-        <v>0.05180611117991413</v>
+        <v>0.0516461041652066</v>
       </c>
       <c r="G127" t="n">
-        <v>0.04023712399551596</v>
+        <v>0.04009679784361746</v>
       </c>
       <c r="H127" t="n">
-        <v>0.07357906570624057</v>
+        <v>0.07369267068668291</v>
       </c>
       <c r="I127" t="n">
-        <v>0.05333321812828275</v>
+        <v>0.05346074371900464</v>
       </c>
       <c r="J127" t="n">
-        <v>0.07165530136841199</v>
+        <v>0.0715810581135877</v>
       </c>
       <c r="K127" t="n">
-        <v>0.2276461400067779</v>
+        <v>0.2277226233598081</v>
       </c>
       <c r="L127" t="n">
-        <v>0.04777345438824038</v>
+        <v>0.04777073426899035</v>
       </c>
       <c r="M127" t="n">
-        <v>0.03091079512925847</v>
+        <v>0.03086551314409624</v>
       </c>
       <c r="N127" t="n">
         <v>0</v>
@@ -23983,40 +23983,40 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>0.03711825088616609</v>
+        <v>0.03715857265387239</v>
       </c>
       <c r="C128" t="n">
-        <v>0.02999383902439102</v>
+        <v>0.02996034338271374</v>
       </c>
       <c r="D128" t="n">
-        <v>0.06358790391418004</v>
+        <v>0.06358377648913924</v>
       </c>
       <c r="E128" t="n">
-        <v>0.2431385130506798</v>
+        <v>0.2432397937112964</v>
       </c>
       <c r="F128" t="n">
-        <v>0.05204397231640777</v>
+        <v>0.0518853839465708</v>
       </c>
       <c r="G128" t="n">
-        <v>0.04017937154238858</v>
+        <v>0.04004015032081999</v>
       </c>
       <c r="H128" t="n">
-        <v>0.07376835652443507</v>
+        <v>0.07388106697747236</v>
       </c>
       <c r="I128" t="n">
-        <v>0.05390020235494998</v>
+        <v>0.05402672380716226</v>
       </c>
       <c r="J128" t="n">
-        <v>0.07156320032282813</v>
+        <v>0.07148954166056151</v>
       </c>
       <c r="K128" t="n">
-        <v>0.2261190758949329</v>
+        <v>0.2261949570168369</v>
       </c>
       <c r="L128" t="n">
-        <v>0.04763715234976689</v>
+        <v>0.04763445364877867</v>
       </c>
       <c r="M128" t="n">
-        <v>0.03076233381756496</v>
+        <v>0.030717408383467</v>
       </c>
       <c r="N128" t="n">
         <v>0</v>
@@ -24168,40 +24168,40 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>0.03709791637265378</v>
+        <v>0.03713855315417028</v>
       </c>
       <c r="C129" t="n">
-        <v>0.02998679462107619</v>
+        <v>0.02995781335053729</v>
       </c>
       <c r="D129" t="n">
-        <v>0.0640112787544606</v>
+        <v>0.06400797110945344</v>
       </c>
       <c r="E129" t="n">
-        <v>0.2450358548718776</v>
+        <v>0.2451513074333179</v>
       </c>
       <c r="F129" t="n">
-        <v>0.05226315371665894</v>
+        <v>0.05210958448418378</v>
       </c>
       <c r="G129" t="n">
-        <v>0.04019702223745489</v>
+        <v>0.04005321843309611</v>
       </c>
       <c r="H129" t="n">
-        <v>0.07388648918368582</v>
+        <v>0.07396839277433923</v>
       </c>
       <c r="I129" t="n">
-        <v>0.05372576283744279</v>
+        <v>0.05385287090986069</v>
       </c>
       <c r="J129" t="n">
-        <v>0.07111090250196568</v>
+        <v>0.07103340910465515</v>
       </c>
       <c r="K129" t="n">
-        <v>0.2245942937138364</v>
+        <v>0.2246735196871031</v>
       </c>
       <c r="L129" t="n">
-        <v>0.04742217898832685</v>
+        <v>0.04741776879498397</v>
       </c>
       <c r="M129" t="n">
-        <v>0.03071636660551199</v>
+        <v>0.03068360516925062</v>
       </c>
       <c r="N129" t="n">
         <v>0</v>
@@ -24353,40 +24353,40 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>0.03703179277612088</v>
+        <v>0.03707211454382718</v>
       </c>
       <c r="C130" t="n">
-        <v>0.02986920900100632</v>
+        <v>0.02984045239147935</v>
       </c>
       <c r="D130" t="n">
-        <v>0.06362993744343426</v>
+        <v>0.06362665543908608</v>
       </c>
       <c r="E130" t="n">
-        <v>0.2435040928938511</v>
+        <v>0.2436186504741949</v>
       </c>
       <c r="F130" t="n">
-        <v>0.05207384384754683</v>
+        <v>0.05192146507423816</v>
       </c>
       <c r="G130" t="n">
-        <v>0.04010781227997873</v>
+        <v>0.03996512323379327</v>
       </c>
       <c r="H130" t="n">
-        <v>0.07400763519240125</v>
+        <v>0.07408890387149922</v>
       </c>
       <c r="I130" t="n">
-        <v>0.05417667091920659</v>
+        <v>0.05430279365772977</v>
       </c>
       <c r="J130" t="n">
-        <v>0.0715536336554855</v>
+        <v>0.07147674098218512</v>
       </c>
       <c r="K130" t="n">
-        <v>0.2263503064532489</v>
+        <v>0.226428918271684</v>
       </c>
       <c r="L130" t="n">
-        <v>0.04736432389381997</v>
+        <v>0.04735994788802238</v>
       </c>
       <c r="M130" t="n">
-        <v>0.03060562826237093</v>
+        <v>0.03057312079073175</v>
       </c>
       <c r="N130" t="n">
         <v>0</v>
@@ -24538,40 +24538,40 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>0.0368754972371835</v>
+        <v>0.0369155088374459</v>
       </c>
       <c r="C131" t="n">
-        <v>0.02971621229720865</v>
+        <v>0.02968767689237035</v>
       </c>
       <c r="D131" t="n">
-        <v>0.06326935095911528</v>
+        <v>0.06326609420095439</v>
       </c>
       <c r="E131" t="n">
-        <v>0.2417103873526123</v>
+        <v>0.2418240637207997</v>
       </c>
       <c r="F131" t="n">
-        <v>0.05173887623233402</v>
+        <v>0.05158766960343542</v>
       </c>
       <c r="G131" t="n">
-        <v>0.03997112341097341</v>
+        <v>0.03982953197283554</v>
       </c>
       <c r="H131" t="n">
-        <v>0.07407217286251983</v>
+        <v>0.07415281639793242</v>
       </c>
       <c r="I131" t="n">
-        <v>0.05431559227248831</v>
+        <v>0.05444074483609977</v>
       </c>
       <c r="J131" t="n">
-        <v>0.07226715342277529</v>
+        <v>0.07219085223157722</v>
       </c>
       <c r="K131" t="n">
-        <v>0.2283938134001641</v>
+        <v>0.2284718205123036</v>
       </c>
       <c r="L131" t="n">
-        <v>0.04759767560517546</v>
+        <v>0.04759333326096093</v>
       </c>
       <c r="M131" t="n">
-        <v>0.03053102217231973</v>
+        <v>0.03049876475815469</v>
       </c>
       <c r="N131" t="n">
         <v>0</v>
@@ -24723,40 +24723,40 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>0.03681392781572521</v>
+        <v>0.03685501908281522</v>
       </c>
       <c r="C132" t="n">
-        <v>0.02968928692185011</v>
+        <v>0.02966127714428313</v>
       </c>
       <c r="D132" t="n">
-        <v>0.06317220580538037</v>
+        <v>0.06317035900685947</v>
       </c>
       <c r="E132" t="n">
-        <v>0.2403057313391398</v>
+        <v>0.2404190016484216</v>
       </c>
       <c r="F132" t="n">
-        <v>0.05153660562433256</v>
+        <v>0.05138501424574209</v>
       </c>
       <c r="G132" t="n">
-        <v>0.03991747273009609</v>
+        <v>0.03977803944176821</v>
       </c>
       <c r="H132" t="n">
-        <v>0.07399075154080709</v>
+        <v>0.07406970217757552</v>
       </c>
       <c r="I132" t="n">
-        <v>0.05419676499381092</v>
+        <v>0.05432019269495767</v>
       </c>
       <c r="J132" t="n">
-        <v>0.07255763588858942</v>
+        <v>0.07248160934947907</v>
       </c>
       <c r="K132" t="n">
-        <v>0.2299556568285145</v>
+        <v>0.2300329145666387</v>
       </c>
       <c r="L132" t="n">
-        <v>0.04783362069005319</v>
+        <v>0.04782823419436723</v>
       </c>
       <c r="M132" t="n">
-        <v>0.03064500515641537</v>
+        <v>0.0306133017818066</v>
       </c>
       <c r="N132" t="n">
         <v>0</v>
@@ -24908,40 +24908,40 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>0.0367309921048757</v>
+        <v>0.03677284121226784</v>
       </c>
       <c r="C133" t="n">
-        <v>0.02959571929451569</v>
+        <v>0.02956822718017049</v>
       </c>
       <c r="D133" t="n">
-        <v>0.06302506120050121</v>
+        <v>0.0630232283928782</v>
       </c>
       <c r="E133" t="n">
-        <v>0.2387325096695876</v>
+        <v>0.2388452273384029</v>
       </c>
       <c r="F133" t="n">
-        <v>0.05132457006915183</v>
+        <v>0.05117397437612756</v>
       </c>
       <c r="G133" t="n">
-        <v>0.03992160470860497</v>
+        <v>0.03978322773306745</v>
       </c>
       <c r="H133" t="n">
-        <v>0.07399074920899078</v>
+        <v>0.0740691017348746</v>
       </c>
       <c r="I133" t="n">
-        <v>0.05425416032057027</v>
+        <v>0.05437650022940642</v>
       </c>
       <c r="J133" t="n">
-        <v>0.07261705989554218</v>
+        <v>0.07254206751696722</v>
       </c>
       <c r="K133" t="n">
-        <v>0.231712856473446</v>
+        <v>0.2317892234577382</v>
       </c>
       <c r="L133" t="n">
-        <v>0.04812738990477342</v>
+        <v>0.04812234968381014</v>
       </c>
       <c r="M133" t="n">
-        <v>0.03080430318792449</v>
+        <v>0.03077100718277307</v>
       </c>
       <c r="N133" t="n">
         <v>0</v>
@@ -25093,40 +25093,40 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>0.03660670799597328</v>
+        <v>0.03664824244842262</v>
       </c>
       <c r="C134" t="n">
-        <v>0.02963119376837691</v>
+        <v>0.02960390836165836</v>
       </c>
       <c r="D134" t="n">
-        <v>0.06272793736119497</v>
+        <v>0.0627261183340804</v>
       </c>
       <c r="E134" t="n">
-        <v>0.2372134141729194</v>
+        <v>0.2373252843404655</v>
       </c>
       <c r="F134" t="n">
-        <v>0.0511915158150007</v>
+        <v>0.05104205242042022</v>
       </c>
       <c r="G134" t="n">
-        <v>0.03980501242016556</v>
+        <v>0.03966767587301553</v>
       </c>
       <c r="H134" t="n">
-        <v>0.07368499877139877</v>
+        <v>0.07376276218054663</v>
       </c>
       <c r="I134" t="n">
-        <v>0.05452412507448537</v>
+        <v>0.0546455451343829</v>
       </c>
       <c r="J134" t="n">
-        <v>0.07355311930559247</v>
+        <v>0.07347869077948799</v>
       </c>
       <c r="K134" t="n">
-        <v>0.2330388985305747</v>
+        <v>0.2331146913270151</v>
       </c>
       <c r="L134" t="n">
-        <v>0.04819512340052567</v>
+        <v>0.0481901210759606</v>
       </c>
       <c r="M134" t="n">
-        <v>0.03080946858183947</v>
+        <v>0.03077642292259145</v>
       </c>
       <c r="N134" t="n">
         <v>0</v>
@@ -25278,40 +25278,40 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>0.03661652825367327</v>
+        <v>0.03665760229316513</v>
       </c>
       <c r="C135" t="n">
-        <v>0.02967652012311981</v>
+        <v>0.02964973924755369</v>
       </c>
       <c r="D135" t="n">
-        <v>0.0624632327164805</v>
+        <v>0.06246127680983803</v>
       </c>
       <c r="E135" t="n">
-        <v>0.235727974911435</v>
+        <v>0.2358390102269845</v>
       </c>
       <c r="F135" t="n">
-        <v>0.05093662350933584</v>
+        <v>0.05078827551322238</v>
       </c>
       <c r="G135" t="n">
-        <v>0.03975274932769471</v>
+        <v>0.03961628722579318</v>
       </c>
       <c r="H135" t="n">
-        <v>0.07363311464291013</v>
+        <v>0.07370984636503777</v>
       </c>
       <c r="I135" t="n">
-        <v>0.05444582093464052</v>
+        <v>0.05456603396597384</v>
       </c>
       <c r="J135" t="n">
-        <v>0.07399781600455214</v>
+        <v>0.07392409336956675</v>
       </c>
       <c r="K135" t="n">
-        <v>0.234377045238917</v>
+        <v>0.2344530246892591</v>
       </c>
       <c r="L135" t="n">
-        <v>0.04841214985133605</v>
+        <v>0.04840733531190843</v>
       </c>
       <c r="M135" t="n">
-        <v>0.03107394019198578</v>
+        <v>0.03104099068777802</v>
       </c>
       <c r="N135" t="n">
         <v>0</v>
@@ -25463,40 +25463,40 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>0.03658453719944416</v>
+        <v>0.03662485896715045</v>
       </c>
       <c r="C136" t="n">
-        <v>0.02972789527092868</v>
+        <v>0.0297013127722186</v>
       </c>
       <c r="D136" t="n">
-        <v>0.06224590752725266</v>
+        <v>0.06224426478856833</v>
       </c>
       <c r="E136" t="n">
-        <v>0.2342291486058749</v>
+        <v>0.2343395107774858</v>
       </c>
       <c r="F136" t="n">
-        <v>0.0507147780025343</v>
+        <v>0.05056752888046612</v>
       </c>
       <c r="G136" t="n">
-        <v>0.03974217963048833</v>
+        <v>0.03960687769885165</v>
       </c>
       <c r="H136" t="n">
-        <v>0.0735954397574123</v>
+        <v>0.07367234979581505</v>
       </c>
       <c r="I136" t="n">
-        <v>0.05436449533947568</v>
+        <v>0.05448441526343181</v>
       </c>
       <c r="J136" t="n">
-        <v>0.07399343053866148</v>
+        <v>0.07391905927822542</v>
       </c>
       <c r="K136" t="n">
-        <v>0.2359225135096589</v>
+        <v>0.2359980794891381</v>
       </c>
       <c r="L136" t="n">
-        <v>0.04877485295622027</v>
+        <v>0.04877052209968885</v>
       </c>
       <c r="M136" t="n">
-        <v>0.03133389634468241</v>
+        <v>0.03130029487159384</v>
       </c>
       <c r="N136" t="n">
         <v>0</v>
@@ -25648,40 +25648,40 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>0.03648467713530443</v>
+        <v>0.03652470241942465</v>
       </c>
       <c r="C137" t="n">
-        <v>0.02968052707665998</v>
+        <v>0.02965414003749924</v>
       </c>
       <c r="D137" t="n">
-        <v>0.0620884066616304</v>
+        <v>0.06208677600190698</v>
       </c>
       <c r="E137" t="n">
-        <v>0.2327849770581001</v>
+        <v>0.2328945277431551</v>
       </c>
       <c r="F137" t="n">
-        <v>0.05080646500248454</v>
+        <v>0.05066029859454921</v>
       </c>
       <c r="G137" t="n">
-        <v>0.03977772032584732</v>
+        <v>0.03964341326135502</v>
       </c>
       <c r="H137" t="n">
-        <v>0.07343335108281736</v>
+        <v>0.07350969560623184</v>
       </c>
       <c r="I137" t="n">
-        <v>0.05429192604039055</v>
+        <v>0.05441096420019995</v>
       </c>
       <c r="J137" t="n">
-        <v>0.07436920152226532</v>
+        <v>0.0742955253511255</v>
       </c>
       <c r="K137" t="n">
-        <v>0.2373460805462888</v>
+        <v>0.2374209426517729</v>
       </c>
       <c r="L137" t="n">
-        <v>0.04895018127006453</v>
+        <v>0.04894588225806643</v>
       </c>
       <c r="M137" t="n">
-        <v>0.03131177976724853</v>
+        <v>0.03127842536381501</v>
       </c>
       <c r="N137" t="n">
         <v>0</v>
@@ -25833,40 +25833,40 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>0.03632123027893981</v>
+        <v>0.03636096340770149</v>
       </c>
       <c r="C138" t="n">
-        <v>0.02960118092745069</v>
+        <v>0.02957528081388752</v>
       </c>
       <c r="D138" t="n">
-        <v>0.0619617540675319</v>
+        <v>0.06195984099096189</v>
       </c>
       <c r="E138" t="n">
-        <v>0.2313365768320247</v>
+        <v>0.2314454750367789</v>
       </c>
       <c r="F138" t="n">
-        <v>0.05057865415651939</v>
+        <v>0.05043355465667119</v>
       </c>
       <c r="G138" t="n">
-        <v>0.03972944976827492</v>
+        <v>0.03959612304731907</v>
       </c>
       <c r="H138" t="n">
-        <v>0.07361989552541691</v>
+        <v>0.07369568278953641</v>
       </c>
       <c r="I138" t="n">
-        <v>0.05418995408174753</v>
+        <v>0.05430782903040717</v>
       </c>
       <c r="J138" t="n">
-        <v>0.07437335337452727</v>
+        <v>0.07430021498565854</v>
       </c>
       <c r="K138" t="n">
-        <v>0.2391803379287885</v>
+        <v>0.239256125192908</v>
       </c>
       <c r="L138" t="n">
-        <v>0.04916268317524208</v>
+        <v>0.04915664962605975</v>
       </c>
       <c r="M138" t="n">
-        <v>0.0313341339804045</v>
+        <v>0.03130146451897824</v>
       </c>
       <c r="N138" t="n">
         <v>0</v>
@@ -26018,40 +26018,40 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>0.03619010135665217</v>
+        <v>0.03622983875091345</v>
       </c>
       <c r="C139" t="n">
-        <v>0.02953364953780443</v>
+        <v>0.02950779101286235</v>
       </c>
       <c r="D139" t="n">
-        <v>0.0615941298518701</v>
+        <v>0.06159223063817379</v>
       </c>
       <c r="E139" t="n">
-        <v>0.2298608110109982</v>
+        <v>0.2299689200983267</v>
       </c>
       <c r="F139" t="n">
-        <v>0.05051207184053384</v>
+        <v>0.0503677315996142</v>
       </c>
       <c r="G139" t="n">
-        <v>0.03979130271158044</v>
+        <v>0.03965835775283866</v>
       </c>
       <c r="H139" t="n">
-        <v>0.07372981318457524</v>
+        <v>0.07380607391915019</v>
       </c>
       <c r="I139" t="n">
-        <v>0.05418690424953447</v>
+        <v>0.05430465549870576</v>
       </c>
       <c r="J139" t="n">
-        <v>0.07473873393740016</v>
+        <v>0.07466524897668905</v>
       </c>
       <c r="K139" t="n">
-        <v>0.2406480526193225</v>
+        <v>0.2407231446070074</v>
       </c>
       <c r="L139" t="n">
-        <v>0.04928240401885305</v>
+        <v>0.04927641419104161</v>
       </c>
       <c r="M139" t="n">
-        <v>0.03135967046012689</v>
+        <v>0.03132723773392834</v>
       </c>
       <c r="N139" t="n">
         <v>0</v>
@@ -26203,40 +26203,40 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>0.03619806922551312</v>
+        <v>0.03623737569691027</v>
       </c>
       <c r="C140" t="n">
-        <v>0.02951698438430764</v>
+        <v>0.0294913118919191</v>
       </c>
       <c r="D140" t="n">
-        <v>0.0613723412109207</v>
+        <v>0.06137045566063228</v>
       </c>
       <c r="E140" t="n">
-        <v>0.2284930145438295</v>
+        <v>0.2286003458679398</v>
       </c>
       <c r="F140" t="n">
-        <v>0.05023526591117985</v>
+        <v>0.05009196408925963</v>
       </c>
       <c r="G140" t="n">
-        <v>0.03968140581988151</v>
+        <v>0.03954941729969183</v>
       </c>
       <c r="H140" t="n">
-        <v>0.07372632165834438</v>
+        <v>0.0738020337545411</v>
       </c>
       <c r="I140" t="n">
-        <v>0.05415517991848331</v>
+        <v>0.0542720840363656</v>
       </c>
       <c r="J140" t="n">
-        <v>0.07513439259680742</v>
+        <v>0.0750614363048784</v>
       </c>
       <c r="K140" t="n">
-        <v>0.2421039318219826</v>
+        <v>0.2421784835795403</v>
       </c>
       <c r="L140" t="n">
-        <v>0.0494740837639761</v>
+        <v>0.04946813702845107</v>
       </c>
       <c r="M140" t="n">
-        <v>0.03130927245461952</v>
+        <v>0.03127721809971631</v>
       </c>
       <c r="N140" t="n">
         <v>0</v>
@@ -26388,40 +26388,40 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>0.03605198051882594</v>
+        <v>0.03609086222339988</v>
       </c>
       <c r="C141" t="n">
-        <v>0.02948226850265116</v>
+        <v>0.02945677938520825</v>
       </c>
       <c r="D141" t="n">
-        <v>0.06114464858139381</v>
+        <v>0.06114277649932173</v>
       </c>
       <c r="E141" t="n">
-        <v>0.2271127886246533</v>
+        <v>0.2272193532964485</v>
       </c>
       <c r="F141" t="n">
-        <v>0.05009792429300101</v>
+        <v>0.04995564605552307</v>
       </c>
       <c r="G141" t="n">
-        <v>0.03959165569818581</v>
+        <v>0.03946032194051387</v>
       </c>
       <c r="H141" t="n">
-        <v>0.07364497259559859</v>
+        <v>0.07372028789742142</v>
       </c>
       <c r="I141" t="n">
-        <v>0.05403131273275021</v>
+        <v>0.05414781384015875</v>
       </c>
       <c r="J141" t="n">
-        <v>0.075363399931453</v>
+        <v>0.07529082074958166</v>
       </c>
       <c r="K141" t="n">
-        <v>0.2436177842036595</v>
+        <v>0.2436918034486632</v>
       </c>
       <c r="L141" t="n">
-        <v>0.04963321592018594</v>
+        <v>0.04962716765503</v>
       </c>
       <c r="M141" t="n">
-        <v>0.03147531587784808</v>
+        <v>0.03144363448893599</v>
       </c>
       <c r="N141" t="n">
         <v>0</v>
@@ -26573,40 +26573,40 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>0.03607354061295664</v>
+        <v>0.03611214656076054</v>
       </c>
       <c r="C142" t="n">
-        <v>0.02976661560672607</v>
+        <v>0.02974130726316574</v>
       </c>
       <c r="D142" t="n">
-        <v>0.0616488371531059</v>
+        <v>0.06164726431819537</v>
       </c>
       <c r="E142" t="n">
-        <v>0.2277979696417125</v>
+        <v>0.2279036355507017</v>
       </c>
       <c r="F142" t="n">
-        <v>0.0502477858416547</v>
+        <v>0.05010637368469893</v>
       </c>
       <c r="G142" t="n">
-        <v>0.03960941647681834</v>
+        <v>0.03947930013422001</v>
       </c>
       <c r="H142" t="n">
-        <v>0.07362526007182708</v>
+        <v>0.07369975525258943</v>
       </c>
       <c r="I142" t="n">
-        <v>0.05398827322887708</v>
+        <v>0.05410409107228878</v>
       </c>
       <c r="J142" t="n">
-        <v>0.07514161591056918</v>
+        <v>0.07506955147466857</v>
       </c>
       <c r="K142" t="n">
-        <v>0.2424394898238296</v>
+        <v>0.2425131270946408</v>
       </c>
       <c r="L142" t="n">
-        <v>0.04955001908134717</v>
+        <v>0.04954387072669691</v>
       </c>
       <c r="M142" t="n">
-        <v>0.03144368657632589</v>
+        <v>0.03141208689312344</v>
       </c>
       <c r="N142" t="n">
         <v>0</v>
@@ -26758,40 +26758,40 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>0.03595807217653211</v>
+        <v>0.03599640625146415</v>
       </c>
       <c r="C143" t="n">
-        <v>0.02964430805716945</v>
+        <v>0.02961917794138067</v>
       </c>
       <c r="D143" t="n">
-        <v>0.06142879331998929</v>
+        <v>0.06142723156138095</v>
       </c>
       <c r="E143" t="n">
-        <v>0.2284725063755246</v>
+        <v>0.2285774281583941</v>
       </c>
       <c r="F143" t="n">
-        <v>0.05079023565801576</v>
+        <v>0.05064981936132024</v>
       </c>
       <c r="G143" t="n">
-        <v>0.03981007879498114</v>
+        <v>0.03968087876465462</v>
       </c>
       <c r="H143" t="n">
-        <v>0.07364742475943949</v>
+        <v>0.0737213953262528</v>
       </c>
       <c r="I143" t="n">
-        <v>0.05402903905560741</v>
+        <v>0.05414404128040354</v>
       </c>
       <c r="J143" t="n">
-        <v>0.07518064577866587</v>
+        <v>0.07510908883879272</v>
       </c>
       <c r="K143" t="n">
-        <v>0.2414260162292275</v>
+        <v>0.241499134927709</v>
       </c>
       <c r="L143" t="n">
-        <v>0.04947083359007699</v>
+        <v>0.04946472853369892</v>
       </c>
       <c r="M143" t="n">
-        <v>0.03134563109387561</v>
+        <v>0.03131425394365345</v>
       </c>
       <c r="N143" t="n">
         <v>0</v>
@@ -26943,40 +26943,40 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>0.03591654409178249</v>
+        <v>0.03595475108146224</v>
       </c>
       <c r="C144" t="n">
-        <v>0.02973194624572621</v>
+        <v>0.02970670989460933</v>
       </c>
       <c r="D144" t="n">
-        <v>0.06196835361569943</v>
+        <v>0.06196595686726934</v>
       </c>
       <c r="E144" t="n">
-        <v>0.2299784447725013</v>
+        <v>0.2300822098810043</v>
       </c>
       <c r="F144" t="n">
-        <v>0.05098447851618151</v>
+        <v>0.05084631301844664</v>
       </c>
       <c r="G144" t="n">
-        <v>0.03983226708574988</v>
+        <v>0.03970326562613009</v>
       </c>
       <c r="H144" t="n">
-        <v>0.07370565363347767</v>
+        <v>0.07377995283481061</v>
       </c>
       <c r="I144" t="n">
-        <v>0.0539058328820632</v>
+        <v>0.05402031286590066</v>
       </c>
       <c r="J144" t="n">
-        <v>0.074767131217606</v>
+        <v>0.07469593369071202</v>
       </c>
       <c r="K144" t="n">
-        <v>0.2398720813067298</v>
+        <v>0.2399445477004397</v>
       </c>
       <c r="L144" t="n">
-        <v>0.04923569807342312</v>
+        <v>0.049229635709747</v>
       </c>
       <c r="M144" t="n">
-        <v>0.03126995381183805</v>
+        <v>0.03123879608224682</v>
       </c>
       <c r="N144" t="n">
         <v>0</v>
@@ -27128,40 +27128,40 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>0.03611920346587994</v>
+        <v>0.03615504503717443</v>
       </c>
       <c r="C145" t="n">
-        <v>0.0297172828056782</v>
+        <v>0.02968900156582865</v>
       </c>
       <c r="D145" t="n">
-        <v>0.06229419097733244</v>
+        <v>0.06228607062133604</v>
       </c>
       <c r="E145" t="n">
-        <v>0.2317017578050622</v>
+        <v>0.2318069024146019</v>
       </c>
       <c r="F145" t="n">
-        <v>0.05104749792230891</v>
+        <v>0.0509252725639492</v>
       </c>
       <c r="G145" t="n">
-        <v>0.03983174622375445</v>
+        <v>0.03971036090222195</v>
       </c>
       <c r="H145" t="n">
-        <v>0.07384847751725436</v>
+        <v>0.07391386038363922</v>
       </c>
       <c r="I145" t="n">
-        <v>0.05384538058148469</v>
+        <v>0.05397264616080769</v>
       </c>
       <c r="J145" t="n">
-        <v>0.07437294050971195</v>
+        <v>0.07428921683926623</v>
       </c>
       <c r="K145" t="n">
-        <v>0.2382887665795269</v>
+        <v>0.2383598896975643</v>
       </c>
       <c r="L145" t="n">
-        <v>0.04898506750535944</v>
+        <v>0.04897694714936303</v>
       </c>
       <c r="M145" t="n">
-        <v>0.03114954559607893</v>
+        <v>0.0311166441536797</v>
       </c>
       <c r="N145" t="n">
         <v>0</v>
@@ -27313,40 +27313,40 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>0.03607950062185899</v>
+        <v>0.03611509500990317</v>
       </c>
       <c r="C146" t="n">
-        <v>0.02961369660928694</v>
+        <v>0.02958561041247083</v>
       </c>
       <c r="D146" t="n">
-        <v>0.06242101626149083</v>
+        <v>0.06241295190794958</v>
       </c>
       <c r="E146" t="n">
-        <v>0.2330555070844651</v>
+        <v>0.2331599265587666</v>
       </c>
       <c r="F146" t="n">
-        <v>0.05115386299914699</v>
+        <v>0.0510324805742932</v>
       </c>
       <c r="G146" t="n">
-        <v>0.03975100613238471</v>
+        <v>0.03963045795100071</v>
       </c>
       <c r="H146" t="n">
-        <v>0.07401616624803865</v>
+        <v>0.07408095915752533</v>
       </c>
       <c r="I146" t="n">
-        <v>0.05430660811204446</v>
+        <v>0.05443313503829525</v>
       </c>
       <c r="J146" t="n">
-        <v>0.07434527529686902</v>
+        <v>0.07426226807162536</v>
       </c>
       <c r="K146" t="n">
-        <v>0.2368290683794612</v>
+        <v>0.2368995619526581</v>
       </c>
       <c r="L146" t="n">
-        <v>0.04869270572270164</v>
+        <v>0.04868464136916038</v>
       </c>
       <c r="M146" t="n">
-        <v>0.03101161058349074</v>
+        <v>0.03097893604759081</v>
       </c>
       <c r="N146" t="n">
         <v>0</v>
@@ -27498,40 +27498,40 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>0.03603785606399341</v>
+        <v>0.0360732066548592</v>
       </c>
       <c r="C147" t="n">
-        <v>0.02961578602729231</v>
+        <v>0.02958858264291512</v>
       </c>
       <c r="D147" t="n">
-        <v>0.06296092130268031</v>
+        <v>0.06295125512549045</v>
       </c>
       <c r="E147" t="n">
-        <v>0.2347312374667656</v>
+        <v>0.2348352179156795</v>
       </c>
       <c r="F147" t="n">
-        <v>0.05152431471636813</v>
+        <v>0.05140500647219607</v>
       </c>
       <c r="G147" t="n">
-        <v>0.03977286693015745</v>
+        <v>0.03965480148019552</v>
       </c>
       <c r="H147" t="n">
-        <v>0.07397166373965615</v>
+        <v>0.07403407962665358</v>
       </c>
       <c r="I147" t="n">
-        <v>0.05403227343240152</v>
+        <v>0.05415765755937864</v>
       </c>
       <c r="J147" t="n">
-        <v>0.07389281535143596</v>
+        <v>0.07381037666883097</v>
       </c>
       <c r="K147" t="n">
-        <v>0.2353932325160258</v>
+        <v>0.2354632432565296</v>
       </c>
       <c r="L147" t="n">
-        <v>0.04844605154613266</v>
+        <v>0.04843790433964406</v>
       </c>
       <c r="M147" t="n">
-        <v>0.03098548333509626</v>
+        <v>0.03095317068563299</v>
       </c>
       <c r="N147" t="n">
         <v>0</v>
@@ -27683,40 +27683,40 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>0.0359463073146841</v>
+        <v>0.03598114312760043</v>
       </c>
       <c r="C148" t="n">
-        <v>0.02961633838027459</v>
+        <v>0.02958932005293398</v>
       </c>
       <c r="D148" t="n">
-        <v>0.06345357037595385</v>
+        <v>0.06344383280620165</v>
       </c>
       <c r="E148" t="n">
-        <v>0.2360133182524436</v>
+        <v>0.2361161799047556</v>
       </c>
       <c r="F148" t="n">
-        <v>0.05212850245640483</v>
+        <v>0.05201069157729018</v>
       </c>
       <c r="G148" t="n">
-        <v>0.03988728008693044</v>
+        <v>0.03976933205894603</v>
       </c>
       <c r="H148" t="n">
-        <v>0.07404516614008358</v>
+        <v>0.07410798032242877</v>
       </c>
       <c r="I148" t="n">
-        <v>0.05389017968833468</v>
+        <v>0.0540145737131973</v>
       </c>
       <c r="J148" t="n">
-        <v>0.0734883417289014</v>
+        <v>0.0734063267047913</v>
       </c>
       <c r="K148" t="n">
-        <v>0.2339407245327921</v>
+        <v>0.2340105333074945</v>
       </c>
       <c r="L148" t="n">
-        <v>0.04819027266155348</v>
+        <v>0.04818190658049878</v>
       </c>
       <c r="M148" t="n">
-        <v>0.0308613758198588</v>
+        <v>0.03082955728207696</v>
       </c>
       <c r="N148" t="n">
         <v>0</v>
@@ -27868,40 +27868,40 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>0.03582125905264551</v>
+        <v>0.03585585948844754</v>
       </c>
       <c r="C149" t="n">
-        <v>0.02955885261685548</v>
+        <v>0.02953201684578068</v>
       </c>
       <c r="D149" t="n">
-        <v>0.06373264052544712</v>
+        <v>0.06372296875008514</v>
       </c>
       <c r="E149" t="n">
-        <v>0.2368853450535272</v>
+        <v>0.2369875116946749</v>
       </c>
       <c r="F149" t="n">
-        <v>0.0524996226645387</v>
+        <v>0.05238247158268932</v>
       </c>
       <c r="G149" t="n">
-        <v>0.03982687249657674</v>
+        <v>0.03970985763691556</v>
       </c>
       <c r="H149" t="n">
-        <v>0.07419913613337133</v>
+        <v>0.07426152589556553</v>
       </c>
       <c r="I149" t="n">
-        <v>0.05438493774918444</v>
+        <v>0.05450849127387907</v>
       </c>
       <c r="J149" t="n">
-        <v>0.07341381521841593</v>
+        <v>0.07333249057206236</v>
       </c>
       <c r="K149" t="n">
-        <v>0.232557429912322</v>
+        <v>0.232626630783926</v>
       </c>
       <c r="L149" t="n">
-        <v>0.04803371444668999</v>
+        <v>0.04802540489320998</v>
       </c>
       <c r="M149" t="n">
-        <v>0.03073976276633481</v>
+        <v>0.03070815921867312</v>
       </c>
       <c r="N149" t="n">
         <v>0</v>
@@ -28053,40 +28053,40 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>0.03577636789905594</v>
+        <v>0.0358106008092227</v>
       </c>
       <c r="C150" t="n">
-        <v>0.02956640974845035</v>
+        <v>0.02953961877527637</v>
       </c>
       <c r="D150" t="n">
-        <v>0.06417737031443807</v>
+        <v>0.06416776345032013</v>
       </c>
       <c r="E150" t="n">
-        <v>0.2384881014928661</v>
+        <v>0.2385898530677491</v>
       </c>
       <c r="F150" t="n">
-        <v>0.05264115020413233</v>
+        <v>0.05252559721882637</v>
       </c>
       <c r="G150" t="n">
-        <v>0.03994412323089935</v>
+        <v>0.03982694655024951</v>
       </c>
       <c r="H150" t="n">
-        <v>0.07425510608210567</v>
+        <v>0.07431734773695432</v>
       </c>
       <c r="I150" t="n">
-        <v>0.05422601216770229</v>
+        <v>0.0543488717820557</v>
       </c>
       <c r="J150" t="n">
-        <v>0.07300959644540615</v>
+        <v>0.0729285469861576</v>
       </c>
       <c r="K150" t="n">
-        <v>0.2311510281577187</v>
+        <v>0.2312197645939429</v>
       </c>
       <c r="L150" t="n">
-        <v>0.04782202242350331</v>
+        <v>0.04781390394678393</v>
       </c>
       <c r="M150" t="n">
-        <v>0.03072126306178337</v>
+        <v>0.03068973631052307</v>
       </c>
       <c r="N150" t="n">
         <v>0</v>
@@ -28238,40 +28238,40 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>0.03570801663944947</v>
+        <v>0.03574269335967689</v>
       </c>
       <c r="C151" t="n">
-        <v>0.02951808767296358</v>
+        <v>0.02949268495930862</v>
       </c>
       <c r="D151" t="n">
-        <v>0.06457490776395637</v>
+        <v>0.06456442410435273</v>
       </c>
       <c r="E151" t="n">
-        <v>0.2400706974993784</v>
+        <v>0.2401720395422135</v>
       </c>
       <c r="F151" t="n">
-        <v>0.05298992627836804</v>
+        <v>0.05287460602272804</v>
       </c>
       <c r="G151" t="n">
-        <v>0.03996196313246373</v>
+        <v>0.03984691168860843</v>
       </c>
       <c r="H151" t="n">
-        <v>0.07424608374831153</v>
+        <v>0.07430535674683979</v>
       </c>
       <c r="I151" t="n">
-        <v>0.05401329274275384</v>
+        <v>0.05413533329301157</v>
       </c>
       <c r="J151" t="n">
-        <v>0.07277622090952468</v>
+        <v>0.07269598059178914</v>
       </c>
       <c r="K151" t="n">
-        <v>0.229812974200789</v>
+        <v>0.229881252394105</v>
       </c>
       <c r="L151" t="n">
-        <v>0.04760199727156039</v>
+        <v>0.04759406732391148</v>
       </c>
       <c r="M151" t="n">
-        <v>0.03063244692647326</v>
+        <v>0.03060126475944705</v>
       </c>
       <c r="N151" t="n">
         <v>0</v>
@@ -28423,40 +28423,40 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>0.03559958134789794</v>
+        <v>0.03563402842097154</v>
       </c>
       <c r="C152" t="n">
-        <v>0.02951740318202835</v>
+        <v>0.02949216869826514</v>
       </c>
       <c r="D152" t="n">
-        <v>0.06475048369431774</v>
+        <v>0.06474006946292341</v>
       </c>
       <c r="E152" t="n">
-        <v>0.2409931918964996</v>
+        <v>0.2410937292841911</v>
       </c>
       <c r="F152" t="n">
-        <v>0.05314836234208587</v>
+        <v>0.05303393931253522</v>
       </c>
       <c r="G152" t="n">
-        <v>0.0398419119674339</v>
+        <v>0.03972762245367036</v>
       </c>
       <c r="H152" t="n">
-        <v>0.07425840992577724</v>
+        <v>0.0743174239036785</v>
       </c>
       <c r="I152" t="n">
-        <v>0.05449767288658862</v>
+        <v>0.05461877170549462</v>
       </c>
       <c r="J152" t="n">
-        <v>0.07277304679421252</v>
+        <v>0.07269333786930968</v>
       </c>
       <c r="K152" t="n">
-        <v>0.2285882401163937</v>
+        <v>0.228656066136244</v>
       </c>
       <c r="L152" t="n">
-        <v>0.04753883006257485</v>
+        <v>0.04753081911534843</v>
       </c>
       <c r="M152" t="n">
-        <v>0.03058552947888388</v>
+        <v>0.03055468733206217</v>
       </c>
       <c r="N152" t="n">
         <v>0</v>
@@ -28608,40 +28608,40 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>0.03563343374868291</v>
+        <v>0.03566765419627575</v>
       </c>
       <c r="C153" t="n">
-        <v>0.02949417934061177</v>
+        <v>0.02946950878537041</v>
       </c>
       <c r="D153" t="n">
-        <v>0.06486247093914703</v>
+        <v>0.06485199258503914</v>
       </c>
       <c r="E153" t="n">
-        <v>0.2427854542406297</v>
+        <v>0.2428861260225017</v>
       </c>
       <c r="F153" t="n">
-        <v>0.05346414386806718</v>
+        <v>0.05334967779724305</v>
       </c>
       <c r="G153" t="n">
-        <v>0.03992624299807198</v>
+        <v>0.03981270538900426</v>
       </c>
       <c r="H153" t="n">
-        <v>0.07446475506117767</v>
+        <v>0.07452271760225547</v>
       </c>
       <c r="I153" t="n">
-        <v>0.05428808735817083</v>
+        <v>0.05440852211171464</v>
       </c>
       <c r="J153" t="n">
-        <v>0.07235223929059155</v>
+        <v>0.07227332004129798</v>
       </c>
       <c r="K153" t="n">
-        <v>0.2272219150929682</v>
+        <v>0.2272892948890037</v>
       </c>
       <c r="L153" t="n">
-        <v>0.04730035154214845</v>
+        <v>0.04729239329852221</v>
       </c>
       <c r="M153" t="n">
-        <v>0.03044240406867858</v>
+        <v>0.03041176483071755</v>
       </c>
       <c r="N153" t="n">
         <v>0</v>
@@ -28793,40 +28793,40 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>0.03566710717539033</v>
+        <v>0.03570163104185781</v>
       </c>
       <c r="C154" t="n">
-        <v>0.02960447903683156</v>
+        <v>0.0295803650384974</v>
       </c>
       <c r="D154" t="n">
-        <v>0.06521782385528017</v>
+        <v>0.06519173329970551</v>
       </c>
       <c r="E154" t="n">
-        <v>0.244441492785632</v>
+        <v>0.2445486221880673</v>
       </c>
       <c r="F154" t="n">
-        <v>0.05346508273275642</v>
+        <v>0.05335900749418266</v>
       </c>
       <c r="G154" t="n">
-        <v>0.03986281111505105</v>
+        <v>0.03975014735234228</v>
       </c>
       <c r="H154" t="n">
-        <v>0.07466998412033914</v>
+        <v>0.07472756782127916</v>
       </c>
       <c r="I154" t="n">
-        <v>0.05424806294096168</v>
+        <v>0.05436784230973627</v>
       </c>
       <c r="J154" t="n">
-        <v>0.07202324220482061</v>
+        <v>0.07194497053809662</v>
       </c>
       <c r="K154" t="n">
-        <v>0.2258614594134395</v>
+        <v>0.2259280035072032</v>
       </c>
       <c r="L154" t="n">
-        <v>0.04705168156924941</v>
+        <v>0.04704390711077009</v>
       </c>
       <c r="M154" t="n">
-        <v>0.03030391675900483</v>
+        <v>0.03027334600701836</v>
       </c>
       <c r="N154" t="n">
         <v>0</v>
@@ -28978,40 +28978,40 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>0.03557440321820072</v>
+        <v>0.03560870290371711</v>
       </c>
       <c r="C155" t="n">
-        <v>0.02955507023973386</v>
+        <v>0.02953111282580446</v>
       </c>
       <c r="D155" t="n">
-        <v>0.06491542771053264</v>
+        <v>0.06488950657415003</v>
       </c>
       <c r="E155" t="n">
-        <v>0.2430224359217726</v>
+        <v>0.2431288696787376</v>
       </c>
       <c r="F155" t="n">
-        <v>0.05335132801312919</v>
+        <v>0.05324594157480591</v>
       </c>
       <c r="G155" t="n">
-        <v>0.03996371564565755</v>
+        <v>0.03985178346582351</v>
       </c>
       <c r="H155" t="n">
-        <v>0.07442442640321716</v>
+        <v>0.07448163618402122</v>
       </c>
       <c r="I155" t="n">
-        <v>0.05450652047494853</v>
+        <v>0.05462552205561419</v>
       </c>
       <c r="J155" t="n">
-        <v>0.07274334906842315</v>
+        <v>0.07266558565927531</v>
       </c>
       <c r="K155" t="n">
-        <v>0.2270416625973974</v>
+        <v>0.2271077745866561</v>
       </c>
       <c r="L155" t="n">
-        <v>0.04715539092870195</v>
+        <v>0.04714766695371925</v>
       </c>
       <c r="M155" t="n">
-        <v>0.03030796142830174</v>
+        <v>0.03027758918769181</v>
       </c>
       <c r="N155" t="n">
         <v>0</v>
@@ -29163,40 +29163,40 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>0.03564275173952659</v>
+        <v>0.03567683013674933</v>
       </c>
       <c r="C156" t="n">
-        <v>0.02962934540211533</v>
+        <v>0.029605932762802</v>
       </c>
       <c r="D156" t="n">
-        <v>0.06467585526046236</v>
+        <v>0.06465010135721769</v>
       </c>
       <c r="E156" t="n">
-        <v>0.2416454923190284</v>
+        <v>0.2417511093363753</v>
       </c>
       <c r="F156" t="n">
-        <v>0.05319429694120371</v>
+        <v>0.05308933027494893</v>
       </c>
       <c r="G156" t="n">
-        <v>0.0398767974891245</v>
+        <v>0.03976532731194936</v>
       </c>
       <c r="H156" t="n">
-        <v>0.07427672829176832</v>
+        <v>0.07433330883677554</v>
       </c>
       <c r="I156" t="n">
-        <v>0.05433501275663667</v>
+        <v>0.054453246585169</v>
       </c>
       <c r="J156" t="n">
-        <v>0.07294168757003468</v>
+        <v>0.07286468600073749</v>
       </c>
       <c r="K156" t="n">
-        <v>0.2286603222749801</v>
+        <v>0.2287258776650575</v>
       </c>
       <c r="L156" t="n">
-        <v>0.04729717337904868</v>
+        <v>0.0472904097276915</v>
       </c>
       <c r="M156" t="n">
-        <v>0.03054074742249603</v>
+        <v>0.03051005085095189</v>
       </c>
       <c r="N156" t="n">
         <v>0</v>
@@ -29348,40 +29348,40 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>0.03586130139022218</v>
+        <v>0.03589554904548554</v>
       </c>
       <c r="C157" t="n">
-        <v>0.02961194434148608</v>
+        <v>0.02958881101962895</v>
       </c>
       <c r="D157" t="n">
-        <v>0.06448911027951773</v>
+        <v>0.06446274604678669</v>
       </c>
       <c r="E157" t="n">
-        <v>0.2402487232732591</v>
+        <v>0.2403541802041832</v>
       </c>
       <c r="F157" t="n">
-        <v>0.05299327091730471</v>
+        <v>0.05288910635073011</v>
       </c>
       <c r="G157" t="n">
-        <v>0.03987512658708804</v>
+        <v>0.03976437096233068</v>
       </c>
       <c r="H157" t="n">
-        <v>0.07418365221131294</v>
+        <v>0.07423961158764893</v>
       </c>
       <c r="I157" t="n">
-        <v>0.05430657156932837</v>
+        <v>0.05442443519800831</v>
       </c>
       <c r="J157" t="n">
-        <v>0.0729303172651089</v>
+        <v>0.07285316311344013</v>
       </c>
       <c r="K157" t="n">
-        <v>0.2301929655057616</v>
+        <v>0.230259393033329</v>
       </c>
       <c r="L157" t="n">
-        <v>0.04746143455544476</v>
+        <v>0.04745432655152217</v>
       </c>
       <c r="M157" t="n">
-        <v>0.03070360450756007</v>
+        <v>0.0306723292903007</v>
       </c>
       <c r="N157" t="n">
         <v>0</v>
@@ -29533,40 +29533,40 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>0.03574820057690947</v>
+        <v>0.03578223009424122</v>
       </c>
       <c r="C158" t="n">
-        <v>0.0295002527815278</v>
+        <v>0.02947726680566976</v>
       </c>
       <c r="D158" t="n">
-        <v>0.06421036045990956</v>
+        <v>0.06418416415222777</v>
       </c>
       <c r="E158" t="n">
-        <v>0.2388105489449116</v>
+        <v>0.2389153341756388</v>
       </c>
       <c r="F158" t="n">
-        <v>0.05272559098035444</v>
+        <v>0.05262208988235675</v>
       </c>
       <c r="G158" t="n">
-        <v>0.03979296184828819</v>
+        <v>0.03968291167337006</v>
       </c>
       <c r="H158" t="n">
-        <v>0.07428579426883858</v>
+        <v>0.07434139721602592</v>
       </c>
       <c r="I158" t="n">
-        <v>0.05438019600231504</v>
+        <v>0.05449730890724543</v>
       </c>
       <c r="J158" t="n">
-        <v>0.07363923343953539</v>
+        <v>0.07356257071558425</v>
       </c>
       <c r="K158" t="n">
-        <v>0.2317425539884713</v>
+        <v>0.2318085584107676</v>
       </c>
       <c r="L158" t="n">
-        <v>0.04753962095226917</v>
+        <v>0.04753255822225692</v>
       </c>
       <c r="M158" t="n">
-        <v>0.03065314714607279</v>
+        <v>0.0306220711340189</v>
       </c>
       <c r="N158" t="n">
         <v>0</v>
@@ -29718,40 +29718,40 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>0.03571768535699694</v>
+        <v>0.03575175469869814</v>
       </c>
       <c r="C159" t="n">
-        <v>0.02942544798632326</v>
+        <v>0.02940273509185579</v>
       </c>
       <c r="D159" t="n">
-        <v>0.0638811640945377</v>
+        <v>0.06385513358627161</v>
       </c>
       <c r="E159" t="n">
-        <v>0.2374037222095614</v>
+        <v>0.2375078442426258</v>
       </c>
       <c r="F159" t="n">
-        <v>0.052717266061653</v>
+        <v>0.05261467523495723</v>
       </c>
       <c r="G159" t="n">
-        <v>0.03998349869936779</v>
+        <v>0.03987401744401335</v>
       </c>
       <c r="H159" t="n">
-        <v>0.07415976964531391</v>
+        <v>0.07421514827564471</v>
       </c>
       <c r="I159" t="n">
-        <v>0.05432222553700045</v>
+        <v>0.05443783161782927</v>
       </c>
       <c r="J159" t="n">
-        <v>0.0739516531797159</v>
+        <v>0.07387458245916337</v>
       </c>
       <c r="K159" t="n">
-        <v>0.2331501585181393</v>
+        <v>0.2332153623893352</v>
       </c>
       <c r="L159" t="n">
-        <v>0.04773280653028892</v>
+        <v>0.04772604370216096</v>
       </c>
       <c r="M159" t="n">
-        <v>0.03068869324041293</v>
+        <v>0.03065896231675607</v>
       </c>
       <c r="N159" t="n">
         <v>0</v>
@@ -29903,40 +29903,40 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>0.03563125565915376</v>
+        <v>0.03566536432428895</v>
       </c>
       <c r="C160" t="n">
-        <v>0.02939634383005313</v>
+        <v>0.02937377378397854</v>
       </c>
       <c r="D160" t="n">
-        <v>0.06358096097423477</v>
+        <v>0.06355509417985715</v>
       </c>
       <c r="E160" t="n">
-        <v>0.2360942205593086</v>
+        <v>0.2361976877368191</v>
       </c>
       <c r="F160" t="n">
-        <v>0.05254256006960704</v>
+        <v>0.05244099486227136</v>
       </c>
       <c r="G160" t="n">
-        <v>0.03998131504500252</v>
+        <v>0.03987290274503748</v>
       </c>
       <c r="H160" t="n">
-        <v>0.07437286654420515</v>
+        <v>0.07442738968921681</v>
       </c>
       <c r="I160" t="n">
-        <v>0.05424127303174933</v>
+        <v>0.05435653242434375</v>
       </c>
       <c r="J160" t="n">
-        <v>0.07423554429758276</v>
+        <v>0.07415781711643823</v>
       </c>
       <c r="K160" t="n">
-        <v>0.2346712932725159</v>
+        <v>0.2347353262684017</v>
       </c>
       <c r="L160" t="n">
-        <v>0.04782770280422679</v>
+        <v>0.04782136290364403</v>
       </c>
       <c r="M160" t="n">
-        <v>0.03066052000625368</v>
+        <v>0.03063161005959633</v>
       </c>
       <c r="N160" t="n">
         <v>0</v>
@@ -30088,40 +30088,40 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>0.03555321465293038</v>
+        <v>0.03558711013890849</v>
       </c>
       <c r="C161" t="n">
-        <v>0.02934404044273301</v>
+        <v>0.02932161145944638</v>
       </c>
       <c r="D161" t="n">
-        <v>0.06337712445313602</v>
+        <v>0.06335141932622326</v>
       </c>
       <c r="E161" t="n">
-        <v>0.2349362916070241</v>
+        <v>0.2350391121146751</v>
       </c>
       <c r="F161" t="n">
-        <v>0.05251847240983044</v>
+        <v>0.05241754198504062</v>
       </c>
       <c r="G161" t="n">
-        <v>0.04001658232696922</v>
+        <v>0.03990884760387895</v>
       </c>
       <c r="H161" t="n">
-        <v>0.07425505534162617</v>
+        <v>0.07430923771698152</v>
       </c>
       <c r="I161" t="n">
-        <v>0.05420026813975524</v>
+        <v>0.05431480716114594</v>
       </c>
       <c r="J161" t="n">
-        <v>0.07461013890848975</v>
+        <v>0.07453289752222737</v>
       </c>
       <c r="K161" t="n">
-        <v>0.2358735206951473</v>
+        <v>0.2359371534848088</v>
       </c>
       <c r="L161" t="n">
-        <v>0.04797408318380678</v>
+        <v>0.04796778290760267</v>
       </c>
       <c r="M161" t="n">
-        <v>0.03066483034616238</v>
+        <v>0.03063610108667164</v>
       </c>
       <c r="N161" t="n">
         <v>0</v>
@@ -30273,40 +30273,40 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>0.03547889800358413</v>
+        <v>0.03551258295859343</v>
       </c>
       <c r="C162" t="n">
-        <v>0.02931555301993135</v>
+        <v>0.02929326334709992</v>
       </c>
       <c r="D162" t="n">
-        <v>0.06312911192809302</v>
+        <v>0.06310356646035362</v>
       </c>
       <c r="E162" t="n">
-        <v>0.2336224437470643</v>
+        <v>0.2337245003951408</v>
       </c>
       <c r="F162" t="n">
-        <v>0.05232325385144885</v>
+        <v>0.05222307554658848</v>
       </c>
       <c r="G162" t="n">
-        <v>0.0400271182671257</v>
+        <v>0.03992005270380618</v>
       </c>
       <c r="H162" t="n">
-        <v>0.07430888552762849</v>
+        <v>0.07436285658937201</v>
       </c>
       <c r="I162" t="n">
-        <v>0.05424692775052997</v>
+        <v>0.05436125624095187</v>
       </c>
       <c r="J162" t="n">
-        <v>0.07477771999437499</v>
+        <v>0.07470045747675143</v>
       </c>
       <c r="K162" t="n">
-        <v>0.2372741934049867</v>
+        <v>0.2373375561828109</v>
       </c>
       <c r="L162" t="n">
-        <v>0.04821381456319567</v>
+        <v>0.04820742819626082</v>
       </c>
       <c r="M162" t="n">
-        <v>0.03067209249062175</v>
+        <v>0.03064341645085547</v>
       </c>
       <c r="N162" t="n">
         <v>0</v>
@@ -30458,40 +30458,40 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>0.03536816387363755</v>
+        <v>0.03540176534672614</v>
       </c>
       <c r="C163" t="n">
-        <v>0.02921075615510539</v>
+        <v>0.02918847962294667</v>
       </c>
       <c r="D163" t="n">
-        <v>0.06284222166966466</v>
+        <v>0.06281683388999773</v>
       </c>
       <c r="E163" t="n">
-        <v>0.2323536886079308</v>
+        <v>0.2324551152766982</v>
       </c>
       <c r="F163" t="n">
-        <v>0.05215881997600108</v>
+        <v>0.05205926005573862</v>
       </c>
       <c r="G163" t="n">
-        <v>0.04003217278823282</v>
+        <v>0.03992564367355198</v>
       </c>
       <c r="H163" t="n">
-        <v>0.07437798073067524</v>
+        <v>0.07443174308761696</v>
       </c>
       <c r="I163" t="n">
-        <v>0.05420141619008578</v>
+        <v>0.05431516339898564</v>
       </c>
       <c r="J163" t="n">
-        <v>0.07479911919338544</v>
+        <v>0.07472208470508236</v>
       </c>
       <c r="K163" t="n">
-        <v>0.2387545203315047</v>
+        <v>0.2388177408808713</v>
       </c>
       <c r="L163" t="n">
-        <v>0.04851704254270063</v>
+        <v>0.04851044669798324</v>
       </c>
       <c r="M163" t="n">
-        <v>0.03081740436834084</v>
+        <v>0.03078902979106604</v>
       </c>
       <c r="N163" t="n">
         <v>0</v>
@@ -30643,40 +30643,40 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>0.03534388469062876</v>
+        <v>0.03537728001971067</v>
       </c>
       <c r="C164" t="n">
-        <v>0.02910415298128142</v>
+        <v>0.02908201311496416</v>
       </c>
       <c r="D164" t="n">
-        <v>0.06258358881790801</v>
+        <v>0.06255835679149058</v>
       </c>
       <c r="E164" t="n">
-        <v>0.2311878236177457</v>
+        <v>0.2312886280370114</v>
       </c>
       <c r="F164" t="n">
-        <v>0.05195867934089494</v>
+        <v>0.05185973021768931</v>
       </c>
       <c r="G164" t="n">
-        <v>0.0400153964835708</v>
+        <v>0.03990952092174076</v>
       </c>
       <c r="H164" t="n">
-        <v>0.0743643477403669</v>
+        <v>0.07441790395330194</v>
       </c>
       <c r="I164" t="n">
-        <v>0.05422869591363622</v>
+        <v>0.05434162160049465</v>
       </c>
       <c r="J164" t="n">
-        <v>0.07559020369048071</v>
+        <v>0.07551364180640036</v>
       </c>
       <c r="K164" t="n">
-        <v>0.2398075291129965</v>
+        <v>0.2398703618062321</v>
       </c>
       <c r="L164" t="n">
-        <v>0.04854369772626047</v>
+        <v>0.04853714234684809</v>
       </c>
       <c r="M164" t="n">
-        <v>0.03073619508215436</v>
+        <v>0.03070799458204076</v>
       </c>
       <c r="N164" t="n">
         <v>0</v>
@@ -30828,40 +30828,40 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>0.03538517860330314</v>
+        <v>0.03541837030232967</v>
       </c>
       <c r="C165" t="n">
-        <v>0.02902159230660672</v>
+        <v>0.02899958743947432</v>
       </c>
       <c r="D165" t="n">
-        <v>0.06235527804563342</v>
+        <v>0.0623301998730356</v>
       </c>
       <c r="E165" t="n">
-        <v>0.2299846678936941</v>
+        <v>0.2300848576518668</v>
       </c>
       <c r="F165" t="n">
-        <v>0.05174389186685359</v>
+        <v>0.05164542315974157</v>
       </c>
       <c r="G165" t="n">
-        <v>0.04000398792117193</v>
+        <v>0.0398988808742546</v>
       </c>
       <c r="H165" t="n">
-        <v>0.07428216189583117</v>
+        <v>0.07433514568205499</v>
       </c>
       <c r="I165" t="n">
-        <v>0.05423253170053122</v>
+        <v>0.05434390829059799</v>
       </c>
       <c r="J165" t="n">
-        <v>0.07560528136480332</v>
+        <v>0.07552918632147955</v>
       </c>
       <c r="K165" t="n">
-        <v>0.2412528809165433</v>
+        <v>0.2413154534158192</v>
       </c>
       <c r="L165" t="n">
-        <v>0.04881171258840671</v>
+        <v>0.0488058118419131</v>
       </c>
       <c r="M165" t="n">
-        <v>0.03076243545443862</v>
+        <v>0.03073477570524984</v>
       </c>
       <c r="N165" t="n">
         <v>0</v>
@@ -31013,40 +31013,40 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>0.03532663381053534</v>
+        <v>0.03535962434774959</v>
       </c>
       <c r="C166" t="n">
-        <v>0.0290052803187619</v>
+        <v>0.02898340881446061</v>
       </c>
       <c r="D166" t="n">
-        <v>0.06212716874598691</v>
+        <v>0.06210224256231393</v>
       </c>
       <c r="E166" t="n">
-        <v>0.2288268870434552</v>
+        <v>0.2289264695909723</v>
       </c>
       <c r="F166" t="n">
-        <v>0.05156433185303571</v>
+        <v>0.05146633773879192</v>
       </c>
       <c r="G166" t="n">
-        <v>0.0399576499251909</v>
+        <v>0.039853302077854</v>
       </c>
       <c r="H166" t="n">
-        <v>0.07422211062460252</v>
+        <v>0.0742748954841453</v>
       </c>
       <c r="I166" t="n">
-        <v>0.05421616010918646</v>
+        <v>0.05432698387679134</v>
       </c>
       <c r="J166" t="n">
-        <v>0.07573185535726613</v>
+        <v>0.07565597712167338</v>
       </c>
       <c r="K166" t="n">
-        <v>0.2424924228678185</v>
+        <v>0.242554738327001</v>
       </c>
       <c r="L166" t="n">
-        <v>0.04894463882387513</v>
+        <v>0.04893865165230662</v>
       </c>
       <c r="M166" t="n">
-        <v>0.03088940655521974</v>
+        <v>0.03086191444087454</v>
       </c>
       <c r="N166" t="n">
         <v>0</v>
@@ -31198,40 +31198,40 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>0.035277295954245</v>
+        <v>0.03531008775328325</v>
       </c>
       <c r="C167" t="n">
-        <v>0.02923923269133468</v>
+        <v>0.0292174929430834</v>
       </c>
       <c r="D167" t="n">
-        <v>0.0623300443563735</v>
+        <v>0.06230526833043348</v>
       </c>
       <c r="E167" t="n">
-        <v>0.2284332588514174</v>
+        <v>0.2285322415040699</v>
       </c>
       <c r="F167" t="n">
-        <v>0.0519288500547623</v>
+        <v>0.05183144626650794</v>
       </c>
       <c r="G167" t="n">
-        <v>0.04028375350963338</v>
+        <v>0.04018003426378646</v>
       </c>
       <c r="H167" t="n">
-        <v>0.07460377183417649</v>
+        <v>0.0746562387126377</v>
       </c>
       <c r="I167" t="n">
-        <v>0.05431050627379986</v>
+        <v>0.05442066242834688</v>
       </c>
       <c r="J167" t="n">
-        <v>0.07580030814575008</v>
+        <v>0.07572488700796209</v>
       </c>
       <c r="K167" t="n">
-        <v>0.2414669059091551</v>
+        <v>0.2415288459740051</v>
       </c>
       <c r="L167" t="n">
-        <v>0.04891795564751294</v>
+        <v>0.04891200454324303</v>
       </c>
       <c r="M167" t="n">
-        <v>0.03087347879451517</v>
+        <v>0.03084615229531663</v>
       </c>
       <c r="N167" t="n">
         <v>0</v>
@@ -31383,40 +31383,40 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>0.03521611441337804</v>
+        <v>0.03524870985433821</v>
       </c>
       <c r="C168" t="n">
-        <v>0.0292455954203164</v>
+        <v>0.02922398585019835</v>
       </c>
       <c r="D168" t="n">
-        <v>0.06244876026862024</v>
+        <v>0.06242413260211699</v>
       </c>
       <c r="E168" t="n">
-        <v>0.2293610798603998</v>
+        <v>0.2294594698025574</v>
       </c>
       <c r="F168" t="n">
-        <v>0.05188795812137745</v>
+        <v>0.05179113758934018</v>
       </c>
       <c r="G168" t="n">
-        <v>0.04041726027592403</v>
+        <v>0.04031416210340553</v>
       </c>
       <c r="H168" t="n">
-        <v>0.07452923430773983</v>
+        <v>0.07458138701327613</v>
       </c>
       <c r="I168" t="n">
-        <v>0.05427889407773433</v>
+        <v>0.05438839061458945</v>
       </c>
       <c r="J168" t="n">
-        <v>0.07567852541122469</v>
+        <v>0.07560355589701627</v>
       </c>
       <c r="K168" t="n">
-        <v>0.2402985404365157</v>
+        <v>0.2403601096027738</v>
       </c>
       <c r="L168" t="n">
-        <v>0.0488872459713544</v>
+        <v>0.0488813305024394</v>
       </c>
       <c r="M168" t="n">
-        <v>0.03108590987215706</v>
+        <v>0.03105874700469024</v>
       </c>
       <c r="N168" t="n">
         <v>0</v>
@@ -31568,40 +31568,40 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>0.03530278767421164</v>
+        <v>0.03533554911047301</v>
       </c>
       <c r="C169" t="n">
-        <v>0.02928164370726013</v>
+        <v>0.0292635229128445</v>
       </c>
       <c r="D169" t="n">
-        <v>0.06298704135189287</v>
+        <v>0.06296400034177499</v>
       </c>
       <c r="E169" t="n">
-        <v>0.2308179990610788</v>
+        <v>0.230916403375124</v>
       </c>
       <c r="F169" t="n">
-        <v>0.05195075752120973</v>
+        <v>0.05185427329134109</v>
       </c>
       <c r="G169" t="n">
-        <v>0.04034396867958692</v>
+        <v>0.04023944409722922</v>
       </c>
       <c r="H169" t="n">
-        <v>0.07460319060387607</v>
+        <v>0.07465551289768543</v>
       </c>
       <c r="I169" t="n">
-        <v>0.0540864911517721</v>
+        <v>0.05419545592878792</v>
       </c>
       <c r="J169" t="n">
-        <v>0.0752980210652435</v>
+        <v>0.07522385781392656</v>
       </c>
       <c r="K169" t="n">
-        <v>0.2389305947172724</v>
+        <v>0.2389921574161811</v>
       </c>
       <c r="L169" t="n">
-        <v>0.04866393342684143</v>
+        <v>0.0486606932847936</v>
       </c>
       <c r="M169" t="n">
-        <v>0.03101763981332942</v>
+        <v>0.03098319830341362</v>
       </c>
       <c r="N169" t="n">
         <v>0</v>
@@ -31753,40 +31753,40 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>0.03519589281042602</v>
+        <v>0.03522846039203495</v>
       </c>
       <c r="C170" t="n">
-        <v>0.02916540263492015</v>
+        <v>0.02914738906414012</v>
       </c>
       <c r="D170" t="n">
-        <v>0.063128021970353</v>
+        <v>0.06310511729757309</v>
       </c>
       <c r="E170" t="n">
-        <v>0.2318682971771542</v>
+        <v>0.2319661192171517</v>
       </c>
       <c r="F170" t="n">
-        <v>0.05214964529370411</v>
+        <v>0.05205373197643825</v>
       </c>
       <c r="G170" t="n">
-        <v>0.04027059007805363</v>
+        <v>0.04016668398434895</v>
       </c>
       <c r="H170" t="n">
-        <v>0.07471587767425475</v>
+        <v>0.07476777107352173</v>
       </c>
       <c r="I170" t="n">
-        <v>0.05450751434315661</v>
+        <v>0.05461595365334899</v>
       </c>
       <c r="J170" t="n">
-        <v>0.07524065713029025</v>
+        <v>0.07516693271477992</v>
       </c>
       <c r="K170" t="n">
-        <v>0.2377168622172988</v>
+        <v>0.2377780606398826</v>
       </c>
       <c r="L170" t="n">
-        <v>0.04844827403150514</v>
+        <v>0.04844505306189546</v>
       </c>
       <c r="M170" t="n">
-        <v>0.0308980456945836</v>
+        <v>0.03086380798058447</v>
       </c>
       <c r="N170" t="n">
         <v>0</v>
@@ -31938,40 +31938,40 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>0.03519971727325232</v>
+        <v>0.03523351640206495</v>
       </c>
       <c r="C171" t="n">
-        <v>0.02915382398599649</v>
+        <v>0.02913710231174182</v>
       </c>
       <c r="D171" t="n">
-        <v>0.06325844948571957</v>
+        <v>0.06323591673317781</v>
       </c>
       <c r="E171" t="n">
-        <v>0.2335156905043423</v>
+        <v>0.2336145974286571</v>
       </c>
       <c r="F171" t="n">
-        <v>0.05241995832626714</v>
+        <v>0.05232283030346874</v>
       </c>
       <c r="G171" t="n">
-        <v>0.04027729516838489</v>
+        <v>0.04017305153952067</v>
       </c>
       <c r="H171" t="n">
-        <v>0.07459325416826273</v>
+        <v>0.07464436793850218</v>
       </c>
       <c r="I171" t="n">
-        <v>0.05428851647915068</v>
+        <v>0.05439655509791667</v>
       </c>
       <c r="J171" t="n">
-        <v>0.07494512088821739</v>
+        <v>0.07487111858513289</v>
       </c>
       <c r="K171" t="n">
-        <v>0.2365185948575515</v>
+        <v>0.2365790775091109</v>
       </c>
       <c r="L171" t="n">
-        <v>0.04827120420959255</v>
+        <v>0.04826847656060065</v>
       </c>
       <c r="M171" t="n">
-        <v>0.03089465700999861</v>
+        <v>0.03085967194684168</v>
       </c>
       <c r="N171" t="n">
         <v>0</v>
@@ -32123,40 +32123,40 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>0.03521693759475468</v>
+        <v>0.03525053906784326</v>
       </c>
       <c r="C172" t="n">
-        <v>0.02928008784957764</v>
+        <v>0.02926346396289171</v>
       </c>
       <c r="D172" t="n">
-        <v>0.06344524038670697</v>
+        <v>0.0634229573045535</v>
       </c>
       <c r="E172" t="n">
-        <v>0.2350578670421543</v>
+        <v>0.2351564313632141</v>
       </c>
       <c r="F172" t="n">
-        <v>0.05261389396153233</v>
+        <v>0.0525170981390561</v>
       </c>
       <c r="G172" t="n">
-        <v>0.04024584016710661</v>
+        <v>0.04014244194991824</v>
       </c>
       <c r="H172" t="n">
-        <v>0.07456320148233193</v>
+        <v>0.07461354474201201</v>
       </c>
       <c r="I172" t="n">
-        <v>0.05420707538555333</v>
+        <v>0.05431460009943678</v>
       </c>
       <c r="J172" t="n">
-        <v>0.07458748886288016</v>
+        <v>0.07451391932180201</v>
       </c>
       <c r="K172" t="n">
-        <v>0.2352555851838018</v>
+        <v>0.2353157141356446</v>
       </c>
       <c r="L172" t="n">
-        <v>0.04806342920599955</v>
+        <v>0.04806071750817135</v>
       </c>
       <c r="M172" t="n">
-        <v>0.03086678477879207</v>
+        <v>0.03083200430664775</v>
       </c>
       <c r="N172" t="n">
         <v>0</v>
@@ -32308,40 +32308,40 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>0.03523008960340728</v>
+        <v>0.03526349571909419</v>
       </c>
       <c r="C173" t="n">
-        <v>0.02923234387153672</v>
+        <v>0.02921581663535478</v>
       </c>
       <c r="D173" t="n">
-        <v>0.0636844812299827</v>
+        <v>0.06366232770063245</v>
       </c>
       <c r="E173" t="n">
-        <v>0.2356302128192277</v>
+        <v>0.2357282040919093</v>
       </c>
       <c r="F173" t="n">
-        <v>0.0529184520379606</v>
+        <v>0.05282221898189412</v>
       </c>
       <c r="G173" t="n">
-        <v>0.04034145973238536</v>
+        <v>0.04023877988206351</v>
       </c>
       <c r="H173" t="n">
-        <v>0.07467204571550742</v>
+        <v>0.07472197906737627</v>
       </c>
       <c r="I173" t="n">
-        <v>0.05443485526126396</v>
+        <v>0.05454175483146204</v>
       </c>
       <c r="J173" t="n">
-        <v>0.07440936815321146</v>
+        <v>0.0743362263420233</v>
       </c>
       <c r="K173" t="n">
-        <v>0.2341182637446826</v>
+        <v>0.234178043109596</v>
       </c>
       <c r="L173" t="n">
-        <v>0.04796754847872066</v>
+        <v>0.0479648525465775</v>
       </c>
       <c r="M173" t="n">
-        <v>0.03084052600214831</v>
+        <v>0.03080594774205134</v>
       </c>
       <c r="N173" t="n">
         <v>0</v>
@@ -32493,40 +32493,40 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>0.03537524241132095</v>
+        <v>0.0354049593210467</v>
       </c>
       <c r="C174" t="n">
-        <v>0.02933245448971812</v>
+        <v>0.02931229360586498</v>
       </c>
       <c r="D174" t="n">
-        <v>0.06403399707702145</v>
+        <v>0.06408224335398795</v>
       </c>
       <c r="E174" t="n">
-        <v>0.2369237148281436</v>
+        <v>0.2370627433508997</v>
       </c>
       <c r="F174" t="n">
-        <v>0.05309339628501337</v>
+        <v>0.05300867395806979</v>
       </c>
       <c r="G174" t="n">
-        <v>0.04049377617200287</v>
+        <v>0.04024100763398276</v>
       </c>
       <c r="H174" t="n">
-        <v>0.07457242902407454</v>
+        <v>0.07466822235660221</v>
       </c>
       <c r="I174" t="n">
-        <v>0.05427601275519688</v>
+        <v>0.05436796036999534</v>
       </c>
       <c r="J174" t="n">
-        <v>0.07408239135585207</v>
+        <v>0.07401002194040233</v>
       </c>
       <c r="K174" t="n">
-        <v>0.2328612384632838</v>
+        <v>0.2329275479598875</v>
       </c>
       <c r="L174" t="n">
-        <v>0.04776602839794508</v>
+        <v>0.04776136692190967</v>
       </c>
       <c r="M174" t="n">
-        <v>0.03076364416948987</v>
+        <v>0.03072728465641367</v>
       </c>
       <c r="N174" t="n">
         <v>0</v>
@@ -32678,40 +32678,40 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>0.03541641610395786</v>
+        <v>0.03544596222684609</v>
       </c>
       <c r="C175" t="n">
-        <v>0.029406734708491</v>
+        <v>0.02938668969178643</v>
       </c>
       <c r="D175" t="n">
-        <v>0.06424508960817669</v>
+        <v>0.06429305860768936</v>
       </c>
       <c r="E175" t="n">
-        <v>0.2378898552981528</v>
+        <v>0.2380280848064103</v>
       </c>
       <c r="F175" t="n">
-        <v>0.0534407097372666</v>
+        <v>0.053356474320248</v>
       </c>
       <c r="G175" t="n">
-        <v>0.04054203115574932</v>
+        <v>0.04029071531047645</v>
       </c>
       <c r="H175" t="n">
-        <v>0.07461601047624411</v>
+        <v>0.07471125327237794</v>
       </c>
       <c r="I175" t="n">
-        <v>0.05424401667838084</v>
+        <v>0.05433543585861149</v>
       </c>
       <c r="J175" t="n">
-        <v>0.0738144415423586</v>
+        <v>0.0737424880430896</v>
       </c>
       <c r="K175" t="n">
-        <v>0.2316854012259208</v>
+        <v>0.2317513296334635</v>
       </c>
       <c r="L175" t="n">
-        <v>0.04767655082964355</v>
+        <v>0.04767191614370029</v>
       </c>
       <c r="M175" t="n">
-        <v>0.03074859215621116</v>
+        <v>0.03071244160585379</v>
       </c>
       <c r="N175" t="n">
         <v>0</v>
@@ -32863,40 +32863,40 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>0.03542993084816838</v>
+        <v>0.03545930813606869</v>
       </c>
       <c r="C176" t="n">
-        <v>0.029363693704332</v>
+        <v>0.02934387843563062</v>
       </c>
       <c r="D176" t="n">
-        <v>0.06434467047035342</v>
+        <v>0.06439225015624685</v>
       </c>
       <c r="E176" t="n">
-        <v>0.2386651190788204</v>
+        <v>0.2388025587041736</v>
       </c>
       <c r="F176" t="n">
-        <v>0.0535691964735734</v>
+        <v>0.0534854424017949</v>
       </c>
       <c r="G176" t="n">
-        <v>0.04051116480946525</v>
+        <v>0.0402612850547368</v>
       </c>
       <c r="H176" t="n">
-        <v>0.07445621776058663</v>
+        <v>0.07455091631217113</v>
       </c>
       <c r="I176" t="n">
-        <v>0.05425927472660402</v>
+        <v>0.05435017151151907</v>
       </c>
       <c r="J176" t="n">
-        <v>0.07382581572376133</v>
+        <v>0.07375438859239589</v>
       </c>
       <c r="K176" t="n">
-        <v>0.2309370490802317</v>
+        <v>0.2310024855489665</v>
       </c>
       <c r="L176" t="n">
-        <v>0.04783117851886626</v>
+        <v>0.04782657031684269</v>
       </c>
       <c r="M176" t="n">
-        <v>0.03068267632853024</v>
+        <v>0.03064673235274635</v>
       </c>
       <c r="N176" t="n">
         <v>0</v>
@@ -33048,40 +33048,40 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>0.03535302624030674</v>
+        <v>0.03538212206132207</v>
       </c>
       <c r="C177" t="n">
-        <v>0.02933591881395353</v>
+        <v>0.02931564337962395</v>
       </c>
       <c r="D177" t="n">
-        <v>0.06458023665212029</v>
+        <v>0.06462766054936575</v>
       </c>
       <c r="E177" t="n">
-        <v>0.2400415543308328</v>
+        <v>0.2401778693977944</v>
       </c>
       <c r="F177" t="n">
-        <v>0.05349301058812964</v>
+        <v>0.05341041969461759</v>
       </c>
       <c r="G177" t="n">
-        <v>0.04041420994078199</v>
+        <v>0.0401659790583401</v>
       </c>
       <c r="H177" t="n">
-        <v>0.07453192384317765</v>
+        <v>0.07462596978433353</v>
       </c>
       <c r="I177" t="n">
-        <v>0.05443404275207062</v>
+        <v>0.05452419397702759</v>
       </c>
       <c r="J177" t="n">
-        <v>0.07371964641475337</v>
+        <v>0.07364896877079091</v>
       </c>
       <c r="K177" t="n">
-        <v>0.2297962742686639</v>
+        <v>0.2298612243888045</v>
       </c>
       <c r="L177" t="n">
-        <v>0.04762229867066463</v>
+        <v>0.04761783120208354</v>
       </c>
       <c r="M177" t="n">
-        <v>0.03064820907203117</v>
+        <v>0.03061246932338241</v>
       </c>
       <c r="N177" t="n">
         <v>0</v>
@@ -33233,40 +33233,40 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>0.0354448840732093</v>
+        <v>0.03547392941435366</v>
       </c>
       <c r="C178" t="n">
-        <v>0.02955289424295141</v>
+        <v>0.02953284726239687</v>
       </c>
       <c r="D178" t="n">
-        <v>0.06474183760419447</v>
+        <v>0.06478887966651847</v>
       </c>
       <c r="E178" t="n">
-        <v>0.2413904767957909</v>
+        <v>0.241526363431027</v>
       </c>
       <c r="F178" t="n">
-        <v>0.05374561315683334</v>
+        <v>0.05366326107194166</v>
       </c>
       <c r="G178" t="n">
-        <v>0.04055356091895815</v>
+        <v>0.04030661856758173</v>
       </c>
       <c r="H178" t="n">
-        <v>0.07442874363408702</v>
+        <v>0.07452237214554062</v>
       </c>
       <c r="I178" t="n">
-        <v>0.05423289146826706</v>
+        <v>0.05432241946097086</v>
       </c>
       <c r="J178" t="n">
-        <v>0.07345862923986519</v>
+        <v>0.0733883509046257</v>
       </c>
       <c r="K178" t="n">
-        <v>0.2285856957731739</v>
+        <v>0.2286502789434831</v>
       </c>
       <c r="L178" t="n">
-        <v>0.04740940046201456</v>
+        <v>0.04740484433007035</v>
       </c>
       <c r="M178" t="n">
-        <v>0.03057278437866377</v>
+        <v>0.0305372465494989</v>
       </c>
       <c r="N178" t="n">
         <v>0</v>
@@ -33418,40 +33418,40 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>0.03542980852370456</v>
+        <v>0.03545869068877508</v>
       </c>
       <c r="C179" t="n">
-        <v>0.02951666659493319</v>
+        <v>0.0294967322378649</v>
       </c>
       <c r="D179" t="n">
-        <v>0.0648439717484855</v>
+        <v>0.0648907495295605</v>
       </c>
       <c r="E179" t="n">
-        <v>0.2421955293126792</v>
+        <v>0.2423306525398523</v>
       </c>
       <c r="F179" t="n">
-        <v>0.05374676434803666</v>
+        <v>0.0536648749153073</v>
       </c>
       <c r="G179" t="n">
-        <v>0.04051714705824389</v>
+        <v>0.04027159202344824</v>
       </c>
       <c r="H179" t="n">
-        <v>0.07456366977015913</v>
+        <v>0.0746567722787394</v>
       </c>
       <c r="I179" t="n">
-        <v>0.054222470596257</v>
+        <v>0.05431149562270967</v>
       </c>
       <c r="J179" t="n">
-        <v>0.07357691909527921</v>
+        <v>0.07350703558214779</v>
       </c>
       <c r="K179" t="n">
-        <v>0.2278807354599819</v>
+        <v>0.2279449558034916</v>
       </c>
       <c r="L179" t="n">
-        <v>0.04727387473385934</v>
+        <v>0.04726934419816201</v>
       </c>
       <c r="M179" t="n">
-        <v>0.0304952623055579</v>
+        <v>0.03045992412711868</v>
       </c>
       <c r="N179" t="n">
         <v>0</v>
@@ -33603,40 +33603,40 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>0.03535058932290854</v>
+        <v>0.03537976065764578</v>
       </c>
       <c r="C180" t="n">
-        <v>0.02943500305623231</v>
+        <v>0.02941461691110706</v>
       </c>
       <c r="D180" t="n">
-        <v>0.06471519823160891</v>
+        <v>0.06476160205366197</v>
       </c>
       <c r="E180" t="n">
-        <v>0.2410739376199728</v>
+        <v>0.2412084185994178</v>
       </c>
       <c r="F180" t="n">
-        <v>0.05356600419954589</v>
+        <v>0.0534844596190449</v>
       </c>
       <c r="G180" t="n">
-        <v>0.04045444659556445</v>
+        <v>0.0402106012685138</v>
       </c>
       <c r="H180" t="n">
-        <v>0.07457522200343096</v>
+        <v>0.07466566440417999</v>
       </c>
       <c r="I180" t="n">
-        <v>0.05415697714690605</v>
+        <v>0.05424651850256668</v>
       </c>
       <c r="J180" t="n">
-        <v>0.07367147377975687</v>
+        <v>0.0736029943530378</v>
       </c>
       <c r="K180" t="n">
-        <v>0.2293103434682509</v>
+        <v>0.2293738671469838</v>
       </c>
       <c r="L180" t="n">
-        <v>0.0475118822505268</v>
+        <v>0.04750816543953711</v>
       </c>
       <c r="M180" t="n">
-        <v>0.0305836102826815</v>
+        <v>0.03054801900168935</v>
       </c>
       <c r="N180" t="n">
         <v>0</v>
@@ -33788,40 +33788,40 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>0.03529465131751376</v>
+        <v>0.0353244446236523</v>
       </c>
       <c r="C181" t="n">
-        <v>0.02933083786393196</v>
+        <v>0.02931011695552733</v>
       </c>
       <c r="D181" t="n">
-        <v>0.06440427948361256</v>
+        <v>0.06445042550665421</v>
       </c>
       <c r="E181" t="n">
-        <v>0.2398367864447177</v>
+        <v>0.2399702962977897</v>
       </c>
       <c r="F181" t="n">
-        <v>0.05338714049223918</v>
+        <v>0.05330470487826186</v>
       </c>
       <c r="G181" t="n">
-        <v>0.04040879552159567</v>
+        <v>0.04016137667475342</v>
       </c>
       <c r="H181" t="n">
-        <v>0.07464500043681915</v>
+        <v>0.07473953258110835</v>
       </c>
       <c r="I181" t="n">
-        <v>0.05424263399707443</v>
+        <v>0.05433279794986212</v>
       </c>
       <c r="J181" t="n">
-        <v>0.07411096102453131</v>
+        <v>0.07404308604889238</v>
       </c>
       <c r="K181" t="n">
-        <v>0.2304565992173097</v>
+        <v>0.2305190979572544</v>
       </c>
       <c r="L181" t="n">
-        <v>0.0477279803946605</v>
+        <v>0.04772383621297958</v>
       </c>
       <c r="M181" t="n">
-        <v>0.03070121794139455</v>
+        <v>0.03066716844866479</v>
       </c>
       <c r="N181" t="n">
         <v>0</v>
